--- a/REST API coverage.xlsx
+++ b/REST API coverage.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="376">
   <si>
     <t>Access Control</t>
   </si>
@@ -174,9 +174,6 @@
     <t>Delete the identified credentials</t>
   </si>
   <si>
-    <t>curl verified : Equivalent to GET authorization/capabilities : no other name but capabilities is permitted</t>
-  </si>
-  <si>
     <t>Applications</t>
   </si>
   <si>
@@ -1069,6 +1066,87 @@
   </si>
   <si>
     <t>Returns the results of the search specified by {search_id}.</t>
+  </si>
+  <si>
+    <t>GET messages</t>
+  </si>
+  <si>
+    <t>Enumerate all systemwide messages.</t>
+  </si>
+  <si>
+    <t>POST messages</t>
+  </si>
+  <si>
+    <t>Create a persistent message displayed at /services/messages.</t>
+  </si>
+  <si>
+    <t>DELETE messages/{name}</t>
+  </si>
+  <si>
+    <t>Deletes a message identified by {name}.</t>
+  </si>
+  <si>
+    <t>GET server/control</t>
+  </si>
+  <si>
+    <t>Lists the actions that can be performed at this endpoint.</t>
+  </si>
+  <si>
+    <t>POST server/control/restart</t>
+  </si>
+  <si>
+    <t>Restarts the Splunk server.</t>
+  </si>
+  <si>
+    <t>GET server/info</t>
+  </si>
+  <si>
+    <t>Enumerates information about the running splunkd.</t>
+  </si>
+  <si>
+    <t>GET server/info/{name}</t>
+  </si>
+  <si>
+    <t>Provides the identical information as /services/server/info. The only valid {name} here is server-info.</t>
+  </si>
+  <si>
+    <t>Redundant with GET server/info</t>
+  </si>
+  <si>
+    <t>GET server/logger</t>
+  </si>
+  <si>
+    <t>Enumerates all splunkd logging categories, either specified in code or in $SPLUNK_HOME/etc/log.cfg.</t>
+  </si>
+  <si>
+    <t>GET server/logger/{name}</t>
+  </si>
+  <si>
+    <t>Describes a specific splunkd logging category.</t>
+  </si>
+  <si>
+    <t>Sets the logging level for a specific logging category.</t>
+  </si>
+  <si>
+    <t>POST server/logger/{name}</t>
+  </si>
+  <si>
+    <t>Splunk.Management</t>
+  </si>
+  <si>
+    <t>1 = Must have in splunk-sdk-csharp-2.0.0</t>
+  </si>
+  <si>
+    <t>2 = Nice to have in splunk-sdk-csharp-2.0.0</t>
+  </si>
+  <si>
+    <t>4 = Redundant endpoint that we will not support</t>
+  </si>
+  <si>
+    <t>Redundant with GET authorization/capabilities</t>
+  </si>
+  <si>
+    <t>3 = Splunk management API, perhaps code named splunk-management-1.0.0 that I'll argue should be the heart of a set of Windows PowerShell commands for managing Splunk servers</t>
   </si>
 </sst>
 </file>
@@ -1207,8 +1285,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E178" totalsRowShown="0">
-  <autoFilter ref="A1:E178"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E187" totalsRowShown="0">
+  <autoFilter ref="A1:E187"/>
   <sortState ref="A2:E178">
     <sortCondition ref="D1:D178"/>
   </sortState>
@@ -1545,15 +1623,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E178"/>
+  <dimension ref="A1:E209"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D165" sqref="D165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="54.33203125" customWidth="1"/>
+    <col min="1" max="1" width="59.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="106.5" customWidth="1"/>
     <col min="3" max="3" width="8.83203125" style="3" customWidth="1"/>
     <col min="4" max="4" width="12.83203125" style="3" bestFit="1" customWidth="1"/>
@@ -1579,10 +1657,10 @@
     </row>
     <row r="2" spans="1:5" outlineLevel="1">
       <c r="A2" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>79</v>
       </c>
       <c r="D2" s="19">
         <v>1</v>
@@ -1591,10 +1669,10 @@
     </row>
     <row r="3" spans="1:5" outlineLevel="1">
       <c r="A3" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" t="s">
         <v>80</v>
-      </c>
-      <c r="B3" t="s">
-        <v>81</v>
       </c>
       <c r="D3" s="19">
         <v>1</v>
@@ -1603,10 +1681,10 @@
     </row>
     <row r="4" spans="1:5" outlineLevel="1">
       <c r="A4" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" t="s">
         <v>82</v>
-      </c>
-      <c r="B4" t="s">
-        <v>83</v>
       </c>
       <c r="D4" s="19">
         <v>1</v>
@@ -1615,10 +1693,10 @@
     </row>
     <row r="5" spans="1:5" outlineLevel="1">
       <c r="A5" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" t="s">
         <v>84</v>
-      </c>
-      <c r="B5" t="s">
-        <v>85</v>
       </c>
       <c r="D5" s="19">
         <v>1</v>
@@ -1627,10 +1705,10 @@
     </row>
     <row r="6" spans="1:5" outlineLevel="1">
       <c r="A6" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" t="s">
         <v>86</v>
-      </c>
-      <c r="B6" t="s">
-        <v>87</v>
       </c>
       <c r="D6" s="19">
         <v>1</v>
@@ -1639,10 +1717,10 @@
     </row>
     <row r="7" spans="1:5" outlineLevel="1">
       <c r="A7" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7" t="s">
         <v>88</v>
-      </c>
-      <c r="B7" t="s">
-        <v>89</v>
       </c>
       <c r="D7" s="19">
         <v>1</v>
@@ -1651,10 +1729,10 @@
     </row>
     <row r="8" spans="1:5" outlineLevel="1">
       <c r="A8" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8" t="s">
         <v>102</v>
-      </c>
-      <c r="B8" t="s">
-        <v>103</v>
       </c>
       <c r="D8" s="19">
         <v>1</v>
@@ -1663,10 +1741,10 @@
     </row>
     <row r="9" spans="1:5" outlineLevel="1">
       <c r="A9" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B9" t="s">
         <v>90</v>
-      </c>
-      <c r="B9" t="s">
-        <v>91</v>
       </c>
       <c r="D9" s="19">
         <v>1</v>
@@ -1675,10 +1753,10 @@
     </row>
     <row r="10" spans="1:5" outlineLevel="1">
       <c r="A10" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B10" t="s">
         <v>92</v>
-      </c>
-      <c r="B10" t="s">
-        <v>93</v>
       </c>
       <c r="D10" s="19">
         <v>1</v>
@@ -1687,10 +1765,10 @@
     </row>
     <row r="11" spans="1:5" outlineLevel="1">
       <c r="A11" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B11" t="s">
         <v>94</v>
-      </c>
-      <c r="B11" t="s">
-        <v>95</v>
       </c>
       <c r="D11" s="19">
         <v>1</v>
@@ -1699,10 +1777,10 @@
     </row>
     <row r="12" spans="1:5" outlineLevel="1">
       <c r="A12" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="B12" s="11" t="s">
         <v>96</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>97</v>
       </c>
       <c r="C12" s="12"/>
       <c r="D12" s="23">
@@ -1712,10 +1790,10 @@
     </row>
     <row r="13" spans="1:5" outlineLevel="1">
       <c r="A13" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="B13" s="11" t="s">
         <v>98</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>99</v>
       </c>
       <c r="C13" s="12"/>
       <c r="D13" s="23">
@@ -1725,10 +1803,10 @@
     </row>
     <row r="14" spans="1:5" outlineLevel="1">
       <c r="A14" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="B14" s="11" t="s">
         <v>100</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>101</v>
       </c>
       <c r="C14" s="12"/>
       <c r="D14" s="23">
@@ -1738,10 +1816,10 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="B15" s="22" t="s">
         <v>76</v>
-      </c>
-      <c r="B15" s="22" t="s">
-        <v>77</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="23">
@@ -1749,186 +1827,186 @@
       </c>
       <c r="E15" s="22"/>
     </row>
-    <row r="16" spans="1:5" hidden="1" outlineLevel="1">
+    <row r="16" spans="1:5" outlineLevel="1">
       <c r="A16" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B16" t="s">
         <v>128</v>
       </c>
-      <c r="B16" t="s">
+      <c r="D16" s="19">
+        <v>1</v>
+      </c>
+      <c r="E16" s="20"/>
+    </row>
+    <row r="17" spans="1:5" outlineLevel="1">
+      <c r="A17" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="D16" s="19">
-        <v>1</v>
-      </c>
-      <c r="E16" s="20"/>
-    </row>
-    <row r="17" spans="1:5" hidden="1" outlineLevel="1">
-      <c r="A17" s="4" t="s">
+      <c r="B17" t="s">
         <v>130</v>
       </c>
-      <c r="B17" t="s">
+      <c r="D17" s="19">
+        <v>1</v>
+      </c>
+      <c r="E17" s="20"/>
+    </row>
+    <row r="18" spans="1:5" outlineLevel="1">
+      <c r="A18" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="D17" s="19">
-        <v>1</v>
-      </c>
-      <c r="E17" s="20"/>
-    </row>
-    <row r="18" spans="1:5" hidden="1" outlineLevel="1">
-      <c r="A18" s="4" t="s">
+      <c r="B18" t="s">
         <v>132</v>
       </c>
-      <c r="B18" t="s">
+      <c r="D18" s="19">
+        <v>1</v>
+      </c>
+      <c r="E18" s="20"/>
+    </row>
+    <row r="19" spans="1:5" outlineLevel="1">
+      <c r="A19" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="B19" s="11" t="s">
         <v>133</v>
-      </c>
-      <c r="D18" s="19">
-        <v>1</v>
-      </c>
-      <c r="E18" s="20"/>
-    </row>
-    <row r="19" spans="1:5" hidden="1" outlineLevel="1">
-      <c r="A19" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>134</v>
       </c>
       <c r="C19" s="12"/>
       <c r="D19" s="23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E19" s="22"/>
     </row>
-    <row r="20" spans="1:5" hidden="1" outlineLevel="1">
+    <row r="20" spans="1:5" outlineLevel="1">
       <c r="A20" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B20" t="s">
         <v>136</v>
-      </c>
-      <c r="B20" t="s">
-        <v>137</v>
       </c>
       <c r="D20" s="19">
         <v>2</v>
       </c>
       <c r="E20" s="20"/>
     </row>
-    <row r="21" spans="1:5" hidden="1" outlineLevel="1">
+    <row r="21" spans="1:5" outlineLevel="1">
       <c r="A21" s="18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C21" s="12"/>
       <c r="D21" s="23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E21" s="22"/>
     </row>
-    <row r="22" spans="1:5" hidden="1" outlineLevel="1">
+    <row r="22" spans="1:5" outlineLevel="1">
       <c r="A22" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B22" t="s">
         <v>140</v>
       </c>
-      <c r="B22" t="s">
+      <c r="D22" s="23">
+        <v>1</v>
+      </c>
+      <c r="E22" s="20"/>
+    </row>
+    <row r="23" spans="1:5" s="10" customFormat="1" outlineLevel="1" collapsed="1">
+      <c r="A23" s="18" t="s">
         <v>141</v>
       </c>
-      <c r="D22" s="19">
-        <v>2</v>
-      </c>
-      <c r="E22" s="20"/>
-    </row>
-    <row r="23" spans="1:5" s="10" customFormat="1" hidden="1" outlineLevel="1" collapsed="1">
-      <c r="A23" s="18" t="s">
+      <c r="B23" s="11" t="s">
         <v>142</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>143</v>
       </c>
       <c r="C23" s="12"/>
       <c r="D23" s="23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E23" s="22"/>
     </row>
-    <row r="24" spans="1:5" hidden="1" outlineLevel="1">
+    <row r="24" spans="1:5" outlineLevel="1">
       <c r="A24" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B24" t="s">
         <v>144</v>
       </c>
-      <c r="B24" t="s">
+      <c r="D24" s="23">
+        <v>1</v>
+      </c>
+      <c r="E24" s="20"/>
+    </row>
+    <row r="25" spans="1:5" outlineLevel="1">
+      <c r="A25" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="D24" s="19">
-        <v>2</v>
-      </c>
-      <c r="E24" s="20"/>
-    </row>
-    <row r="25" spans="1:5" hidden="1" outlineLevel="1">
-      <c r="A25" s="4" t="s">
+      <c r="B25" t="s">
         <v>146</v>
       </c>
-      <c r="B25" t="s">
+      <c r="D25" s="23">
+        <v>1</v>
+      </c>
+      <c r="E25" s="20"/>
+    </row>
+    <row r="26" spans="1:5" outlineLevel="1">
+      <c r="A26" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="D25" s="19">
-        <v>2</v>
-      </c>
-      <c r="E25" s="20"/>
-    </row>
-    <row r="26" spans="1:5" hidden="1" outlineLevel="1">
-      <c r="A26" s="4" t="s">
+      <c r="B26" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="D26" s="23">
+        <v>1</v>
+      </c>
+      <c r="E26" s="20"/>
+    </row>
+    <row r="27" spans="1:5" outlineLevel="1">
+      <c r="A27" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="D26" s="19">
-        <v>2</v>
-      </c>
-      <c r="E26" s="20"/>
-    </row>
-    <row r="27" spans="1:5" hidden="1" outlineLevel="1">
-      <c r="A27" s="4" t="s">
+      <c r="B27" t="s">
         <v>150</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27" s="23">
+        <v>1</v>
+      </c>
+      <c r="E27" s="20"/>
+    </row>
+    <row r="28" spans="1:5" outlineLevel="1">
+      <c r="A28" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B28" t="s">
         <v>151</v>
       </c>
-      <c r="C27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D27" s="19">
-        <v>1</v>
-      </c>
-      <c r="E27" s="20"/>
-    </row>
-    <row r="28" spans="1:5" hidden="1" outlineLevel="1">
-      <c r="A28" s="4" t="s">
+      <c r="D28" s="23">
+        <v>1</v>
+      </c>
+      <c r="E28" s="20"/>
+    </row>
+    <row r="29" spans="1:5" outlineLevel="1">
+      <c r="A29" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="B28" t="s">
-        <v>152</v>
-      </c>
-      <c r="D28" s="19">
-        <v>1</v>
-      </c>
-      <c r="E28" s="20"/>
-    </row>
-    <row r="29" spans="1:5" hidden="1" outlineLevel="1">
-      <c r="A29" s="4" t="s">
+      <c r="B29" t="s">
         <v>154</v>
       </c>
-      <c r="B29" t="s">
+      <c r="D29" s="23">
+        <v>1</v>
+      </c>
+      <c r="E29" s="20"/>
+    </row>
+    <row r="30" spans="1:5" outlineLevel="1">
+      <c r="A30" s="18" t="s">
         <v>155</v>
       </c>
-      <c r="D29" s="19">
-        <v>1</v>
-      </c>
-      <c r="E29" s="20"/>
-    </row>
-    <row r="30" spans="1:5" hidden="1" outlineLevel="1">
-      <c r="A30" s="18" t="s">
+      <c r="B30" s="11" t="s">
         <v>156</v>
-      </c>
-      <c r="B30" s="11" t="s">
-        <v>157</v>
       </c>
       <c r="C30" s="12"/>
       <c r="D30" s="23">
@@ -1936,12 +2014,12 @@
       </c>
       <c r="E30" s="22"/>
     </row>
-    <row r="31" spans="1:5" hidden="1" outlineLevel="1">
+    <row r="31" spans="1:5" outlineLevel="1">
       <c r="A31" s="18" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C31" s="12"/>
       <c r="D31" s="23">
@@ -1949,113 +2027,113 @@
       </c>
       <c r="E31" s="22"/>
     </row>
-    <row r="32" spans="1:5" hidden="1" outlineLevel="1">
+    <row r="32" spans="1:5" outlineLevel="1">
       <c r="A32" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="B32" t="s">
         <v>160</v>
       </c>
-      <c r="B32" t="s">
+      <c r="D32" s="19">
+        <v>3</v>
+      </c>
+      <c r="E32" s="20"/>
+    </row>
+    <row r="33" spans="1:5" outlineLevel="1">
+      <c r="A33" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="D32" s="19">
-        <v>2</v>
-      </c>
-      <c r="E32" s="20"/>
-    </row>
-    <row r="33" spans="1:5" hidden="1" outlineLevel="1">
-      <c r="A33" s="4" t="s">
+      <c r="B33" t="s">
         <v>162</v>
       </c>
-      <c r="B33" t="s">
+      <c r="D33" s="19">
+        <v>3</v>
+      </c>
+      <c r="E33" s="20"/>
+    </row>
+    <row r="34" spans="1:5" outlineLevel="1">
+      <c r="A34" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="D33" s="19">
-        <v>2</v>
-      </c>
-      <c r="E33" s="20"/>
-    </row>
-    <row r="34" spans="1:5" hidden="1" outlineLevel="1">
-      <c r="A34" s="4" t="s">
+      <c r="B34" t="s">
         <v>164</v>
       </c>
-      <c r="B34" t="s">
+      <c r="D34" s="19">
+        <v>3</v>
+      </c>
+      <c r="E34" s="20"/>
+    </row>
+    <row r="35" spans="1:5" s="10" customFormat="1" outlineLevel="1" collapsed="1">
+      <c r="A35" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="D34" s="19">
-        <v>2</v>
-      </c>
-      <c r="E34" s="20"/>
-    </row>
-    <row r="35" spans="1:5" s="10" customFormat="1" hidden="1" outlineLevel="1" collapsed="1">
-      <c r="A35" s="4" t="s">
+      <c r="B35" t="s">
         <v>166</v>
-      </c>
-      <c r="B35" t="s">
-        <v>167</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E35" s="20"/>
     </row>
-    <row r="36" spans="1:5" hidden="1" outlineLevel="1">
+    <row r="36" spans="1:5" outlineLevel="1">
       <c r="A36" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="B36" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="B36" s="11" t="s">
+      <c r="C36" s="12"/>
+      <c r="D36" s="19">
+        <v>3</v>
+      </c>
+      <c r="E36" s="22"/>
+    </row>
+    <row r="37" spans="1:5" s="10" customFormat="1" outlineLevel="1" collapsed="1">
+      <c r="A37" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="C36" s="12"/>
-      <c r="D36" s="23">
-        <v>1</v>
-      </c>
-      <c r="E36" s="22"/>
-    </row>
-    <row r="37" spans="1:5" s="10" customFormat="1" hidden="1" outlineLevel="1" collapsed="1">
-      <c r="A37" s="4" t="s">
+      <c r="B37" t="s">
         <v>170</v>
-      </c>
-      <c r="B37" t="s">
-        <v>171</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E37" s="20"/>
     </row>
-    <row r="38" spans="1:5" hidden="1" outlineLevel="1">
+    <row r="38" spans="1:5" outlineLevel="1">
       <c r="A38" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="B38" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="B38" s="11" t="s">
+      <c r="C38" s="12"/>
+      <c r="D38" s="19">
+        <v>3</v>
+      </c>
+      <c r="E38" s="22"/>
+    </row>
+    <row r="39" spans="1:5" outlineLevel="1">
+      <c r="A39" s="18" t="s">
         <v>173</v>
       </c>
-      <c r="C38" s="12"/>
-      <c r="D38" s="23">
-        <v>2</v>
-      </c>
-      <c r="E38" s="22"/>
-    </row>
-    <row r="39" spans="1:5" hidden="1" outlineLevel="1">
-      <c r="A39" s="18" t="s">
+      <c r="B39" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="B39" s="11" t="s">
+      <c r="C39" s="12"/>
+      <c r="D39" s="19">
+        <v>3</v>
+      </c>
+      <c r="E39" s="22"/>
+    </row>
+    <row r="40" spans="1:5" outlineLevel="1">
+      <c r="A40" s="18" t="s">
         <v>175</v>
       </c>
-      <c r="C39" s="12"/>
-      <c r="D39" s="23">
-        <v>2</v>
-      </c>
-      <c r="E39" s="22"/>
-    </row>
-    <row r="40" spans="1:5" hidden="1" outlineLevel="1">
-      <c r="A40" s="18" t="s">
+      <c r="B40" s="11" t="s">
         <v>176</v>
-      </c>
-      <c r="B40" s="11" t="s">
-        <v>177</v>
       </c>
       <c r="C40" s="12"/>
       <c r="D40" s="23">
@@ -2063,42 +2141,42 @@
       </c>
       <c r="E40" s="22"/>
     </row>
-    <row r="41" spans="1:5" hidden="1" outlineLevel="1">
+    <row r="41" spans="1:5" outlineLevel="1">
       <c r="A41" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="B41" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="B41" s="11" t="s">
+      <c r="C41" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D41" s="23">
+        <v>1</v>
+      </c>
+      <c r="E41" s="22"/>
+    </row>
+    <row r="42" spans="1:5" outlineLevel="1">
+      <c r="A42" s="18" t="s">
         <v>179</v>
       </c>
-      <c r="C41" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D41" s="23">
-        <v>1</v>
-      </c>
-      <c r="E41" s="22"/>
-    </row>
-    <row r="42" spans="1:5" hidden="1" outlineLevel="1">
-      <c r="A42" s="18" t="s">
+      <c r="B42" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="B42" s="11" t="s">
+      <c r="C42" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D42" s="23">
+        <v>1</v>
+      </c>
+      <c r="E42" s="22"/>
+    </row>
+    <row r="43" spans="1:5" outlineLevel="1">
+      <c r="A43" s="18" t="s">
         <v>181</v>
       </c>
-      <c r="C42" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D42" s="23">
-        <v>1</v>
-      </c>
-      <c r="E42" s="22"/>
-    </row>
-    <row r="43" spans="1:5" hidden="1" outlineLevel="1">
-      <c r="A43" s="18" t="s">
+      <c r="B43" s="11" t="s">
         <v>182</v>
-      </c>
-      <c r="B43" s="11" t="s">
-        <v>183</v>
       </c>
       <c r="C43" s="12"/>
       <c r="D43" s="23">
@@ -2106,27 +2184,27 @@
       </c>
       <c r="E43" s="22"/>
     </row>
-    <row r="44" spans="1:5" hidden="1" outlineLevel="1">
+    <row r="44" spans="1:5" outlineLevel="1">
       <c r="A44" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="B44" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="B44" s="11" t="s">
+      <c r="C44" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D44" s="23">
+        <v>1</v>
+      </c>
+      <c r="E44" s="22"/>
+    </row>
+    <row r="45" spans="1:5" outlineLevel="1">
+      <c r="A45" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="C44" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D44" s="23">
-        <v>1</v>
-      </c>
-      <c r="E44" s="22"/>
-    </row>
-    <row r="45" spans="1:5" hidden="1" outlineLevel="1">
-      <c r="A45" s="18" t="s">
+      <c r="B45" s="11" t="s">
         <v>186</v>
-      </c>
-      <c r="B45" s="11" t="s">
-        <v>187</v>
       </c>
       <c r="C45" s="12"/>
       <c r="D45" s="23">
@@ -2134,72 +2212,72 @@
       </c>
       <c r="E45" s="22"/>
     </row>
-    <row r="46" spans="1:5" hidden="1" outlineLevel="1">
+    <row r="46" spans="1:5" outlineLevel="1">
       <c r="A46" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="B46" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="B46" s="11" t="s">
+      <c r="C46" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D46" s="23">
+        <v>1</v>
+      </c>
+      <c r="E46" s="22"/>
+    </row>
+    <row r="47" spans="1:5" outlineLevel="1">
+      <c r="A47" s="18" t="s">
         <v>189</v>
       </c>
-      <c r="C46" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D46" s="23">
-        <v>1</v>
-      </c>
-      <c r="E46" s="22"/>
-    </row>
-    <row r="47" spans="1:5" hidden="1" outlineLevel="1">
-      <c r="A47" s="18" t="s">
+      <c r="B47" s="16" t="s">
+        <v>347</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D47" s="23">
+        <v>1</v>
+      </c>
+      <c r="E47" s="22"/>
+    </row>
+    <row r="48" spans="1:5" outlineLevel="1">
+      <c r="A48" s="18" t="s">
         <v>190</v>
       </c>
-      <c r="B47" s="16" t="s">
+      <c r="B48" s="11" t="s">
         <v>348</v>
       </c>
-      <c r="C47" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D47" s="23">
-        <v>1</v>
-      </c>
-      <c r="E47" s="22"/>
-    </row>
-    <row r="48" spans="1:5" hidden="1" outlineLevel="1">
-      <c r="A48" s="18" t="s">
+      <c r="C48" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D48" s="23">
+        <v>1</v>
+      </c>
+      <c r="E48" s="22"/>
+    </row>
+    <row r="49" spans="1:5" outlineLevel="1">
+      <c r="A49" s="18" t="s">
         <v>191</v>
       </c>
-      <c r="B48" s="11" t="s">
-        <v>349</v>
-      </c>
-      <c r="C48" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D48" s="23">
-        <v>1</v>
-      </c>
-      <c r="E48" s="22"/>
-    </row>
-    <row r="49" spans="1:5" hidden="1" outlineLevel="1">
-      <c r="A49" s="18" t="s">
+      <c r="B49" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="B49" s="11" t="s">
+      <c r="C49" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D49" s="23">
+        <v>1</v>
+      </c>
+      <c r="E49" s="22"/>
+    </row>
+    <row r="50" spans="1:5" outlineLevel="1">
+      <c r="A50" s="18" t="s">
         <v>193</v>
       </c>
-      <c r="C49" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D49" s="23">
-        <v>1</v>
-      </c>
-      <c r="E49" s="22"/>
-    </row>
-    <row r="50" spans="1:5" hidden="1" outlineLevel="1">
-      <c r="A50" s="18" t="s">
+      <c r="B50" s="11" t="s">
         <v>194</v>
-      </c>
-      <c r="B50" s="11" t="s">
-        <v>195</v>
       </c>
       <c r="C50" s="12"/>
       <c r="D50" s="23">
@@ -2207,38 +2285,38 @@
       </c>
       <c r="E50" s="22"/>
     </row>
-    <row r="51" spans="1:5" s="10" customFormat="1" hidden="1" outlineLevel="1" collapsed="1">
+    <row r="51" spans="1:5" s="10" customFormat="1" outlineLevel="1" collapsed="1">
       <c r="A51" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="B51" s="11" t="s">
         <v>196</v>
-      </c>
-      <c r="B51" s="11" t="s">
-        <v>197</v>
       </c>
       <c r="C51" s="12"/>
       <c r="D51" s="23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E51" s="22"/>
     </row>
-    <row r="52" spans="1:5" hidden="1" outlineLevel="1">
+    <row r="52" spans="1:5" outlineLevel="1">
       <c r="A52" s="18" t="s">
+        <v>197</v>
+      </c>
+      <c r="B52" s="11" t="s">
         <v>198</v>
-      </c>
-      <c r="B52" s="11" t="s">
-        <v>199</v>
       </c>
       <c r="C52" s="12"/>
       <c r="D52" s="23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E52" s="22"/>
     </row>
-    <row r="53" spans="1:5" s="10" customFormat="1" hidden="1" outlineLevel="1" collapsed="1">
+    <row r="53" spans="1:5" s="10" customFormat="1" outlineLevel="1" collapsed="1">
       <c r="A53" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="B53" t="s">
         <v>200</v>
-      </c>
-      <c r="B53" t="s">
-        <v>201</v>
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="19">
@@ -2246,12 +2324,12 @@
       </c>
       <c r="E53" s="20"/>
     </row>
-    <row r="54" spans="1:5" hidden="1" outlineLevel="1">
+    <row r="54" spans="1:5" outlineLevel="1">
       <c r="A54" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="B54" s="11" t="s">
         <v>202</v>
-      </c>
-      <c r="B54" s="11" t="s">
-        <v>203</v>
       </c>
       <c r="C54" s="12"/>
       <c r="D54" s="23">
@@ -2259,12 +2337,12 @@
       </c>
       <c r="E54" s="22"/>
     </row>
-    <row r="55" spans="1:5" hidden="1" outlineLevel="1">
+    <row r="55" spans="1:5" outlineLevel="1">
       <c r="A55" s="18" t="s">
+        <v>203</v>
+      </c>
+      <c r="B55" s="11" t="s">
         <v>204</v>
-      </c>
-      <c r="B55" s="11" t="s">
-        <v>205</v>
       </c>
       <c r="C55" s="12"/>
       <c r="D55" s="23">
@@ -2272,22 +2350,22 @@
       </c>
       <c r="E55" s="22"/>
     </row>
-    <row r="56" spans="1:5" collapsed="1">
+    <row r="56" spans="1:5">
       <c r="A56" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B56" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="B56" s="20" t="s">
-        <v>127</v>
-      </c>
       <c r="C56" s="9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D56" s="19">
         <v>1</v>
       </c>
       <c r="E56" s="20"/>
     </row>
-    <row r="57" spans="1:5" hidden="1" outlineLevel="1">
+    <row r="57" spans="1:5" outlineLevel="1">
       <c r="A57" s="1" t="s">
         <v>5</v>
       </c>
@@ -2302,7 +2380,7 @@
       </c>
       <c r="E57" s="20"/>
     </row>
-    <row r="58" spans="1:5" hidden="1" outlineLevel="1">
+    <row r="58" spans="1:5" outlineLevel="1">
       <c r="A58" s="4" t="s">
         <v>6</v>
       </c>
@@ -2314,7 +2392,7 @@
       </c>
       <c r="E58" s="20"/>
     </row>
-    <row r="59" spans="1:5" s="10" customFormat="1" hidden="1" outlineLevel="1" collapsed="1">
+    <row r="59" spans="1:5" s="10" customFormat="1" outlineLevel="1" collapsed="1">
       <c r="A59" s="4" t="s">
         <v>10</v>
       </c>
@@ -2329,7 +2407,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="1:5" hidden="1" outlineLevel="1">
+    <row r="60" spans="1:5" outlineLevel="1">
       <c r="A60" s="4" t="s">
         <v>15</v>
       </c>
@@ -2341,7 +2419,7 @@
       </c>
       <c r="E60" s="20"/>
     </row>
-    <row r="61" spans="1:5" s="10" customFormat="1" hidden="1" outlineLevel="1" collapsed="1">
+    <row r="61" spans="1:5" s="10" customFormat="1" outlineLevel="1" collapsed="1">
       <c r="A61" s="4" t="s">
         <v>16</v>
       </c>
@@ -2356,7 +2434,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="62" spans="1:5" hidden="1" outlineLevel="1">
+    <row r="62" spans="1:5" outlineLevel="1">
       <c r="A62" s="4" t="s">
         <v>20</v>
       </c>
@@ -2368,7 +2446,7 @@
       </c>
       <c r="E62" s="20"/>
     </row>
-    <row r="63" spans="1:5" s="10" customFormat="1" hidden="1" outlineLevel="1" collapsed="1">
+    <row r="63" spans="1:5" s="10" customFormat="1" outlineLevel="1" collapsed="1">
       <c r="A63" s="4" t="s">
         <v>19</v>
       </c>
@@ -2381,7 +2459,7 @@
       </c>
       <c r="E63" s="20"/>
     </row>
-    <row r="64" spans="1:5" hidden="1" outlineLevel="1">
+    <row r="64" spans="1:5" outlineLevel="1">
       <c r="A64" s="4" t="s">
         <v>25</v>
       </c>
@@ -2393,7 +2471,7 @@
       </c>
       <c r="E64" s="20"/>
     </row>
-    <row r="65" spans="1:5" s="10" customFormat="1" hidden="1" outlineLevel="1" collapsed="1">
+    <row r="65" spans="1:5" s="10" customFormat="1" outlineLevel="1" collapsed="1">
       <c r="A65" s="4" t="s">
         <v>26</v>
       </c>
@@ -2406,7 +2484,7 @@
       </c>
       <c r="E65" s="20"/>
     </row>
-    <row r="66" spans="1:5" hidden="1" outlineLevel="1">
+    <row r="66" spans="1:5" outlineLevel="1">
       <c r="A66" s="4" t="s">
         <v>27</v>
       </c>
@@ -2418,7 +2496,7 @@
       </c>
       <c r="E66" s="20"/>
     </row>
-    <row r="67" spans="1:5" s="10" customFormat="1" hidden="1" outlineLevel="1" collapsed="1">
+    <row r="67" spans="1:5" s="10" customFormat="1" outlineLevel="1" collapsed="1">
       <c r="A67" s="4" t="s">
         <v>23</v>
       </c>
@@ -2431,7 +2509,7 @@
       </c>
       <c r="E67" s="20"/>
     </row>
-    <row r="68" spans="1:5" hidden="1" outlineLevel="1">
+    <row r="68" spans="1:5" outlineLevel="1">
       <c r="A68" s="4" t="s">
         <v>31</v>
       </c>
@@ -2439,11 +2517,11 @@
         <v>32</v>
       </c>
       <c r="D68" s="19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E68" s="20"/>
     </row>
-    <row r="69" spans="1:5" hidden="1" outlineLevel="1">
+    <row r="69" spans="1:5" outlineLevel="1">
       <c r="A69" s="4" t="s">
         <v>33</v>
       </c>
@@ -2451,13 +2529,13 @@
         <v>34</v>
       </c>
       <c r="D69" s="19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E69" s="20" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" hidden="1" outlineLevel="1">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" outlineLevel="1">
       <c r="A70" s="4" t="s">
         <v>35</v>
       </c>
@@ -2469,7 +2547,7 @@
       </c>
       <c r="E70" s="20"/>
     </row>
-    <row r="71" spans="1:5" hidden="1" outlineLevel="1">
+    <row r="71" spans="1:5" outlineLevel="1">
       <c r="A71" s="4" t="s">
         <v>36</v>
       </c>
@@ -2481,7 +2559,7 @@
       </c>
       <c r="E71" s="20"/>
     </row>
-    <row r="72" spans="1:5" hidden="1" outlineLevel="1">
+    <row r="72" spans="1:5" outlineLevel="1">
       <c r="A72" s="4" t="s">
         <v>39</v>
       </c>
@@ -2493,7 +2571,7 @@
       </c>
       <c r="E72" s="20"/>
     </row>
-    <row r="73" spans="1:5" hidden="1" outlineLevel="1">
+    <row r="73" spans="1:5" outlineLevel="1">
       <c r="A73" s="4" t="s">
         <v>40</v>
       </c>
@@ -2505,7 +2583,7 @@
       </c>
       <c r="E73" s="20"/>
     </row>
-    <row r="74" spans="1:5" hidden="1" outlineLevel="1">
+    <row r="74" spans="1:5" outlineLevel="1">
       <c r="A74" s="4" t="s">
         <v>41</v>
       </c>
@@ -2517,7 +2595,7 @@
       </c>
       <c r="E74" s="20"/>
     </row>
-    <row r="75" spans="1:5" hidden="1" outlineLevel="1">
+    <row r="75" spans="1:5" outlineLevel="1">
       <c r="A75" s="4" t="s">
         <v>45</v>
       </c>
@@ -2525,11 +2603,11 @@
         <v>46</v>
       </c>
       <c r="D75" s="19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E75" s="20"/>
     </row>
-    <row r="76" spans="1:5" hidden="1" outlineLevel="1">
+    <row r="76" spans="1:5" outlineLevel="1">
       <c r="A76" s="4" t="s">
         <v>47</v>
       </c>
@@ -2537,11 +2615,11 @@
         <v>48</v>
       </c>
       <c r="D76" s="19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E76" s="20"/>
     </row>
-    <row r="77" spans="1:5" hidden="1" outlineLevel="1">
+    <row r="77" spans="1:5" outlineLevel="1">
       <c r="A77" s="4" t="s">
         <v>49</v>
       </c>
@@ -2549,93 +2627,93 @@
         <v>50</v>
       </c>
       <c r="D77" s="19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E77" s="20"/>
     </row>
-    <row r="78" spans="1:5" collapsed="1">
+    <row r="78" spans="1:5">
       <c r="A78" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B78" s="20" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D78" s="19">
         <v>1</v>
       </c>
       <c r="E78" s="20"/>
     </row>
-    <row r="79" spans="1:5" hidden="1" outlineLevel="1">
+    <row r="79" spans="1:5" outlineLevel="1">
       <c r="A79" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B79" t="s">
+        <v>107</v>
+      </c>
+      <c r="D79" s="19">
+        <v>1</v>
+      </c>
+      <c r="E79" s="20"/>
+    </row>
+    <row r="80" spans="1:5" outlineLevel="1">
+      <c r="A80" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="B79" t="s">
-        <v>108</v>
-      </c>
-      <c r="D79" s="19">
-        <v>2</v>
-      </c>
-      <c r="E79" s="20"/>
-    </row>
-    <row r="80" spans="1:5" hidden="1" outlineLevel="1">
-      <c r="A80" s="18" t="s">
+      <c r="B80" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="B80" s="11" t="s">
+      <c r="C80" s="12"/>
+      <c r="D80" s="19">
+        <v>1</v>
+      </c>
+      <c r="E80" s="22"/>
+    </row>
+    <row r="81" spans="1:5" outlineLevel="1">
+      <c r="A81" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="C80" s="12"/>
-      <c r="D80" s="23">
-        <v>2</v>
-      </c>
-      <c r="E80" s="22"/>
-    </row>
-    <row r="81" spans="1:5" hidden="1" outlineLevel="1">
-      <c r="A81" s="18" t="s">
+      <c r="B81" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="B81" s="11" t="s">
+      <c r="C81" s="12"/>
+      <c r="D81" s="19">
+        <v>1</v>
+      </c>
+      <c r="E81" s="22"/>
+    </row>
+    <row r="82" spans="1:5" outlineLevel="1">
+      <c r="A82" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="C81" s="12"/>
-      <c r="D81" s="23">
-        <v>2</v>
-      </c>
-      <c r="E81" s="22"/>
-    </row>
-    <row r="82" spans="1:5" hidden="1" outlineLevel="1">
-      <c r="A82" s="4" t="s">
+      <c r="B82" t="s">
         <v>114</v>
       </c>
-      <c r="B82" t="s">
+      <c r="D82" s="19">
+        <v>1</v>
+      </c>
+      <c r="E82" s="20"/>
+    </row>
+    <row r="83" spans="1:5" outlineLevel="1">
+      <c r="A83" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="D82" s="19">
-        <v>2</v>
-      </c>
-      <c r="E82" s="20"/>
-    </row>
-    <row r="83" spans="1:5" hidden="1" outlineLevel="1">
-      <c r="A83" s="4" t="s">
+      <c r="B83" t="s">
         <v>116</v>
       </c>
-      <c r="B83" t="s">
-        <v>117</v>
-      </c>
       <c r="D83" s="19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E83" s="20"/>
     </row>
-    <row r="84" spans="1:5" collapsed="1">
+    <row r="84" spans="1:5">
       <c r="A84" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B84" s="20" t="s">
         <v>106</v>
-      </c>
-      <c r="B84" s="20" t="s">
-        <v>107</v>
       </c>
       <c r="C84" s="9"/>
       <c r="D84" s="19">
@@ -2643,774 +2721,910 @@
       </c>
       <c r="E84" s="20"/>
     </row>
-    <row r="85" spans="1:5" hidden="1" outlineLevel="1">
+    <row r="85" spans="1:5" outlineLevel="1">
       <c r="A85" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="B85" s="20" t="s">
         <v>343</v>
       </c>
-      <c r="B85" s="20" t="s">
+      <c r="C85" s="9"/>
+      <c r="D85" s="19">
+        <v>3</v>
+      </c>
+      <c r="E85" s="20"/>
+    </row>
+    <row r="86" spans="1:5" outlineLevel="1">
+      <c r="A86" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="C85" s="9"/>
-      <c r="D85" s="19"/>
-      <c r="E85" s="20"/>
-    </row>
-    <row r="86" spans="1:5" hidden="1" outlineLevel="1">
-      <c r="A86" s="4" t="s">
+      <c r="B86" s="20" t="s">
         <v>345</v>
       </c>
-      <c r="B86" s="20" t="s">
-        <v>346</v>
-      </c>
       <c r="C86" s="9"/>
-      <c r="D86" s="19"/>
+      <c r="D86" s="19">
+        <v>3</v>
+      </c>
       <c r="E86" s="20"/>
     </row>
-    <row r="87" spans="1:5" hidden="1" outlineLevel="1">
+    <row r="87" spans="1:5" outlineLevel="1">
       <c r="A87" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="B87" s="20" t="s">
         <v>337</v>
       </c>
-      <c r="B87" s="20" t="s">
+      <c r="C87" s="9"/>
+      <c r="D87" s="19">
+        <v>3</v>
+      </c>
+      <c r="E87" s="20"/>
+    </row>
+    <row r="88" spans="1:5" outlineLevel="1">
+      <c r="A88" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="C87" s="9"/>
-      <c r="D87" s="19"/>
-      <c r="E87" s="20"/>
-    </row>
-    <row r="88" spans="1:5" hidden="1" outlineLevel="1">
-      <c r="A88" s="4" t="s">
+      <c r="B88" s="20" t="s">
         <v>339</v>
       </c>
-      <c r="B88" s="20" t="s">
+      <c r="C88" s="9"/>
+      <c r="D88" s="19">
+        <v>3</v>
+      </c>
+      <c r="E88" s="20"/>
+    </row>
+    <row r="89" spans="1:5" outlineLevel="1">
+      <c r="A89" s="4" t="s">
         <v>340</v>
       </c>
-      <c r="C88" s="9"/>
-      <c r="D88" s="19"/>
-      <c r="E88" s="20"/>
-    </row>
-    <row r="89" spans="1:5" hidden="1" outlineLevel="1">
-      <c r="A89" s="4" t="s">
+      <c r="B89" s="20" t="s">
         <v>341</v>
       </c>
-      <c r="B89" s="20" t="s">
-        <v>342</v>
-      </c>
       <c r="C89" s="9"/>
-      <c r="D89" s="19"/>
+      <c r="D89" s="19">
+        <v>3</v>
+      </c>
       <c r="E89" s="20"/>
     </row>
-    <row r="90" spans="1:5" hidden="1" outlineLevel="1" collapsed="1">
+    <row r="90" spans="1:5" outlineLevel="1" collapsed="1">
       <c r="A90" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="B90" s="20" t="s">
         <v>335</v>
       </c>
-      <c r="B90" s="20" t="s">
-        <v>336</v>
-      </c>
       <c r="C90" s="9"/>
-      <c r="D90" s="19"/>
+      <c r="D90" s="19">
+        <v>3</v>
+      </c>
       <c r="E90" s="20"/>
     </row>
-    <row r="91" spans="1:5" hidden="1" outlineLevel="1">
+    <row r="91" spans="1:5" outlineLevel="1">
       <c r="A91" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="B91" s="20" t="s">
         <v>333</v>
       </c>
-      <c r="B91" s="20" t="s">
-        <v>334</v>
-      </c>
       <c r="C91" s="9"/>
-      <c r="D91" s="19"/>
+      <c r="D91" s="19">
+        <v>3</v>
+      </c>
       <c r="E91" s="20"/>
     </row>
-    <row r="92" spans="1:5" hidden="1" outlineLevel="1">
+    <row r="92" spans="1:5" outlineLevel="1">
       <c r="A92" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="B92" s="20" t="s">
         <v>329</v>
       </c>
-      <c r="B92" s="20" t="s">
+      <c r="C92" s="9"/>
+      <c r="D92" s="19">
+        <v>3</v>
+      </c>
+      <c r="E92" s="20"/>
+    </row>
+    <row r="93" spans="1:5" outlineLevel="1">
+      <c r="A93" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="C92" s="9"/>
-      <c r="D92" s="19"/>
-      <c r="E92" s="20"/>
-    </row>
-    <row r="93" spans="1:5" hidden="1" outlineLevel="1">
-      <c r="A93" s="4" t="s">
+      <c r="B93" s="20" t="s">
         <v>331</v>
       </c>
-      <c r="B93" s="20" t="s">
-        <v>332</v>
-      </c>
       <c r="C93" s="9"/>
-      <c r="D93" s="19"/>
+      <c r="D93" s="19">
+        <v>3</v>
+      </c>
       <c r="E93" s="20"/>
     </row>
-    <row r="94" spans="1:5" hidden="1" outlineLevel="1">
+    <row r="94" spans="1:5" outlineLevel="1">
       <c r="A94" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="B94" s="20" t="s">
         <v>323</v>
       </c>
-      <c r="B94" s="20" t="s">
+      <c r="C94" s="9"/>
+      <c r="D94" s="19">
+        <v>3</v>
+      </c>
+      <c r="E94" s="20"/>
+    </row>
+    <row r="95" spans="1:5" outlineLevel="1">
+      <c r="A95" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="C94" s="9"/>
-      <c r="D94" s="19"/>
-      <c r="E94" s="20"/>
-    </row>
-    <row r="95" spans="1:5" hidden="1" outlineLevel="1">
-      <c r="A95" s="4" t="s">
+      <c r="B95" s="20" t="s">
         <v>325</v>
       </c>
-      <c r="B95" s="20" t="s">
+      <c r="C95" s="9"/>
+      <c r="D95" s="19">
+        <v>3</v>
+      </c>
+      <c r="E95" s="20"/>
+    </row>
+    <row r="96" spans="1:5" outlineLevel="1" collapsed="1">
+      <c r="A96" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="C95" s="9"/>
-      <c r="D95" s="19"/>
-      <c r="E95" s="20"/>
-    </row>
-    <row r="96" spans="1:5" hidden="1" outlineLevel="1" collapsed="1">
-      <c r="A96" s="4" t="s">
+      <c r="B96" s="20" t="s">
         <v>327</v>
       </c>
-      <c r="B96" s="20" t="s">
-        <v>328</v>
-      </c>
       <c r="C96" s="9"/>
-      <c r="D96" s="19"/>
+      <c r="D96" s="19">
+        <v>3</v>
+      </c>
       <c r="E96" s="20"/>
     </row>
-    <row r="97" spans="1:5" hidden="1" outlineLevel="1">
+    <row r="97" spans="1:5" outlineLevel="1">
       <c r="A97" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="B97" s="20" t="s">
         <v>321</v>
       </c>
-      <c r="B97" s="20" t="s">
-        <v>322</v>
-      </c>
       <c r="C97" s="9"/>
-      <c r="D97" s="19"/>
+      <c r="D97" s="19">
+        <v>3</v>
+      </c>
       <c r="E97" s="20"/>
     </row>
-    <row r="98" spans="1:5" hidden="1" outlineLevel="1">
+    <row r="98" spans="1:5" outlineLevel="1">
       <c r="A98" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="B98" s="20" t="s">
         <v>317</v>
       </c>
-      <c r="B98" s="20" t="s">
+      <c r="C98" s="9"/>
+      <c r="D98" s="19">
+        <v>3</v>
+      </c>
+      <c r="E98" s="20"/>
+    </row>
+    <row r="99" spans="1:5" outlineLevel="1">
+      <c r="A99" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="C98" s="9"/>
-      <c r="D98" s="19"/>
-      <c r="E98" s="20"/>
-    </row>
-    <row r="99" spans="1:5" hidden="1" outlineLevel="1">
-      <c r="A99" s="4" t="s">
+      <c r="B99" s="20" t="s">
         <v>319</v>
       </c>
-      <c r="B99" s="20" t="s">
-        <v>320</v>
-      </c>
       <c r="C99" s="9"/>
-      <c r="D99" s="19"/>
+      <c r="D99" s="19">
+        <v>3</v>
+      </c>
       <c r="E99" s="20"/>
     </row>
-    <row r="100" spans="1:5" hidden="1" outlineLevel="1">
+    <row r="100" spans="1:5" outlineLevel="1">
       <c r="A100" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B100" s="20" t="s">
         <v>315</v>
       </c>
-      <c r="B100" s="20" t="s">
-        <v>316</v>
-      </c>
       <c r="C100" s="9"/>
-      <c r="D100" s="19"/>
+      <c r="D100" s="19">
+        <v>3</v>
+      </c>
       <c r="E100" s="20"/>
     </row>
-    <row r="101" spans="1:5" hidden="1" outlineLevel="1">
+    <row r="101" spans="1:5" outlineLevel="1">
       <c r="A101" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="B101" s="20" t="s">
         <v>313</v>
       </c>
-      <c r="B101" s="20" t="s">
-        <v>314</v>
-      </c>
       <c r="C101" s="9"/>
-      <c r="D101" s="19"/>
+      <c r="D101" s="19">
+        <v>3</v>
+      </c>
       <c r="E101" s="20"/>
     </row>
-    <row r="102" spans="1:5" hidden="1" outlineLevel="1">
+    <row r="102" spans="1:5" outlineLevel="1">
       <c r="A102" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="B102" s="20" t="s">
         <v>311</v>
       </c>
-      <c r="B102" s="20" t="s">
+      <c r="C102" s="9"/>
+      <c r="D102" s="19">
+        <v>3</v>
+      </c>
+      <c r="E102" s="20"/>
+    </row>
+    <row r="103" spans="1:5" outlineLevel="1">
+      <c r="A103" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="C102" s="9"/>
-      <c r="D102" s="19"/>
-      <c r="E102" s="20"/>
-    </row>
-    <row r="103" spans="1:5" hidden="1" outlineLevel="1">
-      <c r="A103" s="4" t="s">
+      <c r="B103" s="20" t="s">
         <v>313</v>
       </c>
-      <c r="B103" s="20" t="s">
-        <v>314</v>
-      </c>
       <c r="C103" s="9"/>
-      <c r="D103" s="19"/>
+      <c r="D103" s="19">
+        <v>3</v>
+      </c>
       <c r="E103" s="20"/>
     </row>
-    <row r="104" spans="1:5" hidden="1" outlineLevel="1">
+    <row r="104" spans="1:5" outlineLevel="1">
       <c r="A104" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="B104" s="20" t="s">
         <v>305</v>
       </c>
-      <c r="B104" s="20" t="s">
+      <c r="C104" s="9"/>
+      <c r="D104" s="19">
+        <v>3</v>
+      </c>
+      <c r="E104" s="20"/>
+    </row>
+    <row r="105" spans="1:5" outlineLevel="1">
+      <c r="A105" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="C104" s="9"/>
-      <c r="D104" s="19"/>
-      <c r="E104" s="20"/>
-    </row>
-    <row r="105" spans="1:5" hidden="1" outlineLevel="1">
-      <c r="A105" s="4" t="s">
+      <c r="B105" s="20" t="s">
         <v>307</v>
       </c>
-      <c r="B105" s="20" t="s">
+      <c r="C105" s="9"/>
+      <c r="D105" s="19">
+        <v>3</v>
+      </c>
+      <c r="E105" s="20"/>
+    </row>
+    <row r="106" spans="1:5" outlineLevel="1">
+      <c r="A106" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="C105" s="9"/>
-      <c r="D105" s="19"/>
-      <c r="E105" s="20"/>
-    </row>
-    <row r="106" spans="1:5" hidden="1" outlineLevel="1">
-      <c r="A106" s="4" t="s">
+      <c r="B106" s="20" t="s">
         <v>309</v>
       </c>
-      <c r="B106" s="20" t="s">
-        <v>310</v>
-      </c>
       <c r="C106" s="9"/>
-      <c r="D106" s="19"/>
+      <c r="D106" s="19">
+        <v>3</v>
+      </c>
       <c r="E106" s="20"/>
     </row>
-    <row r="107" spans="1:5" hidden="1" outlineLevel="1">
+    <row r="107" spans="1:5" outlineLevel="1">
       <c r="A107" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="B107" s="20" t="s">
         <v>301</v>
       </c>
-      <c r="B107" s="20" t="s">
+      <c r="C107" s="9"/>
+      <c r="D107" s="19">
+        <v>3</v>
+      </c>
+      <c r="E107" s="20"/>
+    </row>
+    <row r="108" spans="1:5" outlineLevel="1">
+      <c r="A108" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="C107" s="9"/>
-      <c r="D107" s="19"/>
-      <c r="E107" s="20"/>
-    </row>
-    <row r="108" spans="1:5" hidden="1" outlineLevel="1">
-      <c r="A108" s="4" t="s">
+      <c r="B108" s="20" t="s">
         <v>303</v>
       </c>
-      <c r="B108" s="20" t="s">
-        <v>304</v>
-      </c>
       <c r="C108" s="9"/>
-      <c r="D108" s="19"/>
+      <c r="D108" s="19">
+        <v>3</v>
+      </c>
       <c r="E108" s="20"/>
     </row>
-    <row r="109" spans="1:5" hidden="1" outlineLevel="1">
+    <row r="109" spans="1:5" outlineLevel="1">
       <c r="A109" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="B109" s="20" t="s">
         <v>299</v>
       </c>
-      <c r="B109" s="20" t="s">
-        <v>300</v>
-      </c>
       <c r="C109" s="9"/>
-      <c r="D109" s="19"/>
+      <c r="D109" s="19">
+        <v>3</v>
+      </c>
       <c r="E109" s="20"/>
     </row>
-    <row r="110" spans="1:5" hidden="1" outlineLevel="1">
+    <row r="110" spans="1:5" outlineLevel="1">
       <c r="A110" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="B110" s="20" t="s">
         <v>293</v>
       </c>
-      <c r="B110" s="20" t="s">
+      <c r="C110" s="9"/>
+      <c r="D110" s="19">
+        <v>3</v>
+      </c>
+      <c r="E110" s="20"/>
+    </row>
+    <row r="111" spans="1:5" outlineLevel="1">
+      <c r="A111" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="C110" s="9"/>
-      <c r="D110" s="19"/>
-      <c r="E110" s="20"/>
-    </row>
-    <row r="111" spans="1:5" hidden="1" outlineLevel="1">
-      <c r="A111" s="4" t="s">
+      <c r="B111" s="20" t="s">
         <v>295</v>
       </c>
-      <c r="B111" s="20" t="s">
+      <c r="C111" s="9"/>
+      <c r="D111" s="19">
+        <v>3</v>
+      </c>
+      <c r="E111" s="20"/>
+    </row>
+    <row r="112" spans="1:5" outlineLevel="1">
+      <c r="A112" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="C111" s="9"/>
-      <c r="D111" s="19"/>
-      <c r="E111" s="20"/>
-    </row>
-    <row r="112" spans="1:5" hidden="1" outlineLevel="1">
-      <c r="A112" s="4" t="s">
+      <c r="B112" s="20" t="s">
         <v>297</v>
       </c>
-      <c r="B112" s="20" t="s">
-        <v>298</v>
-      </c>
       <c r="C112" s="9"/>
-      <c r="D112" s="19"/>
+      <c r="D112" s="19">
+        <v>3</v>
+      </c>
       <c r="E112" s="20"/>
     </row>
-    <row r="113" spans="1:5" hidden="1" outlineLevel="1">
+    <row r="113" spans="1:5" outlineLevel="1">
       <c r="A113" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="B113" s="20" t="s">
         <v>289</v>
       </c>
-      <c r="B113" s="20" t="s">
+      <c r="C113" s="9"/>
+      <c r="D113" s="19">
+        <v>3</v>
+      </c>
+      <c r="E113" s="20"/>
+    </row>
+    <row r="114" spans="1:5" outlineLevel="1">
+      <c r="A114" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="C113" s="9"/>
-      <c r="D113" s="19"/>
-      <c r="E113" s="20"/>
-    </row>
-    <row r="114" spans="1:5" hidden="1" outlineLevel="1">
-      <c r="A114" s="4" t="s">
+      <c r="B114" s="20" t="s">
         <v>291</v>
       </c>
-      <c r="B114" s="20" t="s">
-        <v>292</v>
-      </c>
       <c r="C114" s="9"/>
-      <c r="D114" s="19"/>
+      <c r="D114" s="19">
+        <v>3</v>
+      </c>
       <c r="E114" s="20"/>
     </row>
-    <row r="115" spans="1:5" hidden="1" outlineLevel="1">
+    <row r="115" spans="1:5" outlineLevel="1">
       <c r="A115" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="B115" s="20" t="s">
         <v>283</v>
       </c>
-      <c r="B115" s="20" t="s">
+      <c r="C115" s="9"/>
+      <c r="D115" s="19">
+        <v>3</v>
+      </c>
+      <c r="E115" s="20"/>
+    </row>
+    <row r="116" spans="1:5" s="10" customFormat="1" outlineLevel="1">
+      <c r="A116" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="C115" s="9"/>
-      <c r="D115" s="19"/>
-      <c r="E115" s="20"/>
-    </row>
-    <row r="116" spans="1:5" s="10" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="A116" s="4" t="s">
+      <c r="B116" s="20" t="s">
         <v>285</v>
       </c>
-      <c r="B116" s="20" t="s">
+      <c r="C116" s="9"/>
+      <c r="D116" s="19">
+        <v>3</v>
+      </c>
+      <c r="E116" s="20"/>
+    </row>
+    <row r="117" spans="1:5" outlineLevel="1">
+      <c r="A117" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="C116" s="9"/>
-      <c r="D116" s="19"/>
-      <c r="E116" s="20"/>
-    </row>
-    <row r="117" spans="1:5" hidden="1" outlineLevel="1">
-      <c r="A117" s="4" t="s">
+      <c r="B117" s="20" t="s">
         <v>287</v>
       </c>
-      <c r="B117" s="20" t="s">
-        <v>288</v>
-      </c>
       <c r="C117" s="9"/>
-      <c r="D117" s="19"/>
+      <c r="D117" s="19">
+        <v>3</v>
+      </c>
       <c r="E117" s="20"/>
     </row>
-    <row r="118" spans="1:5" hidden="1" outlineLevel="1">
+    <row r="118" spans="1:5" outlineLevel="1">
       <c r="A118" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="B118" s="20" t="s">
         <v>281</v>
       </c>
-      <c r="B118" s="20" t="s">
-        <v>282</v>
-      </c>
       <c r="C118" s="9"/>
-      <c r="D118" s="19"/>
+      <c r="D118" s="19">
+        <v>3</v>
+      </c>
       <c r="E118" s="20"/>
     </row>
-    <row r="119" spans="1:5" hidden="1" outlineLevel="1">
+    <row r="119" spans="1:5" outlineLevel="1">
       <c r="A119" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="B119" s="20" t="s">
         <v>277</v>
       </c>
-      <c r="B119" s="20" t="s">
+      <c r="C119" s="9"/>
+      <c r="D119" s="19">
+        <v>3</v>
+      </c>
+      <c r="E119" s="20"/>
+    </row>
+    <row r="120" spans="1:5" outlineLevel="1">
+      <c r="A120" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="C119" s="9"/>
-      <c r="D119" s="19"/>
-      <c r="E119" s="20"/>
-    </row>
-    <row r="120" spans="1:5" hidden="1" outlineLevel="1">
-      <c r="A120" s="4" t="s">
+      <c r="B120" s="20" t="s">
         <v>279</v>
       </c>
-      <c r="B120" s="20" t="s">
-        <v>280</v>
-      </c>
       <c r="C120" s="9"/>
-      <c r="D120" s="19"/>
+      <c r="D120" s="19">
+        <v>3</v>
+      </c>
       <c r="E120" s="20"/>
     </row>
-    <row r="121" spans="1:5" hidden="1" outlineLevel="1">
+    <row r="121" spans="1:5" outlineLevel="1">
       <c r="A121" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="B121" s="20" t="s">
         <v>271</v>
       </c>
-      <c r="B121" s="20" t="s">
+      <c r="C121" s="9"/>
+      <c r="D121" s="19">
+        <v>3</v>
+      </c>
+      <c r="E121" s="20"/>
+    </row>
+    <row r="122" spans="1:5" outlineLevel="1">
+      <c r="A122" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="C121" s="9"/>
-      <c r="D121" s="19"/>
-      <c r="E121" s="20"/>
-    </row>
-    <row r="122" spans="1:5" hidden="1" outlineLevel="1">
-      <c r="A122" s="4" t="s">
+      <c r="B122" s="20" t="s">
         <v>273</v>
       </c>
-      <c r="B122" s="20" t="s">
+      <c r="C122" s="9"/>
+      <c r="D122" s="19">
+        <v>3</v>
+      </c>
+      <c r="E122" s="20"/>
+    </row>
+    <row r="123" spans="1:5" outlineLevel="1">
+      <c r="A123" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="C122" s="9"/>
-      <c r="D122" s="19"/>
-      <c r="E122" s="20"/>
-    </row>
-    <row r="123" spans="1:5" hidden="1" outlineLevel="1">
-      <c r="A123" s="4" t="s">
+      <c r="B123" s="20" t="s">
         <v>275</v>
       </c>
-      <c r="B123" s="20" t="s">
-        <v>276</v>
-      </c>
       <c r="C123" s="9"/>
-      <c r="D123" s="19"/>
+      <c r="D123" s="19">
+        <v>3</v>
+      </c>
       <c r="E123" s="20"/>
     </row>
-    <row r="124" spans="1:5" hidden="1" outlineLevel="1">
+    <row r="124" spans="1:5" outlineLevel="1">
       <c r="A124" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B124" s="20" t="s">
         <v>269</v>
       </c>
-      <c r="B124" s="20" t="s">
-        <v>270</v>
-      </c>
       <c r="C124" s="9"/>
-      <c r="D124" s="19"/>
+      <c r="D124" s="19">
+        <v>3</v>
+      </c>
       <c r="E124" s="20"/>
     </row>
-    <row r="125" spans="1:5" hidden="1" outlineLevel="1">
+    <row r="125" spans="1:5" outlineLevel="1">
       <c r="A125" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="B125" s="20" t="s">
         <v>267</v>
       </c>
-      <c r="B125" s="20" t="s">
-        <v>268</v>
-      </c>
       <c r="C125" s="9"/>
-      <c r="D125" s="19"/>
+      <c r="D125" s="19">
+        <v>3</v>
+      </c>
       <c r="E125" s="20"/>
     </row>
-    <row r="126" spans="1:5" hidden="1" outlineLevel="1">
+    <row r="126" spans="1:5" outlineLevel="1">
       <c r="A126" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="B126" s="20" t="s">
         <v>263</v>
       </c>
-      <c r="B126" s="20" t="s">
+      <c r="C126" s="9"/>
+      <c r="D126" s="19">
+        <v>3</v>
+      </c>
+      <c r="E126" s="20"/>
+    </row>
+    <row r="127" spans="1:5" outlineLevel="1">
+      <c r="A127" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="C126" s="9"/>
-      <c r="D126" s="19"/>
-      <c r="E126" s="20"/>
-    </row>
-    <row r="127" spans="1:5" hidden="1" outlineLevel="1">
-      <c r="A127" s="4" t="s">
+      <c r="B127" s="20" t="s">
         <v>265</v>
       </c>
-      <c r="B127" s="20" t="s">
-        <v>266</v>
-      </c>
       <c r="C127" s="9"/>
-      <c r="D127" s="19"/>
+      <c r="D127" s="19">
+        <v>3</v>
+      </c>
       <c r="E127" s="20"/>
     </row>
-    <row r="128" spans="1:5" hidden="1" outlineLevel="1">
+    <row r="128" spans="1:5" outlineLevel="1">
       <c r="A128" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="B128" s="20" t="s">
         <v>259</v>
       </c>
-      <c r="B128" s="20" t="s">
+      <c r="C128" s="9"/>
+      <c r="D128" s="19">
+        <v>3</v>
+      </c>
+      <c r="E128" s="20"/>
+    </row>
+    <row r="129" spans="1:5" outlineLevel="1">
+      <c r="A129" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="C128" s="9"/>
-      <c r="D128" s="19"/>
-      <c r="E128" s="20"/>
-    </row>
-    <row r="129" spans="1:5" hidden="1" outlineLevel="1">
-      <c r="A129" s="4" t="s">
+      <c r="B129" s="20" t="s">
         <v>261</v>
       </c>
-      <c r="B129" s="20" t="s">
-        <v>262</v>
-      </c>
       <c r="C129" s="9"/>
-      <c r="D129" s="19"/>
+      <c r="D129" s="19">
+        <v>3</v>
+      </c>
       <c r="E129" s="20"/>
     </row>
-    <row r="130" spans="1:5" hidden="1" outlineLevel="1">
+    <row r="130" spans="1:5" outlineLevel="1">
       <c r="A130" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="B130" s="20" t="s">
         <v>253</v>
       </c>
-      <c r="B130" s="20" t="s">
+      <c r="C130" s="9"/>
+      <c r="D130" s="19">
+        <v>3</v>
+      </c>
+      <c r="E130" s="20"/>
+    </row>
+    <row r="131" spans="1:5" outlineLevel="1">
+      <c r="A131" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="C130" s="9"/>
-      <c r="D130" s="19"/>
-      <c r="E130" s="20"/>
-    </row>
-    <row r="131" spans="1:5" hidden="1" outlineLevel="1">
-      <c r="A131" s="4" t="s">
+      <c r="B131" s="20" t="s">
+        <v>256</v>
+      </c>
+      <c r="C131" s="9"/>
+      <c r="D131" s="19">
+        <v>3</v>
+      </c>
+      <c r="E131" s="20"/>
+    </row>
+    <row r="132" spans="1:5" outlineLevel="1">
+      <c r="A132" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="B131" s="20" t="s">
+      <c r="B132" s="20" t="s">
         <v>257</v>
       </c>
-      <c r="C131" s="9"/>
-      <c r="D131" s="19"/>
-      <c r="E131" s="20"/>
-    </row>
-    <row r="132" spans="1:5" hidden="1" outlineLevel="1">
-      <c r="A132" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="B132" s="20" t="s">
-        <v>258</v>
-      </c>
       <c r="C132" s="9"/>
-      <c r="D132" s="19"/>
+      <c r="D132" s="19">
+        <v>3</v>
+      </c>
       <c r="E132" s="20"/>
     </row>
-    <row r="133" spans="1:5" hidden="1" outlineLevel="1">
+    <row r="133" spans="1:5" outlineLevel="1">
       <c r="A133" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="B133" s="20" t="s">
         <v>251</v>
       </c>
-      <c r="B133" s="20" t="s">
-        <v>252</v>
-      </c>
       <c r="C133" s="9"/>
-      <c r="D133" s="19"/>
+      <c r="D133" s="19">
+        <v>3</v>
+      </c>
       <c r="E133" s="20"/>
     </row>
-    <row r="134" spans="1:5" hidden="1" outlineLevel="1">
+    <row r="134" spans="1:5" outlineLevel="1">
       <c r="A134" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="B134" s="20" t="s">
         <v>245</v>
       </c>
-      <c r="B134" s="20" t="s">
+      <c r="C134" s="9"/>
+      <c r="D134" s="19">
+        <v>3</v>
+      </c>
+      <c r="E134" s="20"/>
+    </row>
+    <row r="135" spans="1:5" outlineLevel="1">
+      <c r="A135" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="C134" s="9"/>
-      <c r="D134" s="19"/>
-      <c r="E134" s="20"/>
-    </row>
-    <row r="135" spans="1:5" hidden="1" outlineLevel="1">
-      <c r="A135" s="4" t="s">
+      <c r="B135" s="20" t="s">
+        <v>248</v>
+      </c>
+      <c r="C135" s="9"/>
+      <c r="D135" s="19">
+        <v>3</v>
+      </c>
+      <c r="E135" s="20"/>
+    </row>
+    <row r="136" spans="1:5" outlineLevel="1">
+      <c r="A136" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="B135" s="20" t="s">
+      <c r="B136" s="20" t="s">
         <v>249</v>
       </c>
-      <c r="C135" s="9"/>
-      <c r="D135" s="19"/>
-      <c r="E135" s="20"/>
-    </row>
-    <row r="136" spans="1:5" hidden="1" outlineLevel="1">
-      <c r="A136" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="B136" s="20" t="s">
-        <v>250</v>
-      </c>
       <c r="C136" s="9"/>
-      <c r="D136" s="19"/>
+      <c r="D136" s="19">
+        <v>3</v>
+      </c>
       <c r="E136" s="20"/>
     </row>
-    <row r="137" spans="1:5" hidden="1" outlineLevel="1">
+    <row r="137" spans="1:5" outlineLevel="1">
       <c r="A137" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="B137" s="20" t="s">
         <v>241</v>
       </c>
-      <c r="B137" s="20" t="s">
+      <c r="C137" s="9"/>
+      <c r="D137" s="19">
+        <v>3</v>
+      </c>
+      <c r="E137" s="20"/>
+    </row>
+    <row r="138" spans="1:5" outlineLevel="1">
+      <c r="A138" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="C137" s="9"/>
-      <c r="D137" s="19"/>
-      <c r="E137" s="20"/>
-    </row>
-    <row r="138" spans="1:5" hidden="1" outlineLevel="1">
-      <c r="A138" s="4" t="s">
+      <c r="B138" s="20" t="s">
         <v>243</v>
       </c>
-      <c r="B138" s="20" t="s">
-        <v>244</v>
-      </c>
       <c r="C138" s="9"/>
-      <c r="D138" s="19"/>
+      <c r="D138" s="19">
+        <v>3</v>
+      </c>
       <c r="E138" s="20"/>
     </row>
-    <row r="139" spans="1:5" hidden="1" outlineLevel="1">
+    <row r="139" spans="1:5" outlineLevel="1">
       <c r="A139" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="B139" s="20" t="s">
         <v>235</v>
       </c>
-      <c r="B139" s="20" t="s">
+      <c r="C139" s="9"/>
+      <c r="D139" s="19">
+        <v>3</v>
+      </c>
+      <c r="E139" s="20"/>
+    </row>
+    <row r="140" spans="1:5" outlineLevel="1">
+      <c r="A140" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="B140" s="20" t="s">
         <v>236</v>
       </c>
-      <c r="C139" s="9"/>
-      <c r="D139" s="19"/>
-      <c r="E139" s="20"/>
-    </row>
-    <row r="140" spans="1:5" hidden="1" outlineLevel="1">
-      <c r="A140" s="4" t="s">
+      <c r="C140" s="9"/>
+      <c r="D140" s="19">
+        <v>3</v>
+      </c>
+      <c r="E140" s="20"/>
+    </row>
+    <row r="141" spans="1:5" outlineLevel="1">
+      <c r="A141" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="B140" s="20" t="s">
-        <v>237</v>
-      </c>
-      <c r="C140" s="9"/>
-      <c r="D140" s="19"/>
-      <c r="E140" s="20"/>
-    </row>
-    <row r="141" spans="1:5" hidden="1" outlineLevel="1">
-      <c r="A141" s="4" t="s">
+      <c r="B141" s="20" t="s">
         <v>239</v>
       </c>
-      <c r="B141" s="20" t="s">
-        <v>240</v>
-      </c>
       <c r="C141" s="9"/>
-      <c r="D141" s="19"/>
+      <c r="D141" s="19">
+        <v>3</v>
+      </c>
       <c r="E141" s="20"/>
     </row>
-    <row r="142" spans="1:5" hidden="1" outlineLevel="1">
+    <row r="142" spans="1:5" outlineLevel="1">
       <c r="A142" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="B142" s="20" t="s">
         <v>231</v>
       </c>
-      <c r="B142" s="20" t="s">
+      <c r="C142" s="9"/>
+      <c r="D142" s="19">
+        <v>3</v>
+      </c>
+      <c r="E142" s="20"/>
+    </row>
+    <row r="143" spans="1:5" outlineLevel="1">
+      <c r="A143" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="C142" s="9"/>
-      <c r="D142" s="19"/>
-      <c r="E142" s="20"/>
-    </row>
-    <row r="143" spans="1:5" hidden="1" outlineLevel="1">
-      <c r="A143" s="4" t="s">
+      <c r="B143" s="20" t="s">
         <v>233</v>
       </c>
-      <c r="B143" s="20" t="s">
-        <v>234</v>
-      </c>
       <c r="C143" s="9"/>
-      <c r="D143" s="19"/>
+      <c r="D143" s="19">
+        <v>3</v>
+      </c>
       <c r="E143" s="20"/>
     </row>
-    <row r="144" spans="1:5" hidden="1" outlineLevel="1">
+    <row r="144" spans="1:5" outlineLevel="1">
       <c r="A144" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="B144" s="20" t="s">
         <v>225</v>
       </c>
-      <c r="B144" s="20" t="s">
+      <c r="C144" s="9"/>
+      <c r="D144" s="19">
+        <v>3</v>
+      </c>
+      <c r="E144" s="20"/>
+    </row>
+    <row r="145" spans="1:5" outlineLevel="1">
+      <c r="A145" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="C144" s="9"/>
-      <c r="D144" s="19"/>
-      <c r="E144" s="20"/>
-    </row>
-    <row r="145" spans="1:5" hidden="1" outlineLevel="1">
-      <c r="A145" s="4" t="s">
+      <c r="B145" s="20" t="s">
         <v>227</v>
       </c>
-      <c r="B145" s="20" t="s">
+      <c r="C145" s="9"/>
+      <c r="D145" s="19">
+        <v>3</v>
+      </c>
+      <c r="E145" s="20"/>
+    </row>
+    <row r="146" spans="1:5" outlineLevel="1">
+      <c r="A146" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="C145" s="9"/>
-      <c r="D145" s="19"/>
-      <c r="E145" s="20"/>
-    </row>
-    <row r="146" spans="1:5" hidden="1" outlineLevel="1">
-      <c r="A146" s="4" t="s">
+      <c r="B146" s="20" t="s">
         <v>229</v>
       </c>
-      <c r="B146" s="20" t="s">
-        <v>230</v>
-      </c>
       <c r="C146" s="9"/>
-      <c r="D146" s="19"/>
+      <c r="D146" s="19">
+        <v>3</v>
+      </c>
       <c r="E146" s="20"/>
     </row>
-    <row r="147" spans="1:5" hidden="1" outlineLevel="1">
+    <row r="147" spans="1:5" outlineLevel="1">
       <c r="A147" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B147" s="20" t="s">
         <v>223</v>
       </c>
-      <c r="B147" s="20" t="s">
-        <v>224</v>
-      </c>
       <c r="C147" s="9"/>
-      <c r="D147" s="19"/>
+      <c r="D147" s="19">
+        <v>3</v>
+      </c>
       <c r="E147" s="20"/>
     </row>
-    <row r="148" spans="1:5" hidden="1" outlineLevel="1">
+    <row r="148" spans="1:5" outlineLevel="1">
       <c r="A148" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="B148" s="20" t="s">
         <v>221</v>
       </c>
-      <c r="B148" s="20" t="s">
-        <v>222</v>
-      </c>
       <c r="C148" s="9"/>
-      <c r="D148" s="19"/>
+      <c r="D148" s="19">
+        <v>3</v>
+      </c>
       <c r="E148" s="20"/>
     </row>
-    <row r="149" spans="1:5" hidden="1" outlineLevel="1">
+    <row r="149" spans="1:5" outlineLevel="1">
       <c r="A149" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="B149" s="20" t="s">
         <v>219</v>
       </c>
-      <c r="B149" s="20" t="s">
-        <v>220</v>
-      </c>
       <c r="C149" s="9"/>
-      <c r="D149" s="19"/>
+      <c r="D149" s="19">
+        <v>3</v>
+      </c>
       <c r="E149" s="20"/>
     </row>
-    <row r="150" spans="1:5" hidden="1" outlineLevel="1">
+    <row r="150" spans="1:5" outlineLevel="1">
       <c r="A150" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="B150" s="24" t="s">
         <v>217</v>
       </c>
-      <c r="B150" s="24" t="s">
-        <v>218</v>
-      </c>
       <c r="C150" s="9"/>
-      <c r="D150" s="19"/>
+      <c r="D150" s="19">
+        <v>3</v>
+      </c>
       <c r="E150" s="20"/>
     </row>
-    <row r="151" spans="1:5" hidden="1" outlineLevel="1">
+    <row r="151" spans="1:5" outlineLevel="1">
       <c r="A151" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="B151" s="24" t="s">
         <v>215</v>
       </c>
-      <c r="B151" s="24" t="s">
-        <v>216</v>
-      </c>
       <c r="C151" s="9"/>
-      <c r="D151" s="19"/>
+      <c r="D151" s="19">
+        <v>3</v>
+      </c>
       <c r="E151" s="20"/>
     </row>
-    <row r="152" spans="1:5" hidden="1" outlineLevel="1">
+    <row r="152" spans="1:5" outlineLevel="1">
       <c r="A152" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="B152" t="s">
+        <v>210</v>
+      </c>
+      <c r="D152" s="19">
+        <v>1</v>
+      </c>
+      <c r="E152" s="20"/>
+    </row>
+    <row r="153" spans="1:5" outlineLevel="1">
+      <c r="A153" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="B152" t="s">
-        <v>211</v>
-      </c>
-      <c r="D152" s="19">
-        <v>1</v>
-      </c>
-      <c r="E152" s="20"/>
-    </row>
-    <row r="153" spans="1:5" hidden="1" outlineLevel="1">
-      <c r="A153" s="4" t="s">
+      <c r="B153" t="s">
         <v>213</v>
       </c>
-      <c r="B153" t="s">
-        <v>214</v>
-      </c>
-      <c r="D153" s="19"/>
+      <c r="D153" s="19">
+        <v>1</v>
+      </c>
       <c r="E153" s="20">
         <f>165-96</f>
         <v>69</v>
       </c>
     </row>
-    <row r="154" spans="1:5" collapsed="1">
+    <row r="154" spans="1:5">
       <c r="A154" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B154" s="20" t="s">
         <v>118</v>
-      </c>
-      <c r="B154" s="20" t="s">
-        <v>119</v>
       </c>
       <c r="C154" s="9"/>
       <c r="D154" s="19">
@@ -3418,261 +3632,414 @@
       </c>
       <c r="E154" s="20"/>
     </row>
-    <row r="155" spans="1:5" hidden="1" outlineLevel="1">
+    <row r="155" spans="1:5" outlineLevel="1">
       <c r="A155" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B155" t="s">
         <v>53</v>
       </c>
-      <c r="B155" t="s">
+      <c r="D155" s="19">
+        <v>1</v>
+      </c>
+      <c r="E155" s="20"/>
+    </row>
+    <row r="156" spans="1:5" outlineLevel="1">
+      <c r="A156" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D155" s="19">
-        <v>1</v>
-      </c>
-      <c r="E155" s="20"/>
-    </row>
-    <row r="156" spans="1:5" hidden="1" outlineLevel="1">
-      <c r="A156" s="7" t="s">
+      <c r="B156" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B156" s="2" t="s">
+      <c r="D156" s="19">
+        <v>1</v>
+      </c>
+      <c r="E156" s="20"/>
+    </row>
+    <row r="157" spans="1:5" outlineLevel="1">
+      <c r="A157" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D156" s="19">
-        <v>1</v>
-      </c>
-      <c r="E156" s="20"/>
-    </row>
-    <row r="157" spans="1:5" hidden="1" outlineLevel="1">
-      <c r="A157" s="4" t="s">
+      <c r="B157" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B157" s="2" t="s">
+      <c r="D157" s="19">
+        <v>1</v>
+      </c>
+      <c r="E157" s="20"/>
+    </row>
+    <row r="158" spans="1:5" outlineLevel="1">
+      <c r="A158" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D157" s="19">
-        <v>1</v>
-      </c>
-      <c r="E157" s="20"/>
-    </row>
-    <row r="158" spans="1:5" hidden="1" outlineLevel="1">
-      <c r="A158" s="4" t="s">
+      <c r="B158" t="s">
         <v>59</v>
       </c>
-      <c r="B158" t="s">
+      <c r="D158" s="19">
+        <v>1</v>
+      </c>
+      <c r="E158" s="20"/>
+    </row>
+    <row r="159" spans="1:5" outlineLevel="1">
+      <c r="A159" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D158" s="19">
-        <v>1</v>
-      </c>
-      <c r="E158" s="20"/>
-    </row>
-    <row r="159" spans="1:5" hidden="1" outlineLevel="1">
-      <c r="A159" s="4" t="s">
+      <c r="B159" t="s">
         <v>61</v>
       </c>
-      <c r="B159" t="s">
+      <c r="D159" s="19">
+        <v>1</v>
+      </c>
+      <c r="E159" s="20"/>
+    </row>
+    <row r="160" spans="1:5" outlineLevel="1">
+      <c r="A160" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D159" s="19">
-        <v>1</v>
-      </c>
-      <c r="E159" s="20"/>
-    </row>
-    <row r="160" spans="1:5" hidden="1" outlineLevel="1">
-      <c r="A160" s="4" t="s">
+      <c r="B160" t="s">
         <v>63</v>
       </c>
-      <c r="B160" t="s">
+      <c r="D160" s="19">
+        <v>1</v>
+      </c>
+      <c r="E160" s="20"/>
+    </row>
+    <row r="161" spans="1:5" outlineLevel="1">
+      <c r="A161" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D160" s="19">
-        <v>1</v>
-      </c>
-      <c r="E160" s="20"/>
-    </row>
-    <row r="161" spans="1:5" hidden="1" outlineLevel="1">
-      <c r="A161" s="4" t="s">
+      <c r="B161" t="s">
         <v>65</v>
       </c>
-      <c r="B161" t="s">
+      <c r="D161" s="19">
+        <v>1</v>
+      </c>
+      <c r="E161" s="20"/>
+    </row>
+    <row r="162" spans="1:5" outlineLevel="1">
+      <c r="A162" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D161" s="19">
-        <v>1</v>
-      </c>
-      <c r="E161" s="20"/>
-    </row>
-    <row r="162" spans="1:5" hidden="1" outlineLevel="1">
-      <c r="A162" s="7" t="s">
+      <c r="B162" t="s">
         <v>67</v>
       </c>
-      <c r="B162" t="s">
+      <c r="D162" s="19">
+        <v>1</v>
+      </c>
+      <c r="E162" s="20"/>
+    </row>
+    <row r="163" spans="1:5" outlineLevel="1">
+      <c r="A163" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D162" s="19">
-        <v>1</v>
-      </c>
-      <c r="E162" s="20"/>
-    </row>
-    <row r="163" spans="1:5" hidden="1" outlineLevel="1">
-      <c r="A163" s="7" t="s">
+      <c r="B163" t="s">
         <v>69</v>
       </c>
-      <c r="B163" t="s">
+      <c r="D163" s="19">
+        <v>1</v>
+      </c>
+      <c r="E163" s="20"/>
+    </row>
+    <row r="164" spans="1:5" outlineLevel="1">
+      <c r="A164" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D163" s="19">
-        <v>1</v>
-      </c>
-      <c r="E163" s="20"/>
-    </row>
-    <row r="164" spans="1:5" hidden="1" outlineLevel="1">
-      <c r="A164" s="4" t="s">
+      <c r="B164" t="s">
         <v>71</v>
       </c>
-      <c r="B164" t="s">
+      <c r="D164" s="19">
+        <v>1</v>
+      </c>
+      <c r="E164" s="20"/>
+    </row>
+    <row r="165" spans="1:5" outlineLevel="1">
+      <c r="A165" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D164" s="19">
-        <v>1</v>
-      </c>
-      <c r="E164" s="20"/>
-    </row>
-    <row r="165" spans="1:5" hidden="1" outlineLevel="1">
-      <c r="A165" s="1" t="s">
+      <c r="D165" s="19">
+        <v>4</v>
+      </c>
+      <c r="E165" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="D165" s="19">
-        <v>3</v>
-      </c>
-      <c r="E165" s="20" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" collapsed="1">
+    </row>
+    <row r="166" spans="1:5">
       <c r="A166" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B166" s="20" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C166" s="9"/>
       <c r="D166" s="19">
         <v>3</v>
       </c>
-      <c r="E166" s="20"/>
-    </row>
-    <row r="167" spans="1:5" hidden="1" outlineLevel="1">
+      <c r="E166" s="22"/>
+    </row>
+    <row r="167" spans="1:5" outlineLevel="1">
       <c r="C167"/>
       <c r="D167" s="20"/>
-      <c r="E167" s="20"/>
-    </row>
-    <row r="168" spans="1:5" collapsed="1">
+      <c r="E167" s="22"/>
+    </row>
+    <row r="168" spans="1:5">
       <c r="A168" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B168" s="20" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C168" s="9"/>
       <c r="D168" s="19">
         <v>3</v>
       </c>
-      <c r="E168" s="20"/>
-    </row>
-    <row r="169" spans="1:5" hidden="1" outlineLevel="1">
+      <c r="E168" s="22"/>
+    </row>
+    <row r="169" spans="1:5" outlineLevel="1">
       <c r="D169" s="19"/>
-      <c r="E169" s="20"/>
-    </row>
-    <row r="170" spans="1:5" collapsed="1">
+      <c r="E169" s="22"/>
+    </row>
+    <row r="170" spans="1:5">
       <c r="A170" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B170" s="20" t="s">
         <v>104</v>
-      </c>
-      <c r="B170" s="20" t="s">
-        <v>105</v>
       </c>
       <c r="C170" s="9"/>
       <c r="D170" s="19">
         <v>3</v>
       </c>
-      <c r="E170" s="20"/>
-    </row>
-    <row r="171" spans="1:5" hidden="1" outlineLevel="1">
+      <c r="E170" s="22"/>
+    </row>
+    <row r="171" spans="1:5" outlineLevel="1">
       <c r="D171" s="19"/>
-      <c r="E171" s="20"/>
-    </row>
-    <row r="172" spans="1:5" collapsed="1">
+      <c r="E171" s="22"/>
+    </row>
+    <row r="172" spans="1:5">
       <c r="A172" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B172" s="20" t="s">
         <v>120</v>
-      </c>
-      <c r="B172" s="20" t="s">
-        <v>121</v>
       </c>
       <c r="C172" s="9"/>
       <c r="D172" s="19">
         <v>3</v>
       </c>
-      <c r="E172" s="20"/>
-    </row>
-    <row r="173" spans="1:5" hidden="1" outlineLevel="1">
+      <c r="E172" s="22"/>
+    </row>
+    <row r="173" spans="1:5" outlineLevel="1">
       <c r="A173" s="11"/>
       <c r="B173" s="11"/>
       <c r="C173" s="12"/>
       <c r="D173" s="23"/>
       <c r="E173" s="22"/>
     </row>
-    <row r="174" spans="1:5" collapsed="1">
+    <row r="174" spans="1:5">
       <c r="A174" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="B174" s="20" t="s">
         <v>122</v>
-      </c>
-      <c r="B174" s="20" t="s">
-        <v>123</v>
       </c>
       <c r="C174" s="9"/>
       <c r="D174" s="19">
         <v>3</v>
       </c>
-      <c r="E174" s="20"/>
-    </row>
-    <row r="175" spans="1:5" hidden="1" outlineLevel="1">
+      <c r="E174" s="22"/>
+    </row>
+    <row r="175" spans="1:5" outlineLevel="1">
       <c r="A175" s="11"/>
       <c r="B175" s="11"/>
       <c r="C175" s="12"/>
       <c r="D175" s="23"/>
       <c r="E175" s="22"/>
     </row>
-    <row r="176" spans="1:5" collapsed="1">
+    <row r="176" spans="1:5">
       <c r="A176" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="B176" s="20" t="s">
         <v>124</v>
-      </c>
-      <c r="B176" s="20" t="s">
-        <v>125</v>
       </c>
       <c r="C176" s="9"/>
       <c r="D176" s="19">
         <v>3</v>
       </c>
-      <c r="E176" s="20"/>
-    </row>
-    <row r="177" spans="1:5" hidden="1" outlineLevel="1">
-      <c r="A177" s="11"/>
-      <c r="B177" s="11"/>
+      <c r="E176" s="22"/>
+    </row>
+    <row r="177" spans="1:5" outlineLevel="1">
+      <c r="A177" s="18" t="s">
+        <v>349</v>
+      </c>
+      <c r="B177" s="11" t="s">
+        <v>350</v>
+      </c>
       <c r="C177" s="12"/>
-      <c r="D177" s="23"/>
+      <c r="D177" s="23">
+        <v>1</v>
+      </c>
       <c r="E177" s="22"/>
     </row>
-    <row r="178" spans="1:5" collapsed="1">
-      <c r="A178" s="14" t="s">
-        <v>206</v>
+    <row r="178" spans="1:5" outlineLevel="1">
+      <c r="A178" s="18" t="s">
+        <v>351</v>
       </c>
       <c r="B178" s="11" t="s">
-        <v>207</v>
+        <v>352</v>
       </c>
       <c r="C178" s="12"/>
       <c r="D178" s="23">
-        <v>3</v>
-      </c>
-      <c r="E178" s="20"/>
+        <v>1</v>
+      </c>
+      <c r="E178" s="22"/>
+    </row>
+    <row r="179" spans="1:5" outlineLevel="1">
+      <c r="A179" s="18" t="s">
+        <v>353</v>
+      </c>
+      <c r="B179" s="11" t="s">
+        <v>354</v>
+      </c>
+      <c r="C179" s="12"/>
+      <c r="D179" s="23">
+        <v>1</v>
+      </c>
+      <c r="E179" s="22"/>
+    </row>
+    <row r="180" spans="1:5" outlineLevel="1">
+      <c r="A180" s="18" t="s">
+        <v>355</v>
+      </c>
+      <c r="B180" s="11" t="s">
+        <v>356</v>
+      </c>
+      <c r="C180" s="12"/>
+      <c r="D180" s="23">
+        <v>1</v>
+      </c>
+      <c r="E180" s="22"/>
+    </row>
+    <row r="181" spans="1:5" outlineLevel="1">
+      <c r="A181" s="18" t="s">
+        <v>357</v>
+      </c>
+      <c r="B181" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="C181" s="12"/>
+      <c r="D181" s="23">
+        <v>1</v>
+      </c>
+      <c r="E181" s="22"/>
+    </row>
+    <row r="182" spans="1:5" outlineLevel="1">
+      <c r="A182" s="18" t="s">
+        <v>359</v>
+      </c>
+      <c r="B182" s="11" t="s">
+        <v>360</v>
+      </c>
+      <c r="C182" s="12"/>
+      <c r="D182" s="23">
+        <v>1</v>
+      </c>
+      <c r="E182" s="22"/>
+    </row>
+    <row r="183" spans="1:5" outlineLevel="1">
+      <c r="A183" s="18" t="s">
+        <v>361</v>
+      </c>
+      <c r="B183" s="11" t="s">
+        <v>362</v>
+      </c>
+      <c r="C183" s="12"/>
+      <c r="D183" s="23">
+        <v>4</v>
+      </c>
+      <c r="E183" s="22" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" outlineLevel="1">
+      <c r="A184" s="18" t="s">
+        <v>364</v>
+      </c>
+      <c r="B184" s="11" t="s">
+        <v>365</v>
+      </c>
+      <c r="C184" s="12"/>
+      <c r="D184" s="23">
+        <v>2</v>
+      </c>
+      <c r="E184" s="22"/>
+    </row>
+    <row r="185" spans="1:5" outlineLevel="1">
+      <c r="A185" s="18" t="s">
+        <v>366</v>
+      </c>
+      <c r="B185" s="11" t="s">
+        <v>367</v>
+      </c>
+      <c r="C185" s="12"/>
+      <c r="D185" s="23">
+        <v>2</v>
+      </c>
+      <c r="E185" s="22"/>
+    </row>
+    <row r="186" spans="1:5" outlineLevel="1">
+      <c r="A186" s="18" t="s">
+        <v>369</v>
+      </c>
+      <c r="B186" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="C186" s="12"/>
+      <c r="D186" s="23">
+        <v>3</v>
+      </c>
+      <c r="E186" s="22" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5">
+      <c r="A187" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="B187" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="C187" s="12"/>
+      <c r="D187" s="23">
+        <v>1</v>
+      </c>
+      <c r="E187" s="20"/>
+    </row>
+    <row r="189" spans="1:5">
+      <c r="A189" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5">
+      <c r="A190" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5">
+      <c r="A191" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5">
+      <c r="A192" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="209" spans="2:2">
+      <c r="B209">
+        <f>3+5+3+4+2+3</f>
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3770,7 +4137,7 @@
     <hyperlink ref="A53" r:id="rId92" location="GET_search.2Fparser"/>
     <hyperlink ref="A54" r:id="rId93" location="GET_search.2Ftimeparser"/>
     <hyperlink ref="A55" r:id="rId94" location="search.2Ftypeahead"/>
-    <hyperlink ref="A178" r:id="rId95"/>
+    <hyperlink ref="A187" r:id="rId95"/>
     <hyperlink ref="A166" r:id="rId96"/>
     <hyperlink ref="A152" r:id="rId97" location="POST_receivers.2Fsimple"/>
     <hyperlink ref="A151" r:id="rId98" location="GET_indexing.2Fpreview.2F.7Bjob_id.7D"/>
@@ -3842,11 +4209,20 @@
     <hyperlink ref="A89" r:id="rId164" location="POST_data.2Finputs.2Fad.2F.7Bname.7D"/>
     <hyperlink ref="A85" r:id="rId165" location="GET_data.2Finputs.2Fad"/>
     <hyperlink ref="A86" r:id="rId166" location="POST_data.2Finputs.2Fad"/>
+    <hyperlink ref="A177" r:id="rId167" location="GET_messages"/>
+    <hyperlink ref="A178" r:id="rId168"/>
+    <hyperlink ref="A179" r:id="rId169" location="DELETE_messages.2F.7Bname.7D"/>
+    <hyperlink ref="A180" r:id="rId170" location="GET_server.2Fcontrol"/>
+    <hyperlink ref="A181" r:id="rId171" location="POST_server.2Fcontrol.2Frestart"/>
+    <hyperlink ref="A182" r:id="rId172" location="GET_server.2Finfo"/>
+    <hyperlink ref="A184" r:id="rId173" location="GET_server.2Flogger"/>
+    <hyperlink ref="A185" r:id="rId174" location="GET_server.2Flogger.2F.7Bname.7D"/>
+    <hyperlink ref="A186" r:id="rId175" location="POST_server.2Flogger.2F.7Bname.7D"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <tableParts count="1">
-    <tablePart r:id="rId167"/>
+    <tablePart r:id="rId176"/>
   </tableParts>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">

--- a/REST API coverage.xlsx
+++ b/REST API coverage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-440" windowWidth="51200" windowHeight="28800" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="-440" windowWidth="51200" windowHeight="32000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="378">
   <si>
     <t>Access Control</t>
   </si>
@@ -1147,6 +1147,12 @@
   </si>
   <si>
     <t>3 = Splunk management API, perhaps code named splunk-management-1.0.0 that I'll argue should be the heart of a set of Windows PowerShell commands for managing Splunk servers</t>
+  </si>
+  <si>
+    <t>Alerts related</t>
+  </si>
+  <si>
+    <t>Gblock, these are the inputs you were thinking of yesterday</t>
   </si>
 </sst>
 </file>
@@ -1625,8 +1631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E209"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D165" sqref="D165"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A108" workbookViewId="0">
+      <selection activeCell="A200" sqref="A200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0"/>
@@ -1655,7 +1661,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:5" outlineLevel="1">
+    <row r="2" spans="1:5" hidden="1" outlineLevel="1">
       <c r="A2" s="4" t="s">
         <v>77</v>
       </c>
@@ -1667,7 +1673,7 @@
       </c>
       <c r="E2" s="20"/>
     </row>
-    <row r="3" spans="1:5" outlineLevel="1">
+    <row r="3" spans="1:5" hidden="1" outlineLevel="1">
       <c r="A3" s="4" t="s">
         <v>79</v>
       </c>
@@ -1679,7 +1685,7 @@
       </c>
       <c r="E3" s="20"/>
     </row>
-    <row r="4" spans="1:5" outlineLevel="1">
+    <row r="4" spans="1:5" hidden="1" outlineLevel="1">
       <c r="A4" s="4" t="s">
         <v>81</v>
       </c>
@@ -1691,7 +1697,7 @@
       </c>
       <c r="E4" s="20"/>
     </row>
-    <row r="5" spans="1:5" outlineLevel="1">
+    <row r="5" spans="1:5" hidden="1" outlineLevel="1">
       <c r="A5" s="4" t="s">
         <v>83</v>
       </c>
@@ -1703,7 +1709,7 @@
       </c>
       <c r="E5" s="20"/>
     </row>
-    <row r="6" spans="1:5" outlineLevel="1">
+    <row r="6" spans="1:5" hidden="1" outlineLevel="1">
       <c r="A6" s="4" t="s">
         <v>85</v>
       </c>
@@ -1715,7 +1721,7 @@
       </c>
       <c r="E6" s="20"/>
     </row>
-    <row r="7" spans="1:5" outlineLevel="1">
+    <row r="7" spans="1:5" hidden="1" outlineLevel="1">
       <c r="A7" s="4" t="s">
         <v>87</v>
       </c>
@@ -1727,7 +1733,7 @@
       </c>
       <c r="E7" s="20"/>
     </row>
-    <row r="8" spans="1:5" outlineLevel="1">
+    <row r="8" spans="1:5" hidden="1" outlineLevel="1">
       <c r="A8" s="4" t="s">
         <v>101</v>
       </c>
@@ -1739,7 +1745,7 @@
       </c>
       <c r="E8" s="20"/>
     </row>
-    <row r="9" spans="1:5" outlineLevel="1">
+    <row r="9" spans="1:5" hidden="1" outlineLevel="1">
       <c r="A9" s="7" t="s">
         <v>89</v>
       </c>
@@ -1751,7 +1757,7 @@
       </c>
       <c r="E9" s="20"/>
     </row>
-    <row r="10" spans="1:5" outlineLevel="1">
+    <row r="10" spans="1:5" hidden="1" outlineLevel="1">
       <c r="A10" s="4" t="s">
         <v>91</v>
       </c>
@@ -1763,7 +1769,7 @@
       </c>
       <c r="E10" s="20"/>
     </row>
-    <row r="11" spans="1:5" outlineLevel="1">
+    <row r="11" spans="1:5" hidden="1" outlineLevel="1">
       <c r="A11" s="4" t="s">
         <v>93</v>
       </c>
@@ -1775,7 +1781,7 @@
       </c>
       <c r="E11" s="20"/>
     </row>
-    <row r="12" spans="1:5" outlineLevel="1">
+    <row r="12" spans="1:5" hidden="1" outlineLevel="1">
       <c r="A12" s="17" t="s">
         <v>95</v>
       </c>
@@ -1788,7 +1794,7 @@
       </c>
       <c r="E12" s="22"/>
     </row>
-    <row r="13" spans="1:5" outlineLevel="1">
+    <row r="13" spans="1:5" hidden="1" outlineLevel="1">
       <c r="A13" s="18" t="s">
         <v>97</v>
       </c>
@@ -1801,7 +1807,7 @@
       </c>
       <c r="E13" s="22"/>
     </row>
-    <row r="14" spans="1:5" outlineLevel="1">
+    <row r="14" spans="1:5" hidden="1" outlineLevel="1">
       <c r="A14" s="18" t="s">
         <v>99</v>
       </c>
@@ -1814,7 +1820,7 @@
       </c>
       <c r="E14" s="22"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" collapsed="1">
       <c r="A15" s="15" t="s">
         <v>75</v>
       </c>
@@ -1822,9 +1828,7 @@
         <v>76</v>
       </c>
       <c r="C15" s="13"/>
-      <c r="D15" s="23">
-        <v>1</v>
-      </c>
+      <c r="D15" s="23"/>
       <c r="E15" s="22"/>
     </row>
     <row r="16" spans="1:5" outlineLevel="1">
@@ -1835,7 +1839,7 @@
         <v>128</v>
       </c>
       <c r="D16" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E16" s="20"/>
     </row>
@@ -1847,7 +1851,7 @@
         <v>130</v>
       </c>
       <c r="D17" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E17" s="20"/>
     </row>
@@ -1859,7 +1863,7 @@
         <v>132</v>
       </c>
       <c r="D18" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E18" s="20"/>
     </row>
@@ -1872,7 +1876,7 @@
       </c>
       <c r="C19" s="12"/>
       <c r="D19" s="23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E19" s="22"/>
     </row>
@@ -1895,7 +1899,9 @@
       <c r="B21" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="C21" s="12"/>
+      <c r="C21" s="12" t="s">
+        <v>3</v>
+      </c>
       <c r="D21" s="23">
         <v>1</v>
       </c>
@@ -1908,6 +1914,9 @@
       <c r="B22" t="s">
         <v>140</v>
       </c>
+      <c r="C22" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="D22" s="23">
         <v>1</v>
       </c>
@@ -1920,7 +1929,9 @@
       <c r="B23" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="C23" s="12"/>
+      <c r="C23" s="12" t="s">
+        <v>3</v>
+      </c>
       <c r="D23" s="23">
         <v>1</v>
       </c>
@@ -1933,6 +1944,9 @@
       <c r="B24" t="s">
         <v>144</v>
       </c>
+      <c r="C24" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="D24" s="23">
         <v>1</v>
       </c>
@@ -1945,6 +1959,9 @@
       <c r="B25" t="s">
         <v>146</v>
       </c>
+      <c r="C25" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="D25" s="23">
         <v>1</v>
       </c>
@@ -1958,9 +1975,11 @@
         <v>148</v>
       </c>
       <c r="D26" s="23">
-        <v>1</v>
-      </c>
-      <c r="E26" s="20"/>
+        <v>2</v>
+      </c>
+      <c r="E26" s="20" t="s">
+        <v>376</v>
+      </c>
     </row>
     <row r="27" spans="1:5" outlineLevel="1">
       <c r="A27" s="4" t="s">
@@ -2023,9 +2042,11 @@
       </c>
       <c r="C31" s="12"/>
       <c r="D31" s="23">
-        <v>1</v>
-      </c>
-      <c r="E31" s="22"/>
+        <v>2</v>
+      </c>
+      <c r="E31" s="22" t="s">
+        <v>376</v>
+      </c>
     </row>
     <row r="32" spans="1:5" outlineLevel="1">
       <c r="A32" s="7" t="s">
@@ -2135,7 +2156,9 @@
       <c r="B40" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="C40" s="12"/>
+      <c r="C40" s="12" t="s">
+        <v>3</v>
+      </c>
       <c r="D40" s="23">
         <v>1</v>
       </c>
@@ -2178,7 +2201,9 @@
       <c r="B43" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="C43" s="12"/>
+      <c r="C43" s="12" t="s">
+        <v>3</v>
+      </c>
       <c r="D43" s="23">
         <v>1</v>
       </c>
@@ -2206,7 +2231,9 @@
       <c r="B45" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="C45" s="12"/>
+      <c r="C45" s="12" t="s">
+        <v>3</v>
+      </c>
       <c r="D45" s="23">
         <v>1</v>
       </c>
@@ -2281,7 +2308,7 @@
       </c>
       <c r="C50" s="12"/>
       <c r="D50" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E50" s="22"/>
     </row>
@@ -2294,7 +2321,7 @@
       </c>
       <c r="C51" s="12"/>
       <c r="D51" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E51" s="22"/>
     </row>
@@ -2307,7 +2334,7 @@
       </c>
       <c r="C52" s="12"/>
       <c r="D52" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E52" s="22"/>
     </row>
@@ -2357,12 +2384,8 @@
       <c r="B56" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="C56" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="D56" s="19">
-        <v>1</v>
-      </c>
+      <c r="C56" s="9"/>
+      <c r="D56" s="19"/>
       <c r="E56" s="20"/>
     </row>
     <row r="57" spans="1:5" outlineLevel="1">
@@ -2653,6 +2676,9 @@
       <c r="B79" t="s">
         <v>107</v>
       </c>
+      <c r="C79" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="D79" s="19">
         <v>1</v>
       </c>
@@ -2665,7 +2691,9 @@
       <c r="B80" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="C80" s="12"/>
+      <c r="C80" s="12" t="s">
+        <v>3</v>
+      </c>
       <c r="D80" s="19">
         <v>1</v>
       </c>
@@ -2678,7 +2706,9 @@
       <c r="B81" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="C81" s="12"/>
+      <c r="C81" s="12" t="s">
+        <v>3</v>
+      </c>
       <c r="D81" s="19">
         <v>1</v>
       </c>
@@ -2691,6 +2721,9 @@
       <c r="B82" t="s">
         <v>114</v>
       </c>
+      <c r="C82" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="D82" s="19">
         <v>1</v>
       </c>
@@ -2703,6 +2736,9 @@
       <c r="B83" t="s">
         <v>116</v>
       </c>
+      <c r="C83" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="D83" s="19">
         <v>1</v>
       </c>
@@ -2716,9 +2752,7 @@
         <v>106</v>
       </c>
       <c r="C84" s="9"/>
-      <c r="D84" s="19">
-        <v>2</v>
-      </c>
+      <c r="D84" s="19"/>
       <c r="E84" s="20"/>
     </row>
     <row r="85" spans="1:5" outlineLevel="1">
@@ -3602,7 +3636,9 @@
       <c r="D152" s="19">
         <v>1</v>
       </c>
-      <c r="E152" s="20"/>
+      <c r="E152" s="20" t="s">
+        <v>377</v>
+      </c>
     </row>
     <row r="153" spans="1:5" outlineLevel="1">
       <c r="A153" s="4" t="s">
@@ -3674,6 +3710,9 @@
       </c>
       <c r="B158" t="s">
         <v>59</v>
+      </c>
+      <c r="C158" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="D158" s="19">
         <v>1</v>

--- a/REST API coverage.xlsx
+++ b/REST API coverage.xlsx
@@ -2,14 +2,18 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
-  <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <workbookPr showInkAnnotation="0" hidePivotFieldList="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-440" windowWidth="51200" windowHeight="32000" tabRatio="500"/>
+    <workbookView xWindow="-28800" yWindow="-440" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
+  <pivotCaches>
+    <pivotCache cacheId="3" r:id="rId3"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="393">
   <si>
     <t>Access Control</t>
   </si>
@@ -1152,14 +1156,59 @@
     <t>Alerts related</t>
   </si>
   <si>
-    <t>Gblock, these are the inputs you were thinking of yesterday</t>
+    <t>PCL-3</t>
+  </si>
+  <si>
+    <t>PCL-2</t>
+  </si>
+  <si>
+    <t>PCL-3 ?</t>
+  </si>
+  <si>
+    <t>Milestone</t>
+  </si>
+  <si>
+    <t>Count of Endpoint</t>
+  </si>
+  <si>
+    <t>Column Labels</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>(blank)</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>GET storage/passwords/{name}</t>
+  </si>
+  <si>
+    <t>Get the identified credentials</t>
+  </si>
+  <si>
+    <t>One new Entity/Collection pair: Credential with create/get/remove/update operations</t>
+  </si>
+  <si>
+    <t>GET messages/{name}</t>
+  </si>
+  <si>
+    <t>Get the entry corresponding to a single message identified by {name}.</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1191,6 +1240,14 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1209,11 +1266,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
@@ -1273,12 +1331,149 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="11">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1290,18 +1485,1650 @@
 </styleSheet>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="David Noble" refreshedDate="41737.545398726848" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="186">
+  <cacheSource type="worksheet">
+    <worksheetSource name="Table1"/>
+  </cacheSource>
+  <cacheFields count="6">
+    <cacheField name="Endpoint" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Description" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Status" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Priority" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="4" count="5">
+        <n v="1"/>
+        <m/>
+        <n v="2"/>
+        <n v="3"/>
+        <n v="4"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Milestone" numFmtId="0">
+      <sharedItems containsBlank="1" count="4">
+        <m/>
+        <s v="PCL-2"/>
+        <s v="PCL-3 ?"/>
+        <s v="PCL-3"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Rationale" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="186">
+  <r>
+    <s v="GET configs/conf-{file}"/>
+    <s v="Lists all stanzas contained in the named configuration file."/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="POST configs/conf-{file}"/>
+    <s v="Allows for creating the stanza specified by &quot;name&quot; in the configuration file specified by {file}."/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="DELETE configs/conf-{file}/{name}"/>
+    <s v="Deletes the named stanza in the named configuration file."/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="GET configs/conf-{file}/{name}"/>
+    <s v="Display only the named stanza from the named configuration file."/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="POST configs/conf-{file}/{name}"/>
+    <s v="Allows for editing the named stanza from the named configuration file."/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="GET properties"/>
+    <s v="Returns a list of configurations that are saved in configuration files."/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="POST properties"/>
+    <s v="Creates a new configuration file."/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="GET properties/{file_name}"/>
+    <s v="Returns a list of stanzas in the configuration file specified by {name}."/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="POST properties/{file_name}"/>
+    <s v="Creates a new stanza in the configuration file specified by {name}."/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="GET properties/{file_name}/{stanza_name}"/>
+    <s v="Returns the configuration values for the stanza represented by {stanza_name} in the configuration file specified by {file_name}."/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="POST properties/{file_name}/{stanza_name}"/>
+    <s v="Adds or updates key/value pairs in the specified stanza. One or more key/value pairs may be passed at one time to this endpoint."/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="GET properties/{file_name}/{stanza_name}/{key_name}"/>
+    <s v="Returns the value of the key in plain text for specified stanza and configuration file."/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="POST properties/{file_name}/{stanza_name}/{key_name}"/>
+    <s v="Update an existing key value."/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Configurations"/>
+    <s v="Use the Configuration endpoints to access and modify Splunk configuration files and settings."/>
+    <m/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="GET alerts/fired_alerts"/>
+    <s v="Returns a summary view of the list of all alerts that have been fired on the server."/>
+    <m/>
+    <x v="2"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="DELETE alerts/fired_alerts/{name}"/>
+    <s v="Deletes the record of this triggered alert."/>
+    <m/>
+    <x v="2"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="GET alerts/fired_alerts/{name}"/>
+    <s v="Returns a list of all unexpired triggered or fired instances of this alert."/>
+    <m/>
+    <x v="2"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="GET data/commands"/>
+    <s v="List all python search commands."/>
+    <m/>
+    <x v="2"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="GET data/commands/{name}"/>
+    <s v="Provide information about a specific python search command."/>
+    <m/>
+    <x v="2"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="GET saved/searches"/>
+    <s v="Returns information on all saved searches."/>
+    <s v="X"/>
+    <x v="0"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <s v="POST saved/searches"/>
+    <s v="Creates a saved search."/>
+    <s v="X"/>
+    <x v="0"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <s v="DELETE saved/searches/{name}"/>
+    <s v="Deletes this saved search."/>
+    <s v="X"/>
+    <x v="0"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <s v="GET saved/searches/{name}"/>
+    <s v="Returns information on this saved search."/>
+    <s v="X"/>
+    <x v="0"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <s v="POST saved/searches/{name}"/>
+    <s v="Updates this saved search."/>
+    <s v="X"/>
+    <x v="0"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <s v="POST saved/searches/{name}/acknowledge"/>
+    <s v="Acknowledge the suppression of the alerts from this saved search and resume alerting. Action available only with POST"/>
+    <m/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="Alerts related"/>
+  </r>
+  <r>
+    <s v="POST saved/searches/{name}/dispatch"/>
+    <s v="Dispatch the saved search just like the scheduler would. Action available only through POST."/>
+    <s v="X"/>
+    <x v="0"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <s v="GET saved/searches/{name}/history"/>
+    <s v="Get a list of available search jobs created from this saved search"/>
+    <m/>
+    <x v="0"/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <s v="POST saved/searches/{name}/reschedule"/>
+    <s v="Provides access to endpoints that tell the scheduler when to next run the search."/>
+    <m/>
+    <x v="0"/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <s v="GET saved/searches/{name}/scheduled_times"/>
+    <s v="Returns the scheduled times for a saved search."/>
+    <m/>
+    <x v="0"/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <s v="GET saved/searches/{name}/suppress"/>
+    <s v="Check the suppression state of alerts from this saved search."/>
+    <m/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="Alerts related"/>
+  </r>
+  <r>
+    <s v="GET scheduled/views"/>
+    <s v="Lists all scheduled view objects"/>
+    <m/>
+    <x v="3"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="DELETE scheduled/views/{name}"/>
+    <s v="Delete a scheduled view"/>
+    <m/>
+    <x v="3"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="GET scheduled/views/{name}"/>
+    <s v="List one scheduled view object"/>
+    <m/>
+    <x v="3"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="POST scheduled/views/{name} "/>
+    <s v="Edit a scheduled view, e.g. change schedule, enable disable schedule etc"/>
+    <m/>
+    <x v="3"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="POST scheduled/views/{name}/dispatch"/>
+    <s v="Dispatch the scheduled search (powering the scheduled view) just like the scheduler would. Action available only through POST."/>
+    <m/>
+    <x v="3"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="GET scheduled/views/{name}/history "/>
+    <s v="Get a list of search jobs used to deliver this scheduled view"/>
+    <m/>
+    <x v="3"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="POST scheduled/views/{name}/reschedule"/>
+    <s v="Tells the scheduler when to next schedule PDF delivery of the view."/>
+    <m/>
+    <x v="3"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="GET scheduled/views/{name}/scheduled_times"/>
+    <s v="Returns the scheduled times for a scheduled view."/>
+    <m/>
+    <x v="3"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="GET search/jobs"/>
+    <s v="Returns details of all current searches."/>
+    <s v="X"/>
+    <x v="0"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <s v="POST search/jobs "/>
+    <s v="Starts a new search, returning the search ID (&lt;sid&gt;)."/>
+    <s v="X"/>
+    <x v="0"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <s v="GET search/jobs/export"/>
+    <s v="Performs a search identical to POST search/jobs, except the search does not create a search ID (&lt;sid&gt;) and the search streams results as they become available."/>
+    <s v="X"/>
+    <x v="0"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <s v="DELETE search/jobs/{search_id}"/>
+    <s v="Deletes the search job specified by {search_id}."/>
+    <s v="X"/>
+    <x v="0"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <s v="GET search/jobs/{search_id} "/>
+    <s v="Return details about the search job specified by {search_id}."/>
+    <s v="X"/>
+    <x v="0"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <s v="POST search/jobs/{search_id} "/>
+    <s v="Update the specified search job."/>
+    <s v="X"/>
+    <x v="0"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <s v="POST search/jobs/{search_id}/control "/>
+    <s v="Executes a job control command for the search specified by {search_id}."/>
+    <s v="X"/>
+    <x v="0"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <s v="GET search/jobs/{search_id}/events"/>
+    <s v="Returns the events of the search specified by {search_id}."/>
+    <s v="X"/>
+    <x v="0"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <s v="GET search/jobs/{search_id}/results"/>
+    <s v="Returns the results of the search specified by {search_id}."/>
+    <s v="X"/>
+    <x v="0"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <s v="GET search/jobs/{search_id}/results_preview"/>
+    <s v="Provides preview results for search jobs."/>
+    <s v="X"/>
+    <x v="0"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <s v="GET search/jobs/{search_id}/search.log"/>
+    <s v="Returns the search.log for the search job specified by {search_id}."/>
+    <m/>
+    <x v="2"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="GET search/jobs/{search_id}/summary"/>
+    <s v="Returns &quot;getFieldsAndStats&quot; output of the so-far-read events."/>
+    <m/>
+    <x v="2"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="GET search/jobs/{search_id}/timeline"/>
+    <s v="Returns event distribution over time of the so-far-read untransformed events."/>
+    <m/>
+    <x v="2"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="GET search/parser"/>
+    <s v="Parses Splunk search language and returns semantic map."/>
+    <m/>
+    <x v="2"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="GET search/timeparser"/>
+    <s v="Returns a lookup table of time arguments to absolute timestamps."/>
+    <m/>
+    <x v="2"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="GET search/typeahead"/>
+    <s v="Returns a list of words or descriptions for possible auto-complete terms."/>
+    <m/>
+    <x v="2"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Search"/>
+    <s v="Use the Search endpoints to manage searches, alerts, and view objects generated from searches."/>
+    <m/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="POST auth/login"/>
+    <s v="Returns a session key to be used when making REST calls to splunkd"/>
+    <s v="X"/>
+    <x v="0"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <s v="GET authentication/current-context"/>
+    <s v="Lists one item named &quot;context&quot; which contains the name of the current user"/>
+    <m/>
+    <x v="2"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="GET authentication/current-context/{name}"/>
+    <s v="Displays an item (always named &quot;context&quot;) that contains the name of the current user"/>
+    <m/>
+    <x v="3"/>
+    <x v="0"/>
+    <s v="Equivalent to GET authentication/current-context"/>
+  </r>
+  <r>
+    <s v="GET authentication/httpauth-tokens"/>
+    <s v="List all currently active session tokens"/>
+    <m/>
+    <x v="3"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="DELETE authentication/httpauth-tokens/{name}"/>
+    <s v="End the session associated with this token"/>
+    <m/>
+    <x v="0"/>
+    <x v="3"/>
+    <s v="It is a security hole not to allow this level of control over the lifetime of a session key"/>
+  </r>
+  <r>
+    <s v="GET authentication/httpauth-tokens/{name}"/>
+    <s v="Get information about a specific session token"/>
+    <m/>
+    <x v="3"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="GET authentication/users"/>
+    <s v="Returns a list of all the users registered on the server."/>
+    <m/>
+    <x v="3"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="POST authentication/users"/>
+    <s v="Creates a new user"/>
+    <m/>
+    <x v="3"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="DELETE authentication/users/{name}"/>
+    <s v="Removes the user from the system."/>
+    <m/>
+    <x v="3"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="GET authentication/users/{name}"/>
+    <s v="Returns information about the user."/>
+    <m/>
+    <x v="3"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="POST authentication/users/{name}"/>
+    <s v="Update information about the user specified by {name}."/>
+    <m/>
+    <x v="3"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="GET authorization/capabilities"/>
+    <s v="List all system capabiilities"/>
+    <m/>
+    <x v="3"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="GET authorization/capabilities/{name}"/>
+    <s v="List a particular system capability name. This does not list any further information besides the name."/>
+    <m/>
+    <x v="4"/>
+    <x v="0"/>
+    <s v="Redundant with GET authorization/capabilities"/>
+  </r>
+  <r>
+    <s v="GET authorization/roles"/>
+    <s v="Lists all roles and the permissions for each role."/>
+    <m/>
+    <x v="3"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="POST authorization/roles"/>
+    <s v="Create a user role."/>
+    <m/>
+    <x v="3"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="DELETE authorization/roles/{name}"/>
+    <s v="Deletes the role specified by {name}."/>
+    <m/>
+    <x v="3"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="GET authorization/roles/{name}"/>
+    <s v="Lists the permissions for the role specified by {name}."/>
+    <m/>
+    <x v="3"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="POST authorization/roles/{name}"/>
+    <s v="Updates the role specified by {name}."/>
+    <m/>
+    <x v="3"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="GET storage/passwords"/>
+    <s v="List available credentials"/>
+    <m/>
+    <x v="0"/>
+    <x v="3"/>
+    <m/>
+  </r>
+  <r>
+    <s v="POST storage/passwords"/>
+    <s v="Create/edit new credentials"/>
+    <m/>
+    <x v="0"/>
+    <x v="3"/>
+    <m/>
+  </r>
+  <r>
+    <s v="DELETE storage/passwords/{name}"/>
+    <s v="Delete the identified credentials"/>
+    <m/>
+    <x v="0"/>
+    <x v="3"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Access Control"/>
+    <s v="Use the Access Control endpoints to authorize and authenticate users."/>
+    <m/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="GET data/indexes"/>
+    <s v="Lists the recognized indexes on the server."/>
+    <s v="X"/>
+    <x v="0"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <s v="POST data/indexes"/>
+    <s v="Creates a new index with the given name."/>
+    <s v="X"/>
+    <x v="0"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <s v="DELETE data/indexes/{name}"/>
+    <s v="Removes the index specified by {name} (not just the data contained in it)."/>
+    <s v="X"/>
+    <x v="0"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <s v="GET data/indexes/{name}"/>
+    <s v="Retrieves information about the named index."/>
+    <s v="X"/>
+    <x v="0"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <s v="POST data/indexes/{name}"/>
+    <s v="Updates the data index specified by {name} with information specified with index attributes."/>
+    <s v="X"/>
+    <x v="0"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Indexes"/>
+    <s v="Use the Indexes endpoints to create and manage data indexes. "/>
+    <m/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="GET data/inputs/ad"/>
+    <s v="Gets current AD monitoring configuration."/>
+    <m/>
+    <x v="3"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="POST data/inputs/ad"/>
+    <s v="Creates new or modifies existing performance monitoring settings."/>
+    <m/>
+    <x v="3"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="DELETE data/inputs/ad/{name}"/>
+    <s v="Deletes a given AD monitoring stanza."/>
+    <m/>
+    <x v="3"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="GET data/inputs/ad/{name} "/>
+    <s v="Gets the current configuration for a given AD monitoring stanza."/>
+    <m/>
+    <x v="3"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="POST data/inputs/ad/{name}"/>
+    <s v="Modifies a given AD monitoring stanza."/>
+    <m/>
+    <x v="3"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="GET data/inputs/all"/>
+    <s v="Lists all inputs to the Splunk server. The list includes any modular inputs that may be defined on the system."/>
+    <m/>
+    <x v="3"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="GET data/inputs/all/{name}"/>
+    <s v="Lists details for inputs for the input source specified by {name}."/>
+    <m/>
+    <x v="3"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="GET data/inputs/monitor"/>
+    <s v="List enabled and disabled monitor inputs."/>
+    <m/>
+    <x v="3"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="POST data/inputs/monitor"/>
+    <s v="Create a new file or directory monitor input."/>
+    <m/>
+    <x v="3"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="DELETE data/inputs/monitor/{name}"/>
+    <s v="Disable the named monitor data input and remove it from the configuration."/>
+    <m/>
+    <x v="3"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="GET data/inputs/monitor/{name}"/>
+    <s v="List the properties of a single monitor data input."/>
+    <m/>
+    <x v="3"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="POST data/inputs/monitor/{name}"/>
+    <s v="Update properties of the named monitor input."/>
+    <m/>
+    <x v="3"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="GET data/inputs/monitor/{name}/members"/>
+    <s v="Lists all files monitored under the named monitor input."/>
+    <m/>
+    <x v="3"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="GET data/inputs/oneshot"/>
+    <s v="Enumerates in-progress oneshot inputs. As soon as an input is complete, it is removed from this list."/>
+    <m/>
+    <x v="3"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="POST data/inputs/oneshot"/>
+    <s v="Queues a file for immediate indexing by the file input subsystem. The file must be locally accessible from the server."/>
+    <m/>
+    <x v="3"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="GET data/inputs/oneshot/{name}"/>
+    <s v="Finds information about a single in-flight one shot input. This is a subset of the information in the full enumeration."/>
+    <m/>
+    <x v="3"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="POST data/inputs/registry"/>
+    <s v="Creates new or modifies existing registry monitoring settings."/>
+    <m/>
+    <x v="3"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="GET data/inputs/registry"/>
+    <s v="Gets current registry monitoring configuration."/>
+    <m/>
+    <x v="3"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="POST data/inputs/registry"/>
+    <s v="Creates new or modifies existing registry monitoring settings."/>
+    <m/>
+    <x v="3"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="DELETE data/inputs/registry/{name}"/>
+    <s v="Deletes registry monitoring configuration stanza."/>
+    <m/>
+    <x v="3"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="GET data/inputs/registry/{name}"/>
+    <s v="Gets current registry monitoring configuration stanza."/>
+    <m/>
+    <x v="3"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="POST data/inputs/registry/{name}"/>
+    <s v="Modifies given registry monitoring stanza."/>
+    <m/>
+    <x v="3"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="GET data/inputs/script"/>
+    <s v="Gets the configuration settings for scripted inputs."/>
+    <m/>
+    <x v="3"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="POST data/inputs/script"/>
+    <s v="Configures settings for new scripted inputs."/>
+    <m/>
+    <x v="3"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="POST data/inputs/script/restart"/>
+    <s v="Causes a restart on a given scripted input."/>
+    <m/>
+    <x v="3"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="DELETE data/inputs/script/{name} "/>
+    <s v="Removes the scripted input specified by {name}."/>
+    <m/>
+    <x v="3"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="GET data/inputs/script/{name} "/>
+    <s v="Returns the configuration settings for the scripted input specified by {name}."/>
+    <m/>
+    <x v="3"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="POST data/inputs/script/{name} "/>
+    <s v="Configures settings for scripted input specified by {name}."/>
+    <m/>
+    <x v="3"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="GET data/inputs/tcp/cooked "/>
+    <s v="Returns information about all cooked TCP inputs."/>
+    <m/>
+    <x v="3"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="POST data/inputs/tcp/cooked "/>
+    <s v="Creates a new container for managing cooked data."/>
+    <m/>
+    <x v="3"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="DELETE data/inputs/tcp/cooked/{name}"/>
+    <s v="Removes the cooked TCP inputs for port or host:port specified by {name}"/>
+    <m/>
+    <x v="3"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="GET data/inputs/tcp/cooked/{name}"/>
+    <s v="Returns information for the cooked TCP input specified by {name}."/>
+    <m/>
+    <x v="3"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="POST data/inputs/tcp/cooked/{name} "/>
+    <s v="Updates the container for managing cooked data."/>
+    <m/>
+    <x v="3"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="GET data/inputs/tcp/cooked/{name}/connections"/>
+    <s v="Retrieves list of active connections to the named port."/>
+    <m/>
+    <x v="3"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="GET data/inputs/tcp/raw"/>
+    <s v="Returns information about all raw TCP inputs."/>
+    <m/>
+    <x v="3"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="POST data/inputs/tcp/raw"/>
+    <s v="Creates a new data input for accepting raw TCP data."/>
+    <m/>
+    <x v="3"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="DELETE data/inputs/tcp/raw/{name} "/>
+    <s v="Removes the raw inputs for port or host:port specified by {name}"/>
+    <m/>
+    <x v="3"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="GET data/inputs/tcp/raw/{name}"/>
+    <s v="Returns information about raw TCP input port {name}."/>
+    <m/>
+    <x v="3"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="POST data/inputs/tcp/raw/{name}"/>
+    <s v="Updates the container for managing raw data."/>
+    <m/>
+    <x v="3"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="GET data/inputs/tcp/raw/{name}/connections"/>
+    <s v="View all connections to the named data input."/>
+    <m/>
+    <x v="3"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="GET data/inputs/tcp/ssl"/>
+    <s v="Returns SSL configuration. There is only one SSL configuration for all input ports."/>
+    <m/>
+    <x v="3"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="GET data/inputs/tcp/ssl/{name}"/>
+    <s v="Returns the SSL configuration for the host {name}."/>
+    <m/>
+    <x v="3"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="POST data/inputs/tcp/ssl/{name}"/>
+    <s v="Configures SSL attributes for the host {name}."/>
+    <m/>
+    <x v="3"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="GET data/inputs/udp"/>
+    <s v="List enabled and disabled UDP data inputs."/>
+    <m/>
+    <x v="3"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="POST data/inputs/udp"/>
+    <s v="Create a new UDP data input."/>
+    <m/>
+    <x v="3"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="DELETE data/inputs/udp/{name}"/>
+    <s v="Disable the named UDP data input and remove it from the configuration."/>
+    <m/>
+    <x v="3"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="GET data/inputs/udp/{name}"/>
+    <s v="List the properties of a single UDP data input port or host:port {name}. If port is restricted to a host, name should be URI-encoded host:port."/>
+    <m/>
+    <x v="3"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="POST data/inputs/udp/{name}"/>
+    <s v="Edit properties of the named UDP data input."/>
+    <m/>
+    <x v="3"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="GET data/inputs/udp/{name}/connections"/>
+    <s v="Lists connections to the named UDP input."/>
+    <m/>
+    <x v="3"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="DELETE data/inputs/win-event-log-collections/{name}"/>
+    <s v="Deletes a given event log collection."/>
+    <m/>
+    <x v="3"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="GET data/inputs/win-event-log-collections/{name}"/>
+    <s v="Gets the configuration settings for a given event log collection."/>
+    <m/>
+    <x v="3"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="POST data/inputs/win-event-log-collections/{name}"/>
+    <s v="Modifies existing event log collection."/>
+    <m/>
+    <x v="3"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="GET data/inputs/win-wmi-collections"/>
+    <s v="Provides access to all configure WMI collections."/>
+    <m/>
+    <x v="3"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="POST data/inputs/win-wmi-collections"/>
+    <s v="Creates or modifies existing WMI collection settings."/>
+    <m/>
+    <x v="3"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="DELETE data/inputs/win-wmi-collections/{name}"/>
+    <s v="Deletes a given collection."/>
+    <m/>
+    <x v="3"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="GET data/inputs/win-wmi-collections/{name}"/>
+    <s v="Gets information about a single collection."/>
+    <m/>
+    <x v="3"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="POST data/inputs/win-wmi-collections/{name}"/>
+    <s v="Modifies a given WMI collection."/>
+    <m/>
+    <x v="3"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="GET data/inputs/win-perfmon"/>
+    <s v="Gets current performance monitoring configuration."/>
+    <m/>
+    <x v="3"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="POST data/inputs/win-perfmon"/>
+    <s v="Creates new or modifies existing performance monitoring collection settings."/>
+    <m/>
+    <x v="3"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="DELETE data/inputs/win-perfmon/{name}"/>
+    <s v="Deletes a given monitoring stanza."/>
+    <m/>
+    <x v="3"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="GET data/inputs/win-perfmon/{name}"/>
+    <s v="Gets settings for a given perfmon stanza."/>
+    <m/>
+    <x v="3"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="POST data/inputs/win-perfmon/{name}"/>
+    <s v="Modifies existing monitoring stanza"/>
+    <m/>
+    <x v="3"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="GET data/modular-inputs"/>
+    <s v="Lists information about configured modular inputs."/>
+    <m/>
+    <x v="3"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="GET data/modular-inputs/{name}"/>
+    <s v="Lists information about the modular input specified by {name}."/>
+    <m/>
+    <x v="3"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="GET indexing/preview"/>
+    <s v="Return a list of all data preview jobs."/>
+    <m/>
+    <x v="3"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="POST indexing/preview"/>
+    <s v="Create a preview data job for the specified source file, returning the preview data job ID."/>
+    <m/>
+    <x v="3"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="GET indexing/preview/{job_id} "/>
+    <s v="Returns the props.conf settings for the data preview job specified by {job_id}."/>
+    <m/>
+    <x v="3"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="POST receivers/simple"/>
+    <s v="Create events from the contents contained in the HTTP body."/>
+    <m/>
+    <x v="0"/>
+    <x v="3"/>
+    <m/>
+  </r>
+  <r>
+    <s v="POST receivers/stream"/>
+    <s v="Create events from the stream of data following HTTP headers."/>
+    <m/>
+    <x v="0"/>
+    <x v="3"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Inputs"/>
+    <s v="Use the Inputs endpoints to manage data sent to Splunk servers."/>
+    <m/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="POST apps/appinstall"/>
+    <s v="Installs a Splunk app from a local file or from a URL."/>
+    <m/>
+    <x v="0"/>
+    <x v="3"/>
+    <m/>
+  </r>
+  <r>
+    <s v="GET apps/apptemplates"/>
+    <s v="Lists app templates that are used to create apps from the Mangager interface in Splunk Web."/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="GET apps/apptemplates/{name}"/>
+    <s v="Retrieves information about a specific app template."/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="GET apps/local"/>
+    <s v="Returns information on all locally-installed apps."/>
+    <s v="X"/>
+    <x v="0"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <s v="POST apps/local"/>
+    <s v="Creates a new application."/>
+    <m/>
+    <x v="0"/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <s v="DELETE apps/local/{name}"/>
+    <s v="Removes the locally installed app with the name specified by {name}."/>
+    <m/>
+    <x v="0"/>
+    <x v="3"/>
+    <m/>
+  </r>
+  <r>
+    <s v="GET apps/local/{name}"/>
+    <s v="Returns information about the locally installed app with the name specified by {name}."/>
+    <m/>
+    <x v="0"/>
+    <x v="3"/>
+    <m/>
+  </r>
+  <r>
+    <s v="GET apps/local/{name}/package"/>
+    <s v="Archives the app specified by {name}, placing the archive in a directory on your Splunk installation."/>
+    <m/>
+    <x v="0"/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <s v="GET apps/local/{name}/setup"/>
+    <s v="Returns set up information for the app specified by {name}."/>
+    <m/>
+    <x v="0"/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <s v="GET apps/local/{name}/update"/>
+    <s v="Returns any update information available for the app specified by {name}."/>
+    <m/>
+    <x v="0"/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <s v="POST apps/local/{name}/update"/>
+    <m/>
+    <m/>
+    <x v="4"/>
+    <x v="0"/>
+    <s v="Undocumented"/>
+  </r>
+  <r>
+    <s v="Applications"/>
+    <s v="Use the Applications endpoints to install applications and application templates into a Splunk instance. "/>
+    <m/>
+    <x v="3"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Clusters"/>
+    <s v="Use the Clusters endpoints to configure and manage master and peer nodes in a cluster."/>
+    <m/>
+    <x v="3"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Deployment"/>
+    <s v="Use the Deployment endpoints to manage deployment servers and clients."/>
+    <m/>
+    <x v="3"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Knowledge"/>
+    <s v="Use the Knowledge endpoints to define data configurations indexed and searched by Splunk."/>
+    <m/>
+    <x v="3"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Licenses"/>
+    <s v="Use the Licensing endpoints to manage licensing configurations. "/>
+    <m/>
+    <x v="3"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Outputs"/>
+    <s v="Use the Outputs endpoints to manage the configuration of data sent from Splunk forwarders. "/>
+    <m/>
+    <x v="3"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="GET messages"/>
+    <s v="Enumerate all systemwide messages."/>
+    <m/>
+    <x v="0"/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <s v="POST messages"/>
+    <s v="Create a persistent message displayed at /services/messages."/>
+    <m/>
+    <x v="0"/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <s v="DELETE messages/{name}"/>
+    <s v="Deletes a message identified by {name}."/>
+    <m/>
+    <x v="0"/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <s v="GET server/control"/>
+    <s v="Lists the actions that can be performed at this endpoint."/>
+    <m/>
+    <x v="0"/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <s v="POST server/control/restart"/>
+    <s v="Restarts the Splunk server."/>
+    <s v="X"/>
+    <x v="0"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <s v="GET server/info"/>
+    <s v="Enumerates information about the running splunkd."/>
+    <s v="X"/>
+    <x v="0"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <s v="GET server/info/{name}"/>
+    <s v="Provides the identical information as /services/server/info. The only valid {name} here is server-info."/>
+    <m/>
+    <x v="4"/>
+    <x v="0"/>
+    <s v="Redundant with GET server/info"/>
+  </r>
+  <r>
+    <s v="GET server/logger"/>
+    <s v="Enumerates all splunkd logging categories, either specified in code or in $SPLUNK_HOME/etc/log.cfg."/>
+    <m/>
+    <x v="2"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="GET server/logger/{name}"/>
+    <s v="Describes a specific splunkd logging category."/>
+    <m/>
+    <x v="2"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="POST server/logger/{name}"/>
+    <s v="Sets the logging level for a specific logging category."/>
+    <m/>
+    <x v="3"/>
+    <x v="0"/>
+    <s v="Splunk.Management"/>
+  </r>
+  <r>
+    <s v="System"/>
+    <s v="Use the System endpoints to manage Splunk server configurations."/>
+    <m/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
+  <location ref="A3:F10" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="5">
+        <item x="1"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="4"/>
+  </colFields>
+  <colItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Endpoint" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleMedium4" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E187" totalsRowShown="0">
-  <autoFilter ref="A1:E187"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G191" totalsRowCount="1">
+  <autoFilter ref="A1:G191">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="PCL-3"/>
+        <filter val="PCL-3 ?"/>
+        <filter val="Total"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState ref="A2:E178">
     <sortCondition ref="D1:D178"/>
   </sortState>
-  <tableColumns count="5">
-    <tableColumn id="1" name="Endpoint"/>
-    <tableColumn id="2" name="Description"/>
-    <tableColumn id="3" name="Status" dataDxfId="1"/>
-    <tableColumn id="4" name="Priority" dataDxfId="0"/>
-    <tableColumn id="5" name="Rationale"/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="Endpoint" totalsRowDxfId="6"/>
+    <tableColumn id="2" name="Description" totalsRowDxfId="5"/>
+    <tableColumn id="3" name="Status" dataDxfId="10" totalsRowDxfId="4"/>
+    <tableColumn id="4" name="Priority" dataDxfId="9" totalsRowDxfId="3"/>
+    <tableColumn id="6" name="Milestone" totalsRowLabel="Total" dataDxfId="8" totalsRowDxfId="2"/>
+    <tableColumn id="7" name="Cost" totalsRowFunction="custom" dataDxfId="7" totalsRowDxfId="1">
+      <totalsRowFormula>SUM(Table1[Cost])/8</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="5" name="Rationale" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1629,22 +3456,175 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E209"/>
+  <dimension ref="A3:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A108" workbookViewId="0">
-      <selection activeCell="A200" sqref="A200"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.83203125" customWidth="1"/>
+    <col min="4" max="4" width="7.1640625" customWidth="1"/>
+    <col min="5" max="5" width="6.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:6">
+      <c r="A3" s="26" t="s">
+        <v>381</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="26" t="s">
+        <v>383</v>
+      </c>
+      <c r="B4" t="s">
+        <v>378</v>
+      </c>
+      <c r="C4" t="s">
+        <v>377</v>
+      </c>
+      <c r="D4" t="s">
+        <v>379</v>
+      </c>
+      <c r="E4" t="s">
+        <v>384</v>
+      </c>
+      <c r="F4" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="2">
+        <v>1</v>
+      </c>
+      <c r="B5" s="27">
+        <v>25</v>
+      </c>
+      <c r="C5" s="27">
+        <v>9</v>
+      </c>
+      <c r="D5" s="27">
+        <v>11</v>
+      </c>
+      <c r="E5" s="27">
+        <v>15</v>
+      </c>
+      <c r="F5" s="27">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="2">
+        <v>2</v>
+      </c>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27">
+        <v>16</v>
+      </c>
+      <c r="F6" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="2">
+        <v>3</v>
+      </c>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27">
+        <v>96</v>
+      </c>
+      <c r="F7" s="27">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="2">
+        <v>4</v>
+      </c>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27">
+        <v>3</v>
+      </c>
+      <c r="F8" s="27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27">
+        <v>6</v>
+      </c>
+      <c r="F9" s="27">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="B10" s="27">
+        <v>25</v>
+      </c>
+      <c r="C10" s="27">
+        <v>9</v>
+      </c>
+      <c r="D10" s="27">
+        <v>11</v>
+      </c>
+      <c r="E10" s="27">
+        <v>136</v>
+      </c>
+      <c r="F10" s="27">
+        <v>181</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G212"/>
+  <sheetViews>
+    <sheetView tabSelected="1" showRuler="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="B200" sqref="B200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="59.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="106.5" customWidth="1"/>
+    <col min="1" max="1" width="48.83203125" customWidth="1"/>
+    <col min="2" max="2" width="82" customWidth="1"/>
     <col min="3" max="3" width="8.83203125" style="3" customWidth="1"/>
     <col min="4" max="4" width="12.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="84.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="69.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1657,170 +3637,264 @@
       <c r="D1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="G1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:5" hidden="1" outlineLevel="1">
+    <row r="2" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A2" s="4" t="s">
         <v>77</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>78</v>
       </c>
+      <c r="C2" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="D2" s="19">
         <v>1</v>
       </c>
-      <c r="E2" s="20"/>
-    </row>
-    <row r="3" spans="1:5" hidden="1" outlineLevel="1">
+      <c r="E2" s="25" t="s">
+        <v>378</v>
+      </c>
+      <c r="F2" s="29"/>
+      <c r="G2" s="20"/>
+    </row>
+    <row r="3" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A3" s="4" t="s">
         <v>79</v>
       </c>
       <c r="B3" t="s">
         <v>80</v>
       </c>
+      <c r="C3" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="D3" s="19">
         <v>1</v>
       </c>
-      <c r="E3" s="20"/>
-    </row>
-    <row r="4" spans="1:5" hidden="1" outlineLevel="1">
+      <c r="E3" s="25" t="s">
+        <v>378</v>
+      </c>
+      <c r="F3" s="29"/>
+      <c r="G3" s="20"/>
+    </row>
+    <row r="4" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A4" s="4" t="s">
         <v>81</v>
       </c>
       <c r="B4" t="s">
         <v>82</v>
       </c>
+      <c r="C4" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="D4" s="19">
         <v>1</v>
       </c>
-      <c r="E4" s="20"/>
-    </row>
-    <row r="5" spans="1:5" hidden="1" outlineLevel="1">
+      <c r="E4" s="25" t="s">
+        <v>378</v>
+      </c>
+      <c r="F4" s="29"/>
+      <c r="G4" s="20"/>
+    </row>
+    <row r="5" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A5" s="4" t="s">
         <v>83</v>
       </c>
       <c r="B5" t="s">
         <v>84</v>
       </c>
+      <c r="C5" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="D5" s="19">
         <v>1</v>
       </c>
-      <c r="E5" s="20"/>
-    </row>
-    <row r="6" spans="1:5" hidden="1" outlineLevel="1">
+      <c r="E5" s="25" t="s">
+        <v>378</v>
+      </c>
+      <c r="F5" s="29"/>
+      <c r="G5" s="20"/>
+    </row>
+    <row r="6" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A6" s="4" t="s">
         <v>85</v>
       </c>
       <c r="B6" t="s">
         <v>86</v>
       </c>
+      <c r="C6" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="D6" s="19">
         <v>1</v>
       </c>
-      <c r="E6" s="20"/>
-    </row>
-    <row r="7" spans="1:5" hidden="1" outlineLevel="1">
+      <c r="E6" s="25" t="s">
+        <v>378</v>
+      </c>
+      <c r="F6" s="29"/>
+      <c r="G6" s="20"/>
+    </row>
+    <row r="7" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A7" s="4" t="s">
         <v>87</v>
       </c>
       <c r="B7" t="s">
         <v>88</v>
       </c>
+      <c r="C7" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="D7" s="19">
         <v>1</v>
       </c>
-      <c r="E7" s="20"/>
-    </row>
-    <row r="8" spans="1:5" hidden="1" outlineLevel="1">
+      <c r="E7" s="25" t="s">
+        <v>378</v>
+      </c>
+      <c r="F7" s="29"/>
+      <c r="G7" s="20"/>
+    </row>
+    <row r="8" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A8" s="4" t="s">
         <v>101</v>
       </c>
       <c r="B8" t="s">
         <v>102</v>
       </c>
+      <c r="C8" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="D8" s="19">
         <v>1</v>
       </c>
-      <c r="E8" s="20"/>
-    </row>
-    <row r="9" spans="1:5" hidden="1" outlineLevel="1">
+      <c r="E8" s="25" t="s">
+        <v>378</v>
+      </c>
+      <c r="F8" s="29"/>
+      <c r="G8" s="20"/>
+    </row>
+    <row r="9" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A9" s="7" t="s">
         <v>89</v>
       </c>
       <c r="B9" t="s">
         <v>90</v>
       </c>
+      <c r="C9" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="D9" s="19">
         <v>1</v>
       </c>
-      <c r="E9" s="20"/>
-    </row>
-    <row r="10" spans="1:5" hidden="1" outlineLevel="1">
+      <c r="E9" s="25" t="s">
+        <v>378</v>
+      </c>
+      <c r="F9" s="29"/>
+      <c r="G9" s="20"/>
+    </row>
+    <row r="10" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A10" s="4" t="s">
         <v>91</v>
       </c>
       <c r="B10" t="s">
         <v>92</v>
       </c>
+      <c r="C10" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="D10" s="19">
         <v>1</v>
       </c>
-      <c r="E10" s="20"/>
-    </row>
-    <row r="11" spans="1:5" hidden="1" outlineLevel="1">
+      <c r="E10" s="25" t="s">
+        <v>378</v>
+      </c>
+      <c r="F10" s="29"/>
+      <c r="G10" s="20"/>
+    </row>
+    <row r="11" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A11" s="4" t="s">
         <v>93</v>
       </c>
       <c r="B11" t="s">
         <v>94</v>
       </c>
+      <c r="C11" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="D11" s="19">
         <v>1</v>
       </c>
-      <c r="E11" s="20"/>
-    </row>
-    <row r="12" spans="1:5" hidden="1" outlineLevel="1">
+      <c r="E11" s="25" t="s">
+        <v>378</v>
+      </c>
+      <c r="F11" s="29"/>
+      <c r="G11" s="20"/>
+    </row>
+    <row r="12" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A12" s="17" t="s">
         <v>95</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="C12" s="12"/>
+      <c r="C12" s="12" t="s">
+        <v>3</v>
+      </c>
       <c r="D12" s="23">
         <v>1</v>
       </c>
-      <c r="E12" s="22"/>
-    </row>
-    <row r="13" spans="1:5" hidden="1" outlineLevel="1">
+      <c r="E12" s="25" t="s">
+        <v>378</v>
+      </c>
+      <c r="F12" s="29"/>
+      <c r="G12" s="22"/>
+    </row>
+    <row r="13" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A13" s="18" t="s">
         <v>97</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="C13" s="12"/>
+      <c r="C13" s="12" t="s">
+        <v>3</v>
+      </c>
       <c r="D13" s="23">
         <v>1</v>
       </c>
-      <c r="E13" s="22"/>
-    </row>
-    <row r="14" spans="1:5" hidden="1" outlineLevel="1">
+      <c r="E13" s="25" t="s">
+        <v>378</v>
+      </c>
+      <c r="F13" s="29"/>
+      <c r="G13" s="22"/>
+    </row>
+    <row r="14" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A14" s="18" t="s">
         <v>99</v>
       </c>
       <c r="B14" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="C14" s="12"/>
+      <c r="C14" s="12" t="s">
+        <v>3</v>
+      </c>
       <c r="D14" s="23">
         <v>1</v>
       </c>
-      <c r="E14" s="22"/>
-    </row>
-    <row r="15" spans="1:5" collapsed="1">
+      <c r="E14" s="25" t="s">
+        <v>378</v>
+      </c>
+      <c r="F14" s="29"/>
+      <c r="G14" s="22"/>
+    </row>
+    <row r="15" spans="1:7" hidden="1">
       <c r="A15" s="15" t="s">
         <v>75</v>
       </c>
@@ -1829,9 +3903,11 @@
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="23"/>
-      <c r="E15" s="22"/>
-    </row>
-    <row r="16" spans="1:5" outlineLevel="1">
+      <c r="E15" s="28"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="22"/>
+    </row>
+    <row r="16" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A16" s="4" t="s">
         <v>127</v>
       </c>
@@ -1841,9 +3917,11 @@
       <c r="D16" s="19">
         <v>2</v>
       </c>
-      <c r="E16" s="20"/>
-    </row>
-    <row r="17" spans="1:5" outlineLevel="1">
+      <c r="E16" s="19"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="20"/>
+    </row>
+    <row r="17" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A17" s="4" t="s">
         <v>129</v>
       </c>
@@ -1853,9 +3931,11 @@
       <c r="D17" s="19">
         <v>2</v>
       </c>
-      <c r="E17" s="20"/>
-    </row>
-    <row r="18" spans="1:5" outlineLevel="1">
+      <c r="E17" s="19"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="20"/>
+    </row>
+    <row r="18" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A18" s="4" t="s">
         <v>131</v>
       </c>
@@ -1865,9 +3945,11 @@
       <c r="D18" s="19">
         <v>2</v>
       </c>
-      <c r="E18" s="20"/>
-    </row>
-    <row r="19" spans="1:5" outlineLevel="1">
+      <c r="E18" s="19"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="20"/>
+    </row>
+    <row r="19" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A19" s="18" t="s">
         <v>134</v>
       </c>
@@ -1878,9 +3960,11 @@
       <c r="D19" s="23">
         <v>2</v>
       </c>
-      <c r="E19" s="22"/>
-    </row>
-    <row r="20" spans="1:5" outlineLevel="1">
+      <c r="E19" s="23"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="22"/>
+    </row>
+    <row r="20" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A20" s="4" t="s">
         <v>135</v>
       </c>
@@ -1890,9 +3974,11 @@
       <c r="D20" s="19">
         <v>2</v>
       </c>
-      <c r="E20" s="20"/>
-    </row>
-    <row r="21" spans="1:5" outlineLevel="1">
+      <c r="E20" s="19"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="20"/>
+    </row>
+    <row r="21" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A21" s="18" t="s">
         <v>138</v>
       </c>
@@ -1905,9 +3991,13 @@
       <c r="D21" s="23">
         <v>1</v>
       </c>
-      <c r="E21" s="22"/>
-    </row>
-    <row r="22" spans="1:5" outlineLevel="1">
+      <c r="E21" s="28" t="s">
+        <v>378</v>
+      </c>
+      <c r="F21" s="30"/>
+      <c r="G21" s="22"/>
+    </row>
+    <row r="22" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A22" s="4" t="s">
         <v>139</v>
       </c>
@@ -1920,9 +4010,13 @@
       <c r="D22" s="23">
         <v>1</v>
       </c>
-      <c r="E22" s="20"/>
-    </row>
-    <row r="23" spans="1:5" s="10" customFormat="1" outlineLevel="1" collapsed="1">
+      <c r="E22" s="28" t="s">
+        <v>378</v>
+      </c>
+      <c r="F22" s="30"/>
+      <c r="G22" s="20"/>
+    </row>
+    <row r="23" spans="1:7" s="10" customFormat="1" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A23" s="18" t="s">
         <v>141</v>
       </c>
@@ -1935,9 +4029,13 @@
       <c r="D23" s="23">
         <v>1</v>
       </c>
-      <c r="E23" s="22"/>
-    </row>
-    <row r="24" spans="1:5" outlineLevel="1">
+      <c r="E23" s="28" t="s">
+        <v>378</v>
+      </c>
+      <c r="F23" s="30"/>
+      <c r="G23" s="22"/>
+    </row>
+    <row r="24" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A24" s="4" t="s">
         <v>143</v>
       </c>
@@ -1950,9 +4048,13 @@
       <c r="D24" s="23">
         <v>1</v>
       </c>
-      <c r="E24" s="20"/>
-    </row>
-    <row r="25" spans="1:5" outlineLevel="1">
+      <c r="E24" s="28" t="s">
+        <v>378</v>
+      </c>
+      <c r="F24" s="30"/>
+      <c r="G24" s="20"/>
+    </row>
+    <row r="25" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A25" s="4" t="s">
         <v>145</v>
       </c>
@@ -1965,9 +4067,13 @@
       <c r="D25" s="23">
         <v>1</v>
       </c>
-      <c r="E25" s="20"/>
-    </row>
-    <row r="26" spans="1:5" outlineLevel="1">
+      <c r="E25" s="28" t="s">
+        <v>378</v>
+      </c>
+      <c r="F25" s="30"/>
+      <c r="G25" s="20"/>
+    </row>
+    <row r="26" spans="1:7" ht="30" hidden="1" outlineLevel="1">
       <c r="A26" s="4" t="s">
         <v>147</v>
       </c>
@@ -1977,11 +4083,13 @@
       <c r="D26" s="23">
         <v>2</v>
       </c>
-      <c r="E26" s="20" t="s">
+      <c r="E26" s="23"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="20" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="27" spans="1:5" outlineLevel="1">
+    <row r="27" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A27" s="4" t="s">
         <v>149</v>
       </c>
@@ -1994,46 +4102,74 @@
       <c r="D27" s="23">
         <v>1</v>
       </c>
-      <c r="E27" s="20"/>
-    </row>
-    <row r="28" spans="1:5" outlineLevel="1">
+      <c r="E27" s="28" t="s">
+        <v>378</v>
+      </c>
+      <c r="F27" s="30"/>
+      <c r="G27" s="20"/>
+    </row>
+    <row r="28" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A28" s="4" t="s">
         <v>152</v>
       </c>
       <c r="B28" t="s">
         <v>151</v>
       </c>
+      <c r="C28" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="D28" s="23">
         <v>1</v>
       </c>
-      <c r="E28" s="20"/>
-    </row>
-    <row r="29" spans="1:5" outlineLevel="1">
+      <c r="E28" s="28" t="s">
+        <v>378</v>
+      </c>
+      <c r="F28" s="30"/>
+      <c r="G28" s="20"/>
+    </row>
+    <row r="29" spans="1:7" outlineLevel="1">
       <c r="A29" s="4" t="s">
         <v>153</v>
       </c>
       <c r="B29" t="s">
         <v>154</v>
       </c>
+      <c r="C29" s="12" t="s">
+        <v>209</v>
+      </c>
       <c r="D29" s="23">
         <v>1</v>
       </c>
-      <c r="E29" s="20"/>
-    </row>
-    <row r="30" spans="1:5" outlineLevel="1">
+      <c r="E29" s="28" t="s">
+        <v>377</v>
+      </c>
+      <c r="F29" s="30">
+        <v>4</v>
+      </c>
+      <c r="G29" s="20"/>
+    </row>
+    <row r="30" spans="1:7" outlineLevel="1">
       <c r="A30" s="18" t="s">
         <v>155</v>
       </c>
       <c r="B30" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="C30" s="12"/>
+      <c r="C30" s="12" t="s">
+        <v>209</v>
+      </c>
       <c r="D30" s="23">
         <v>1</v>
       </c>
-      <c r="E30" s="22"/>
-    </row>
-    <row r="31" spans="1:5" outlineLevel="1">
+      <c r="E30" s="28" t="s">
+        <v>377</v>
+      </c>
+      <c r="F30" s="30">
+        <v>4</v>
+      </c>
+      <c r="G30" s="22"/>
+    </row>
+    <row r="31" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A31" s="18" t="s">
         <v>158</v>
       </c>
@@ -2044,11 +4180,13 @@
       <c r="D31" s="23">
         <v>2</v>
       </c>
-      <c r="E31" s="22" t="s">
+      <c r="E31" s="23"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="22" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="32" spans="1:5" outlineLevel="1">
+    <row r="32" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A32" s="7" t="s">
         <v>159</v>
       </c>
@@ -2058,9 +4196,11 @@
       <c r="D32" s="19">
         <v>3</v>
       </c>
-      <c r="E32" s="20"/>
-    </row>
-    <row r="33" spans="1:5" outlineLevel="1">
+      <c r="E32" s="19"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="20"/>
+    </row>
+    <row r="33" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A33" s="4" t="s">
         <v>161</v>
       </c>
@@ -2070,9 +4210,11 @@
       <c r="D33" s="19">
         <v>3</v>
       </c>
-      <c r="E33" s="20"/>
-    </row>
-    <row r="34" spans="1:5" outlineLevel="1">
+      <c r="E33" s="19"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="20"/>
+    </row>
+    <row r="34" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A34" s="4" t="s">
         <v>163</v>
       </c>
@@ -2082,9 +4224,11 @@
       <c r="D34" s="19">
         <v>3</v>
       </c>
-      <c r="E34" s="20"/>
-    </row>
-    <row r="35" spans="1:5" s="10" customFormat="1" outlineLevel="1" collapsed="1">
+      <c r="E34" s="19"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="20"/>
+    </row>
+    <row r="35" spans="1:7" s="10" customFormat="1" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A35" s="4" t="s">
         <v>165</v>
       </c>
@@ -2095,9 +4239,11 @@
       <c r="D35" s="19">
         <v>3</v>
       </c>
-      <c r="E35" s="20"/>
-    </row>
-    <row r="36" spans="1:5" outlineLevel="1">
+      <c r="E35" s="19"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="20"/>
+    </row>
+    <row r="36" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A36" s="18" t="s">
         <v>167</v>
       </c>
@@ -2108,9 +4254,11 @@
       <c r="D36" s="19">
         <v>3</v>
       </c>
-      <c r="E36" s="22"/>
-    </row>
-    <row r="37" spans="1:5" s="10" customFormat="1" outlineLevel="1" collapsed="1">
+      <c r="E36" s="19"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="22"/>
+    </row>
+    <row r="37" spans="1:7" s="10" customFormat="1" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A37" s="4" t="s">
         <v>169</v>
       </c>
@@ -2121,9 +4269,11 @@
       <c r="D37" s="19">
         <v>3</v>
       </c>
-      <c r="E37" s="20"/>
-    </row>
-    <row r="38" spans="1:5" outlineLevel="1">
+      <c r="E37" s="19"/>
+      <c r="F37" s="29"/>
+      <c r="G37" s="20"/>
+    </row>
+    <row r="38" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A38" s="18" t="s">
         <v>171</v>
       </c>
@@ -2134,9 +4284,11 @@
       <c r="D38" s="19">
         <v>3</v>
       </c>
-      <c r="E38" s="22"/>
-    </row>
-    <row r="39" spans="1:5" outlineLevel="1">
+      <c r="E38" s="19"/>
+      <c r="F38" s="29"/>
+      <c r="G38" s="22"/>
+    </row>
+    <row r="39" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A39" s="18" t="s">
         <v>173</v>
       </c>
@@ -2147,9 +4299,11 @@
       <c r="D39" s="19">
         <v>3</v>
       </c>
-      <c r="E39" s="22"/>
-    </row>
-    <row r="40" spans="1:5" outlineLevel="1">
+      <c r="E39" s="19"/>
+      <c r="F39" s="29"/>
+      <c r="G39" s="22"/>
+    </row>
+    <row r="40" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A40" s="18" t="s">
         <v>175</v>
       </c>
@@ -2162,9 +4316,13 @@
       <c r="D40" s="23">
         <v>1</v>
       </c>
-      <c r="E40" s="22"/>
-    </row>
-    <row r="41" spans="1:5" outlineLevel="1">
+      <c r="E40" s="28" t="s">
+        <v>378</v>
+      </c>
+      <c r="F40" s="30"/>
+      <c r="G40" s="22"/>
+    </row>
+    <row r="41" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A41" s="18" t="s">
         <v>177</v>
       </c>
@@ -2177,9 +4335,13 @@
       <c r="D41" s="23">
         <v>1</v>
       </c>
-      <c r="E41" s="22"/>
-    </row>
-    <row r="42" spans="1:5" outlineLevel="1">
+      <c r="E41" s="28" t="s">
+        <v>378</v>
+      </c>
+      <c r="F41" s="30"/>
+      <c r="G41" s="22"/>
+    </row>
+    <row r="42" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A42" s="18" t="s">
         <v>179</v>
       </c>
@@ -2192,9 +4354,13 @@
       <c r="D42" s="23">
         <v>1</v>
       </c>
-      <c r="E42" s="22"/>
-    </row>
-    <row r="43" spans="1:5" outlineLevel="1">
+      <c r="E42" s="28" t="s">
+        <v>378</v>
+      </c>
+      <c r="F42" s="30"/>
+      <c r="G42" s="22"/>
+    </row>
+    <row r="43" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A43" s="18" t="s">
         <v>181</v>
       </c>
@@ -2207,9 +4373,13 @@
       <c r="D43" s="23">
         <v>1</v>
       </c>
-      <c r="E43" s="22"/>
-    </row>
-    <row r="44" spans="1:5" outlineLevel="1">
+      <c r="E43" s="28" t="s">
+        <v>378</v>
+      </c>
+      <c r="F43" s="30"/>
+      <c r="G43" s="22"/>
+    </row>
+    <row r="44" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A44" s="18" t="s">
         <v>183</v>
       </c>
@@ -2222,9 +4392,13 @@
       <c r="D44" s="23">
         <v>1</v>
       </c>
-      <c r="E44" s="22"/>
-    </row>
-    <row r="45" spans="1:5" outlineLevel="1">
+      <c r="E44" s="28" t="s">
+        <v>378</v>
+      </c>
+      <c r="F44" s="30"/>
+      <c r="G44" s="22"/>
+    </row>
+    <row r="45" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A45" s="18" t="s">
         <v>185</v>
       </c>
@@ -2237,9 +4411,13 @@
       <c r="D45" s="23">
         <v>1</v>
       </c>
-      <c r="E45" s="22"/>
-    </row>
-    <row r="46" spans="1:5" outlineLevel="1">
+      <c r="E45" s="28" t="s">
+        <v>378</v>
+      </c>
+      <c r="F45" s="30"/>
+      <c r="G45" s="22"/>
+    </row>
+    <row r="46" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A46" s="18" t="s">
         <v>187</v>
       </c>
@@ -2252,9 +4430,13 @@
       <c r="D46" s="23">
         <v>1</v>
       </c>
-      <c r="E46" s="22"/>
-    </row>
-    <row r="47" spans="1:5" outlineLevel="1">
+      <c r="E46" s="28" t="s">
+        <v>378</v>
+      </c>
+      <c r="F46" s="30"/>
+      <c r="G46" s="22"/>
+    </row>
+    <row r="47" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A47" s="18" t="s">
         <v>189</v>
       </c>
@@ -2267,9 +4449,13 @@
       <c r="D47" s="23">
         <v>1</v>
       </c>
-      <c r="E47" s="22"/>
-    </row>
-    <row r="48" spans="1:5" outlineLevel="1">
+      <c r="E47" s="28" t="s">
+        <v>378</v>
+      </c>
+      <c r="F47" s="30"/>
+      <c r="G47" s="22"/>
+    </row>
+    <row r="48" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A48" s="18" t="s">
         <v>190</v>
       </c>
@@ -2282,9 +4468,13 @@
       <c r="D48" s="23">
         <v>1</v>
       </c>
-      <c r="E48" s="22"/>
-    </row>
-    <row r="49" spans="1:5" outlineLevel="1">
+      <c r="E48" s="28" t="s">
+        <v>378</v>
+      </c>
+      <c r="F48" s="30"/>
+      <c r="G48" s="22"/>
+    </row>
+    <row r="49" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A49" s="18" t="s">
         <v>191</v>
       </c>
@@ -2297,9 +4487,13 @@
       <c r="D49" s="23">
         <v>1</v>
       </c>
-      <c r="E49" s="22"/>
-    </row>
-    <row r="50" spans="1:5" outlineLevel="1">
+      <c r="E49" s="28" t="s">
+        <v>378</v>
+      </c>
+      <c r="F49" s="30"/>
+      <c r="G49" s="22"/>
+    </row>
+    <row r="50" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A50" s="18" t="s">
         <v>193</v>
       </c>
@@ -2310,9 +4504,11 @@
       <c r="D50" s="23">
         <v>2</v>
       </c>
-      <c r="E50" s="22"/>
-    </row>
-    <row r="51" spans="1:5" s="10" customFormat="1" outlineLevel="1" collapsed="1">
+      <c r="E50" s="23"/>
+      <c r="F50" s="30"/>
+      <c r="G50" s="22"/>
+    </row>
+    <row r="51" spans="1:7" s="10" customFormat="1" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A51" s="18" t="s">
         <v>195</v>
       </c>
@@ -2323,9 +4519,11 @@
       <c r="D51" s="23">
         <v>2</v>
       </c>
-      <c r="E51" s="22"/>
-    </row>
-    <row r="52" spans="1:5" outlineLevel="1">
+      <c r="E51" s="23"/>
+      <c r="F51" s="30"/>
+      <c r="G51" s="22"/>
+    </row>
+    <row r="52" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A52" s="18" t="s">
         <v>197</v>
       </c>
@@ -2336,9 +4534,11 @@
       <c r="D52" s="23">
         <v>2</v>
       </c>
-      <c r="E52" s="22"/>
-    </row>
-    <row r="53" spans="1:5" s="10" customFormat="1" outlineLevel="1" collapsed="1">
+      <c r="E52" s="23"/>
+      <c r="F52" s="30"/>
+      <c r="G52" s="22"/>
+    </row>
+    <row r="53" spans="1:7" s="10" customFormat="1" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A53" s="4" t="s">
         <v>199</v>
       </c>
@@ -2349,9 +4549,11 @@
       <c r="D53" s="19">
         <v>2</v>
       </c>
-      <c r="E53" s="20"/>
-    </row>
-    <row r="54" spans="1:5" outlineLevel="1">
+      <c r="E53" s="19"/>
+      <c r="F53" s="29"/>
+      <c r="G53" s="20"/>
+    </row>
+    <row r="54" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A54" s="18" t="s">
         <v>201</v>
       </c>
@@ -2362,9 +4564,11 @@
       <c r="D54" s="23">
         <v>2</v>
       </c>
-      <c r="E54" s="22"/>
-    </row>
-    <row r="55" spans="1:5" outlineLevel="1">
+      <c r="E54" s="23"/>
+      <c r="F54" s="30"/>
+      <c r="G54" s="22"/>
+    </row>
+    <row r="55" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A55" s="18" t="s">
         <v>203</v>
       </c>
@@ -2375,9 +4579,11 @@
       <c r="D55" s="23">
         <v>2</v>
       </c>
-      <c r="E55" s="22"/>
-    </row>
-    <row r="56" spans="1:5">
+      <c r="E55" s="23"/>
+      <c r="F55" s="30"/>
+      <c r="G55" s="22"/>
+    </row>
+    <row r="56" spans="1:7" hidden="1">
       <c r="A56" s="8" t="s">
         <v>125</v>
       </c>
@@ -2386,9 +4592,11 @@
       </c>
       <c r="C56" s="9"/>
       <c r="D56" s="19"/>
-      <c r="E56" s="20"/>
-    </row>
-    <row r="57" spans="1:5" outlineLevel="1">
+      <c r="E56" s="25"/>
+      <c r="F56" s="29"/>
+      <c r="G56" s="20"/>
+    </row>
+    <row r="57" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A57" s="1" t="s">
         <v>5</v>
       </c>
@@ -2401,9 +4609,13 @@
       <c r="D57" s="19">
         <v>1</v>
       </c>
-      <c r="E57" s="20"/>
-    </row>
-    <row r="58" spans="1:5" outlineLevel="1">
+      <c r="E57" s="25" t="s">
+        <v>378</v>
+      </c>
+      <c r="F57" s="29"/>
+      <c r="G57" s="20"/>
+    </row>
+    <row r="58" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A58" s="4" t="s">
         <v>6</v>
       </c>
@@ -2413,9 +4625,11 @@
       <c r="D58" s="19">
         <v>2</v>
       </c>
-      <c r="E58" s="20"/>
-    </row>
-    <row r="59" spans="1:5" s="10" customFormat="1" outlineLevel="1" collapsed="1">
+      <c r="E58" s="19"/>
+      <c r="F58" s="29"/>
+      <c r="G58" s="20"/>
+    </row>
+    <row r="59" spans="1:7" s="10" customFormat="1" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A59" s="4" t="s">
         <v>10</v>
       </c>
@@ -2426,11 +4640,13 @@
       <c r="D59" s="19">
         <v>3</v>
       </c>
-      <c r="E59" s="20" t="s">
+      <c r="E59" s="19"/>
+      <c r="F59" s="29"/>
+      <c r="G59" s="20" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="1:5" outlineLevel="1">
+    <row r="60" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A60" s="4" t="s">
         <v>15</v>
       </c>
@@ -2440,9 +4656,11 @@
       <c r="D60" s="19">
         <v>3</v>
       </c>
-      <c r="E60" s="20"/>
-    </row>
-    <row r="61" spans="1:5" s="10" customFormat="1" outlineLevel="1" collapsed="1">
+      <c r="E60" s="19"/>
+      <c r="F60" s="29"/>
+      <c r="G60" s="20"/>
+    </row>
+    <row r="61" spans="1:7" s="10" customFormat="1" outlineLevel="1" collapsed="1">
       <c r="A61" s="4" t="s">
         <v>16</v>
       </c>
@@ -2453,11 +4671,17 @@
       <c r="D61" s="19">
         <v>1</v>
       </c>
-      <c r="E61" s="20" t="s">
+      <c r="E61" s="25" t="s">
+        <v>377</v>
+      </c>
+      <c r="F61" s="29">
+        <v>4</v>
+      </c>
+      <c r="G61" s="20" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="62" spans="1:5" outlineLevel="1">
+    <row r="62" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A62" s="4" t="s">
         <v>20</v>
       </c>
@@ -2467,9 +4691,11 @@
       <c r="D62" s="19">
         <v>3</v>
       </c>
-      <c r="E62" s="20"/>
-    </row>
-    <row r="63" spans="1:5" s="10" customFormat="1" outlineLevel="1" collapsed="1">
+      <c r="E62" s="19"/>
+      <c r="F62" s="29"/>
+      <c r="G62" s="20"/>
+    </row>
+    <row r="63" spans="1:7" s="10" customFormat="1" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A63" s="4" t="s">
         <v>19</v>
       </c>
@@ -2480,9 +4706,11 @@
       <c r="D63" s="19">
         <v>3</v>
       </c>
-      <c r="E63" s="20"/>
-    </row>
-    <row r="64" spans="1:5" outlineLevel="1">
+      <c r="E63" s="19"/>
+      <c r="F63" s="29"/>
+      <c r="G63" s="20"/>
+    </row>
+    <row r="64" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A64" s="4" t="s">
         <v>25</v>
       </c>
@@ -2492,9 +4720,11 @@
       <c r="D64" s="19">
         <v>3</v>
       </c>
-      <c r="E64" s="20"/>
-    </row>
-    <row r="65" spans="1:5" s="10" customFormat="1" outlineLevel="1" collapsed="1">
+      <c r="E64" s="19"/>
+      <c r="F64" s="29"/>
+      <c r="G64" s="20"/>
+    </row>
+    <row r="65" spans="1:7" s="10" customFormat="1" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A65" s="4" t="s">
         <v>26</v>
       </c>
@@ -2505,9 +4735,11 @@
       <c r="D65" s="19">
         <v>3</v>
       </c>
-      <c r="E65" s="20"/>
-    </row>
-    <row r="66" spans="1:5" outlineLevel="1">
+      <c r="E65" s="19"/>
+      <c r="F65" s="29"/>
+      <c r="G65" s="20"/>
+    </row>
+    <row r="66" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A66" s="4" t="s">
         <v>27</v>
       </c>
@@ -2517,9 +4749,11 @@
       <c r="D66" s="19">
         <v>3</v>
       </c>
-      <c r="E66" s="20"/>
-    </row>
-    <row r="67" spans="1:5" s="10" customFormat="1" outlineLevel="1" collapsed="1">
+      <c r="E66" s="19"/>
+      <c r="F66" s="29"/>
+      <c r="G66" s="20"/>
+    </row>
+    <row r="67" spans="1:7" s="10" customFormat="1" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A67" s="4" t="s">
         <v>23</v>
       </c>
@@ -2530,9 +4764,11 @@
       <c r="D67" s="19">
         <v>3</v>
       </c>
-      <c r="E67" s="20"/>
-    </row>
-    <row r="68" spans="1:5" outlineLevel="1">
+      <c r="E67" s="19"/>
+      <c r="F67" s="29"/>
+      <c r="G67" s="20"/>
+    </row>
+    <row r="68" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A68" s="4" t="s">
         <v>31</v>
       </c>
@@ -2542,9 +4778,11 @@
       <c r="D68" s="19">
         <v>3</v>
       </c>
-      <c r="E68" s="20"/>
-    </row>
-    <row r="69" spans="1:5" outlineLevel="1">
+      <c r="E68" s="19"/>
+      <c r="F68" s="29"/>
+      <c r="G68" s="20"/>
+    </row>
+    <row r="69" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A69" s="4" t="s">
         <v>33</v>
       </c>
@@ -2554,11 +4792,13 @@
       <c r="D69" s="19">
         <v>4</v>
       </c>
-      <c r="E69" s="20" t="s">
+      <c r="E69" s="19"/>
+      <c r="F69" s="29"/>
+      <c r="G69" s="20" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="70" spans="1:5" outlineLevel="1">
+    <row r="70" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A70" s="4" t="s">
         <v>35</v>
       </c>
@@ -2568,9 +4808,11 @@
       <c r="D70" s="19">
         <v>3</v>
       </c>
-      <c r="E70" s="20"/>
-    </row>
-    <row r="71" spans="1:5" outlineLevel="1">
+      <c r="E70" s="19"/>
+      <c r="F70" s="29"/>
+      <c r="G70" s="20"/>
+    </row>
+    <row r="71" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A71" s="4" t="s">
         <v>36</v>
       </c>
@@ -2580,9 +4822,11 @@
       <c r="D71" s="19">
         <v>3</v>
       </c>
-      <c r="E71" s="20"/>
-    </row>
-    <row r="72" spans="1:5" outlineLevel="1">
+      <c r="E71" s="19"/>
+      <c r="F71" s="29"/>
+      <c r="G71" s="20"/>
+    </row>
+    <row r="72" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A72" s="4" t="s">
         <v>39</v>
       </c>
@@ -2592,9 +4836,11 @@
       <c r="D72" s="19">
         <v>3</v>
       </c>
-      <c r="E72" s="20"/>
-    </row>
-    <row r="73" spans="1:5" outlineLevel="1">
+      <c r="E72" s="19"/>
+      <c r="F72" s="29"/>
+      <c r="G72" s="20"/>
+    </row>
+    <row r="73" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A73" s="4" t="s">
         <v>40</v>
       </c>
@@ -2604,9 +4850,11 @@
       <c r="D73" s="19">
         <v>3</v>
       </c>
-      <c r="E73" s="20"/>
-    </row>
-    <row r="74" spans="1:5" outlineLevel="1">
+      <c r="E73" s="19"/>
+      <c r="F73" s="29"/>
+      <c r="G73" s="20"/>
+    </row>
+    <row r="74" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A74" s="4" t="s">
         <v>41</v>
       </c>
@@ -2616,9 +4864,11 @@
       <c r="D74" s="19">
         <v>3</v>
       </c>
-      <c r="E74" s="20"/>
-    </row>
-    <row r="75" spans="1:5" outlineLevel="1">
+      <c r="E74" s="19"/>
+      <c r="F74" s="29"/>
+      <c r="G74" s="20"/>
+    </row>
+    <row r="75" spans="1:7" outlineLevel="1">
       <c r="A75" s="4" t="s">
         <v>45</v>
       </c>
@@ -2628,9 +4878,17 @@
       <c r="D75" s="19">
         <v>1</v>
       </c>
-      <c r="E75" s="20"/>
-    </row>
-    <row r="76" spans="1:5" outlineLevel="1">
+      <c r="E75" s="25" t="s">
+        <v>379</v>
+      </c>
+      <c r="F75" s="29">
+        <v>4</v>
+      </c>
+      <c r="G75" s="20" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" outlineLevel="1">
       <c r="A76" s="4" t="s">
         <v>47</v>
       </c>
@@ -2640,9 +4898,15 @@
       <c r="D76" s="19">
         <v>1</v>
       </c>
-      <c r="E76" s="20"/>
-    </row>
-    <row r="77" spans="1:5" outlineLevel="1">
+      <c r="E76" s="25" t="s">
+        <v>379</v>
+      </c>
+      <c r="F76" s="29">
+        <v>4</v>
+      </c>
+      <c r="G76" s="20"/>
+    </row>
+    <row r="77" spans="1:7" outlineLevel="1">
       <c r="A77" s="4" t="s">
         <v>49</v>
       </c>
@@ -2652,344 +4916,412 @@
       <c r="D77" s="19">
         <v>1</v>
       </c>
-      <c r="E77" s="20"/>
-    </row>
-    <row r="78" spans="1:5">
-      <c r="A78" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B78" s="20" t="s">
-        <v>207</v>
-      </c>
-      <c r="C78" s="9" t="s">
-        <v>209</v>
+      <c r="E77" s="25" t="s">
+        <v>379</v>
+      </c>
+      <c r="F77" s="29">
+        <v>4</v>
+      </c>
+      <c r="G77" s="20"/>
+    </row>
+    <row r="78" spans="1:7" outlineLevel="1">
+      <c r="A78" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>388</v>
       </c>
       <c r="D78" s="19">
         <v>1</v>
       </c>
-      <c r="E78" s="20"/>
-    </row>
-    <row r="79" spans="1:5" outlineLevel="1">
+      <c r="E78" s="25" t="s">
+        <v>379</v>
+      </c>
+      <c r="F78" s="29">
+        <v>2</v>
+      </c>
+      <c r="G78" s="20"/>
+    </row>
+    <row r="79" spans="1:7" outlineLevel="1">
       <c r="A79" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="B79" t="s">
-        <v>107</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>3</v>
+        <v>23</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="D79" s="19">
         <v>1</v>
       </c>
-      <c r="E79" s="20"/>
-    </row>
-    <row r="80" spans="1:5" outlineLevel="1">
-      <c r="A80" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="B80" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="C80" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D80" s="19">
-        <v>1</v>
-      </c>
-      <c r="E80" s="22"/>
-    </row>
-    <row r="81" spans="1:5" outlineLevel="1">
-      <c r="A81" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="B81" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="C81" s="12" t="s">
+      <c r="E79" s="25" t="s">
+        <v>379</v>
+      </c>
+      <c r="F79" s="29">
+        <v>2</v>
+      </c>
+      <c r="G79" s="20"/>
+    </row>
+    <row r="80" spans="1:7" hidden="1">
+      <c r="A80" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B80" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="C80" s="9"/>
+      <c r="D80" s="19"/>
+      <c r="E80" s="25"/>
+      <c r="F80" s="29"/>
+      <c r="G80" s="20"/>
+    </row>
+    <row r="81" spans="1:7" hidden="1" outlineLevel="1">
+      <c r="A81" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B81" t="s">
+        <v>107</v>
+      </c>
+      <c r="C81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D81" s="19">
         <v>1</v>
       </c>
-      <c r="E81" s="22"/>
-    </row>
-    <row r="82" spans="1:5" outlineLevel="1">
-      <c r="A82" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="B82" t="s">
-        <v>114</v>
-      </c>
-      <c r="C82" s="3" t="s">
+      <c r="E81" s="25" t="s">
+        <v>378</v>
+      </c>
+      <c r="F81" s="29"/>
+      <c r="G81" s="20"/>
+    </row>
+    <row r="82" spans="1:7" hidden="1" outlineLevel="1">
+      <c r="A82" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="B82" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C82" s="12" t="s">
         <v>3</v>
       </c>
       <c r="D82" s="19">
         <v>1</v>
       </c>
-      <c r="E82" s="20"/>
-    </row>
-    <row r="83" spans="1:5" outlineLevel="1">
-      <c r="A83" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="B83" t="s">
-        <v>116</v>
-      </c>
-      <c r="C83" s="3" t="s">
+      <c r="E82" s="25" t="s">
+        <v>378</v>
+      </c>
+      <c r="F82" s="29"/>
+      <c r="G82" s="22"/>
+    </row>
+    <row r="83" spans="1:7" hidden="1" outlineLevel="1">
+      <c r="A83" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="B83" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="C83" s="12" t="s">
         <v>3</v>
       </c>
       <c r="D83" s="19">
         <v>1</v>
       </c>
-      <c r="E83" s="20"/>
-    </row>
-    <row r="84" spans="1:5">
-      <c r="A84" s="8" t="s">
+      <c r="E83" s="25" t="s">
+        <v>378</v>
+      </c>
+      <c r="F83" s="29"/>
+      <c r="G83" s="22"/>
+    </row>
+    <row r="84" spans="1:7" hidden="1" outlineLevel="1">
+      <c r="A84" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B84" t="s">
+        <v>114</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D84" s="19">
+        <v>1</v>
+      </c>
+      <c r="E84" s="25" t="s">
+        <v>378</v>
+      </c>
+      <c r="F84" s="29"/>
+      <c r="G84" s="20"/>
+    </row>
+    <row r="85" spans="1:7" hidden="1" outlineLevel="1">
+      <c r="A85" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B85" t="s">
+        <v>116</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D85" s="19">
+        <v>1</v>
+      </c>
+      <c r="E85" s="25" t="s">
+        <v>378</v>
+      </c>
+      <c r="F85" s="29"/>
+      <c r="G85" s="20"/>
+    </row>
+    <row r="86" spans="1:7" hidden="1" collapsed="1">
+      <c r="A86" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="B84" s="20" t="s">
+      <c r="B86" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="C84" s="9"/>
-      <c r="D84" s="19"/>
-      <c r="E84" s="20"/>
-    </row>
-    <row r="85" spans="1:5" outlineLevel="1">
-      <c r="A85" s="4" t="s">
+      <c r="C86" s="9"/>
+      <c r="D86" s="19"/>
+      <c r="E86" s="25"/>
+      <c r="F86" s="29"/>
+      <c r="G86" s="20"/>
+    </row>
+    <row r="87" spans="1:7" hidden="1" outlineLevel="1">
+      <c r="A87" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="B85" s="20" t="s">
+      <c r="B87" s="20" t="s">
         <v>343</v>
-      </c>
-      <c r="C85" s="9"/>
-      <c r="D85" s="19">
-        <v>3</v>
-      </c>
-      <c r="E85" s="20"/>
-    </row>
-    <row r="86" spans="1:5" outlineLevel="1">
-      <c r="A86" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="B86" s="20" t="s">
-        <v>345</v>
-      </c>
-      <c r="C86" s="9"/>
-      <c r="D86" s="19">
-        <v>3</v>
-      </c>
-      <c r="E86" s="20"/>
-    </row>
-    <row r="87" spans="1:5" outlineLevel="1">
-      <c r="A87" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="B87" s="20" t="s">
-        <v>337</v>
       </c>
       <c r="C87" s="9"/>
       <c r="D87" s="19">
         <v>3</v>
       </c>
-      <c r="E87" s="20"/>
-    </row>
-    <row r="88" spans="1:5" outlineLevel="1">
+      <c r="E87" s="19"/>
+      <c r="F87" s="29"/>
+      <c r="G87" s="20"/>
+    </row>
+    <row r="88" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A88" s="4" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="B88" s="20" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="C88" s="9"/>
       <c r="D88" s="19">
         <v>3</v>
       </c>
-      <c r="E88" s="20"/>
-    </row>
-    <row r="89" spans="1:5" outlineLevel="1">
+      <c r="E88" s="19"/>
+      <c r="F88" s="29"/>
+      <c r="G88" s="20"/>
+    </row>
+    <row r="89" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A89" s="4" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="B89" s="20" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="C89" s="9"/>
       <c r="D89" s="19">
         <v>3</v>
       </c>
-      <c r="E89" s="20"/>
-    </row>
-    <row r="90" spans="1:5" outlineLevel="1" collapsed="1">
+      <c r="E89" s="19"/>
+      <c r="F89" s="29"/>
+      <c r="G89" s="20"/>
+    </row>
+    <row r="90" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A90" s="4" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="B90" s="20" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="C90" s="9"/>
       <c r="D90" s="19">
         <v>3</v>
       </c>
-      <c r="E90" s="20"/>
-    </row>
-    <row r="91" spans="1:5" outlineLevel="1">
+      <c r="E90" s="19"/>
+      <c r="F90" s="29"/>
+      <c r="G90" s="20"/>
+    </row>
+    <row r="91" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A91" s="4" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="B91" s="20" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="C91" s="9"/>
       <c r="D91" s="19">
         <v>3</v>
       </c>
-      <c r="E91" s="20"/>
-    </row>
-    <row r="92" spans="1:5" outlineLevel="1">
+      <c r="E91" s="19"/>
+      <c r="F91" s="29"/>
+      <c r="G91" s="20"/>
+    </row>
+    <row r="92" spans="1:7" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A92" s="4" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B92" s="20" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="C92" s="9"/>
       <c r="D92" s="19">
         <v>3</v>
       </c>
-      <c r="E92" s="20"/>
-    </row>
-    <row r="93" spans="1:5" outlineLevel="1">
+      <c r="E92" s="19"/>
+      <c r="F92" s="29"/>
+      <c r="G92" s="20"/>
+    </row>
+    <row r="93" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A93" s="4" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B93" s="20" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C93" s="9"/>
       <c r="D93" s="19">
         <v>3</v>
       </c>
-      <c r="E93" s="20"/>
-    </row>
-    <row r="94" spans="1:5" outlineLevel="1">
+      <c r="E93" s="19"/>
+      <c r="F93" s="29"/>
+      <c r="G93" s="20"/>
+    </row>
+    <row r="94" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A94" s="4" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="B94" s="20" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="C94" s="9"/>
       <c r="D94" s="19">
         <v>3</v>
       </c>
-      <c r="E94" s="20"/>
-    </row>
-    <row r="95" spans="1:5" outlineLevel="1">
+      <c r="E94" s="19"/>
+      <c r="F94" s="29"/>
+      <c r="G94" s="20"/>
+    </row>
+    <row r="95" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A95" s="4" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="B95" s="20" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="C95" s="9"/>
       <c r="D95" s="19">
         <v>3</v>
       </c>
-      <c r="E95" s="20"/>
-    </row>
-    <row r="96" spans="1:5" outlineLevel="1" collapsed="1">
+      <c r="E95" s="19"/>
+      <c r="F95" s="29"/>
+      <c r="G95" s="20"/>
+    </row>
+    <row r="96" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A96" s="4" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B96" s="20" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C96" s="9"/>
       <c r="D96" s="19">
         <v>3</v>
       </c>
-      <c r="E96" s="20"/>
-    </row>
-    <row r="97" spans="1:5" outlineLevel="1">
+      <c r="E96" s="19"/>
+      <c r="F96" s="29"/>
+      <c r="G96" s="20"/>
+    </row>
+    <row r="97" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A97" s="4" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="B97" s="20" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="C97" s="9"/>
       <c r="D97" s="19">
         <v>3</v>
       </c>
-      <c r="E97" s="20"/>
-    </row>
-    <row r="98" spans="1:5" outlineLevel="1">
+      <c r="E97" s="19"/>
+      <c r="F97" s="29"/>
+      <c r="G97" s="20"/>
+    </row>
+    <row r="98" spans="1:7" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A98" s="4" t="s">
-        <v>316</v>
+        <v>326</v>
       </c>
       <c r="B98" s="20" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="C98" s="9"/>
       <c r="D98" s="19">
         <v>3</v>
       </c>
-      <c r="E98" s="20"/>
-    </row>
-    <row r="99" spans="1:5" outlineLevel="1">
+      <c r="E98" s="19"/>
+      <c r="F98" s="29"/>
+      <c r="G98" s="20"/>
+    </row>
+    <row r="99" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A99" s="4" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B99" s="20" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C99" s="9"/>
       <c r="D99" s="19">
         <v>3</v>
       </c>
-      <c r="E99" s="20"/>
-    </row>
-    <row r="100" spans="1:5" outlineLevel="1">
+      <c r="E99" s="19"/>
+      <c r="F99" s="29"/>
+      <c r="G99" s="20"/>
+    </row>
+    <row r="100" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A100" s="4" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B100" s="20" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C100" s="9"/>
       <c r="D100" s="19">
         <v>3</v>
       </c>
-      <c r="E100" s="20"/>
-    </row>
-    <row r="101" spans="1:5" outlineLevel="1">
+      <c r="E100" s="19"/>
+      <c r="F100" s="29"/>
+      <c r="G100" s="20"/>
+    </row>
+    <row r="101" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A101" s="4" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="B101" s="20" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="C101" s="9"/>
       <c r="D101" s="19">
         <v>3</v>
       </c>
-      <c r="E101" s="20"/>
-    </row>
-    <row r="102" spans="1:5" outlineLevel="1">
+      <c r="E101" s="19"/>
+      <c r="F101" s="29"/>
+      <c r="G101" s="20"/>
+    </row>
+    <row r="102" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A102" s="4" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="B102" s="20" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="C102" s="9"/>
       <c r="D102" s="19">
         <v>3</v>
       </c>
-      <c r="E102" s="20"/>
-    </row>
-    <row r="103" spans="1:5" outlineLevel="1">
+      <c r="E102" s="19"/>
+      <c r="F102" s="29"/>
+      <c r="G102" s="20"/>
+    </row>
+    <row r="103" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A103" s="4" t="s">
         <v>312</v>
       </c>
@@ -3000,1094 +5332,1372 @@
       <c r="D103" s="19">
         <v>3</v>
       </c>
-      <c r="E103" s="20"/>
-    </row>
-    <row r="104" spans="1:5" outlineLevel="1">
+      <c r="E103" s="19"/>
+      <c r="F103" s="29"/>
+      <c r="G103" s="20"/>
+    </row>
+    <row r="104" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A104" s="4" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="B104" s="20" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="C104" s="9"/>
       <c r="D104" s="19">
         <v>3</v>
       </c>
-      <c r="E104" s="20"/>
-    </row>
-    <row r="105" spans="1:5" outlineLevel="1">
+      <c r="E104" s="19"/>
+      <c r="F104" s="29"/>
+      <c r="G104" s="20"/>
+    </row>
+    <row r="105" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A105" s="4" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="B105" s="20" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="C105" s="9"/>
       <c r="D105" s="19">
         <v>3</v>
       </c>
-      <c r="E105" s="20"/>
-    </row>
-    <row r="106" spans="1:5" outlineLevel="1">
+      <c r="E105" s="19"/>
+      <c r="F105" s="29"/>
+      <c r="G105" s="20"/>
+    </row>
+    <row r="106" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A106" s="4" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="B106" s="20" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="C106" s="9"/>
       <c r="D106" s="19">
         <v>3</v>
       </c>
-      <c r="E106" s="20"/>
-    </row>
-    <row r="107" spans="1:5" outlineLevel="1">
+      <c r="E106" s="19"/>
+      <c r="F106" s="29"/>
+      <c r="G106" s="20"/>
+    </row>
+    <row r="107" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A107" s="4" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="B107" s="20" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="C107" s="9"/>
       <c r="D107" s="19">
         <v>3</v>
       </c>
-      <c r="E107" s="20"/>
-    </row>
-    <row r="108" spans="1:5" outlineLevel="1">
+      <c r="E107" s="19"/>
+      <c r="F107" s="29"/>
+      <c r="G107" s="20"/>
+    </row>
+    <row r="108" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A108" s="4" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="B108" s="20" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="C108" s="9"/>
       <c r="D108" s="19">
         <v>3</v>
       </c>
-      <c r="E108" s="20"/>
-    </row>
-    <row r="109" spans="1:5" outlineLevel="1">
+      <c r="E108" s="19"/>
+      <c r="F108" s="29"/>
+      <c r="G108" s="20"/>
+    </row>
+    <row r="109" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A109" s="4" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B109" s="20" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C109" s="9"/>
       <c r="D109" s="19">
         <v>3</v>
       </c>
-      <c r="E109" s="20"/>
-    </row>
-    <row r="110" spans="1:5" outlineLevel="1">
+      <c r="E109" s="19"/>
+      <c r="F109" s="29"/>
+      <c r="G109" s="20"/>
+    </row>
+    <row r="110" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A110" s="4" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="B110" s="20" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="C110" s="9"/>
       <c r="D110" s="19">
         <v>3</v>
       </c>
-      <c r="E110" s="20"/>
-    </row>
-    <row r="111" spans="1:5" outlineLevel="1">
+      <c r="E110" s="19"/>
+      <c r="F110" s="29"/>
+      <c r="G110" s="20"/>
+    </row>
+    <row r="111" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A111" s="4" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="B111" s="20" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="C111" s="9"/>
       <c r="D111" s="19">
         <v>3</v>
       </c>
-      <c r="E111" s="20"/>
-    </row>
-    <row r="112" spans="1:5" outlineLevel="1">
+      <c r="E111" s="19"/>
+      <c r="F111" s="29"/>
+      <c r="G111" s="20"/>
+    </row>
+    <row r="112" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A112" s="4" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="B112" s="20" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C112" s="9"/>
       <c r="D112" s="19">
         <v>3</v>
       </c>
-      <c r="E112" s="20"/>
-    </row>
-    <row r="113" spans="1:5" outlineLevel="1">
+      <c r="E112" s="19"/>
+      <c r="F112" s="29"/>
+      <c r="G112" s="20"/>
+    </row>
+    <row r="113" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A113" s="4" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="B113" s="20" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="C113" s="9"/>
       <c r="D113" s="19">
         <v>3</v>
       </c>
-      <c r="E113" s="20"/>
-    </row>
-    <row r="114" spans="1:5" outlineLevel="1">
+      <c r="E113" s="19"/>
+      <c r="F113" s="29"/>
+      <c r="G113" s="20"/>
+    </row>
+    <row r="114" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A114" s="4" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="B114" s="20" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="C114" s="9"/>
       <c r="D114" s="19">
         <v>3</v>
       </c>
-      <c r="E114" s="20"/>
-    </row>
-    <row r="115" spans="1:5" outlineLevel="1">
+      <c r="E114" s="19"/>
+      <c r="F114" s="29"/>
+      <c r="G114" s="20"/>
+    </row>
+    <row r="115" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A115" s="4" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="B115" s="20" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="C115" s="9"/>
       <c r="D115" s="19">
         <v>3</v>
       </c>
-      <c r="E115" s="20"/>
-    </row>
-    <row r="116" spans="1:5" s="10" customFormat="1" outlineLevel="1">
+      <c r="E115" s="19"/>
+      <c r="F115" s="29"/>
+      <c r="G115" s="20"/>
+    </row>
+    <row r="116" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A116" s="4" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="B116" s="20" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="C116" s="9"/>
       <c r="D116" s="19">
         <v>3</v>
       </c>
-      <c r="E116" s="20"/>
-    </row>
-    <row r="117" spans="1:5" outlineLevel="1">
+      <c r="E116" s="19"/>
+      <c r="F116" s="29"/>
+      <c r="G116" s="20"/>
+    </row>
+    <row r="117" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A117" s="4" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B117" s="20" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C117" s="9"/>
       <c r="D117" s="19">
         <v>3</v>
       </c>
-      <c r="E117" s="20"/>
-    </row>
-    <row r="118" spans="1:5" outlineLevel="1">
+      <c r="E117" s="19"/>
+      <c r="F117" s="29"/>
+      <c r="G117" s="20"/>
+    </row>
+    <row r="118" spans="1:7" s="10" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A118" s="4" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="B118" s="20" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="C118" s="9"/>
       <c r="D118" s="19">
         <v>3</v>
       </c>
-      <c r="E118" s="20"/>
-    </row>
-    <row r="119" spans="1:5" outlineLevel="1">
+      <c r="E118" s="19"/>
+      <c r="F118" s="29"/>
+      <c r="G118" s="20"/>
+    </row>
+    <row r="119" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A119" s="4" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="B119" s="20" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="C119" s="9"/>
       <c r="D119" s="19">
         <v>3</v>
       </c>
-      <c r="E119" s="20"/>
-    </row>
-    <row r="120" spans="1:5" outlineLevel="1">
+      <c r="E119" s="19"/>
+      <c r="F119" s="29"/>
+      <c r="G119" s="20"/>
+    </row>
+    <row r="120" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A120" s="4" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B120" s="20" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C120" s="9"/>
       <c r="D120" s="19">
         <v>3</v>
       </c>
-      <c r="E120" s="20"/>
-    </row>
-    <row r="121" spans="1:5" outlineLevel="1">
+      <c r="E120" s="19"/>
+      <c r="F120" s="29"/>
+      <c r="G120" s="20"/>
+    </row>
+    <row r="121" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A121" s="4" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="B121" s="20" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="C121" s="9"/>
       <c r="D121" s="19">
         <v>3</v>
       </c>
-      <c r="E121" s="20"/>
-    </row>
-    <row r="122" spans="1:5" outlineLevel="1">
+      <c r="E121" s="19"/>
+      <c r="F121" s="29"/>
+      <c r="G121" s="20"/>
+    </row>
+    <row r="122" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A122" s="4" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="B122" s="20" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="C122" s="9"/>
       <c r="D122" s="19">
         <v>3</v>
       </c>
-      <c r="E122" s="20"/>
-    </row>
-    <row r="123" spans="1:5" outlineLevel="1">
+      <c r="E122" s="19"/>
+      <c r="F122" s="29"/>
+      <c r="G122" s="20"/>
+    </row>
+    <row r="123" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A123" s="4" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B123" s="20" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C123" s="9"/>
       <c r="D123" s="19">
         <v>3</v>
       </c>
-      <c r="E123" s="20"/>
-    </row>
-    <row r="124" spans="1:5" outlineLevel="1">
+      <c r="E123" s="19"/>
+      <c r="F123" s="29"/>
+      <c r="G123" s="20"/>
+    </row>
+    <row r="124" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A124" s="4" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="B124" s="20" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C124" s="9"/>
       <c r="D124" s="19">
         <v>3</v>
       </c>
-      <c r="E124" s="20"/>
-    </row>
-    <row r="125" spans="1:5" outlineLevel="1">
+      <c r="E124" s="19"/>
+      <c r="F124" s="29"/>
+      <c r="G124" s="20"/>
+    </row>
+    <row r="125" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A125" s="4" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="B125" s="20" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="C125" s="9"/>
       <c r="D125" s="19">
         <v>3</v>
       </c>
-      <c r="E125" s="20"/>
-    </row>
-    <row r="126" spans="1:5" outlineLevel="1">
+      <c r="E125" s="19"/>
+      <c r="F125" s="29"/>
+      <c r="G125" s="20"/>
+    </row>
+    <row r="126" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A126" s="4" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="B126" s="20" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="C126" s="9"/>
       <c r="D126" s="19">
         <v>3</v>
       </c>
-      <c r="E126" s="20"/>
-    </row>
-    <row r="127" spans="1:5" outlineLevel="1">
+      <c r="E126" s="19"/>
+      <c r="F126" s="29"/>
+      <c r="G126" s="20"/>
+    </row>
+    <row r="127" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A127" s="4" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B127" s="20" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C127" s="9"/>
       <c r="D127" s="19">
         <v>3</v>
       </c>
-      <c r="E127" s="20"/>
-    </row>
-    <row r="128" spans="1:5" outlineLevel="1">
+      <c r="E127" s="19"/>
+      <c r="F127" s="29"/>
+      <c r="G127" s="20"/>
+    </row>
+    <row r="128" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A128" s="4" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="B128" s="20" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="C128" s="9"/>
       <c r="D128" s="19">
         <v>3</v>
       </c>
-      <c r="E128" s="20"/>
-    </row>
-    <row r="129" spans="1:5" outlineLevel="1">
+      <c r="E128" s="19"/>
+      <c r="F128" s="29"/>
+      <c r="G128" s="20"/>
+    </row>
+    <row r="129" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A129" s="4" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="B129" s="20" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="C129" s="9"/>
       <c r="D129" s="19">
         <v>3</v>
       </c>
-      <c r="E129" s="20"/>
-    </row>
-    <row r="130" spans="1:5" outlineLevel="1">
+      <c r="E129" s="19"/>
+      <c r="F129" s="29"/>
+      <c r="G129" s="20"/>
+    </row>
+    <row r="130" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A130" s="4" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="B130" s="20" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="C130" s="9"/>
       <c r="D130" s="19">
         <v>3</v>
       </c>
-      <c r="E130" s="20"/>
-    </row>
-    <row r="131" spans="1:5" outlineLevel="1">
+      <c r="E130" s="19"/>
+      <c r="F130" s="29"/>
+      <c r="G130" s="20"/>
+    </row>
+    <row r="131" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A131" s="4" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="B131" s="20" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="C131" s="9"/>
       <c r="D131" s="19">
         <v>3</v>
       </c>
-      <c r="E131" s="20"/>
-    </row>
-    <row r="132" spans="1:5" outlineLevel="1">
+      <c r="E131" s="19"/>
+      <c r="F131" s="29"/>
+      <c r="G131" s="20"/>
+    </row>
+    <row r="132" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A132" s="4" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B132" s="20" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C132" s="9"/>
       <c r="D132" s="19">
         <v>3</v>
       </c>
-      <c r="E132" s="20"/>
-    </row>
-    <row r="133" spans="1:5" outlineLevel="1">
+      <c r="E132" s="19"/>
+      <c r="F132" s="29"/>
+      <c r="G132" s="20"/>
+    </row>
+    <row r="133" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A133" s="4" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="B133" s="20" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="C133" s="9"/>
       <c r="D133" s="19">
         <v>3</v>
       </c>
-      <c r="E133" s="20"/>
-    </row>
-    <row r="134" spans="1:5" outlineLevel="1">
+      <c r="E133" s="19"/>
+      <c r="F133" s="29"/>
+      <c r="G133" s="20"/>
+    </row>
+    <row r="134" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A134" s="4" t="s">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="B134" s="20" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="C134" s="9"/>
       <c r="D134" s="19">
         <v>3</v>
       </c>
-      <c r="E134" s="20"/>
-    </row>
-    <row r="135" spans="1:5" outlineLevel="1">
+      <c r="E134" s="19"/>
+      <c r="F134" s="29"/>
+      <c r="G134" s="20"/>
+    </row>
+    <row r="135" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A135" s="4" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="B135" s="20" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C135" s="9"/>
       <c r="D135" s="19">
         <v>3</v>
       </c>
-      <c r="E135" s="20"/>
-    </row>
-    <row r="136" spans="1:5" outlineLevel="1">
+      <c r="E135" s="19"/>
+      <c r="F135" s="29"/>
+      <c r="G135" s="20"/>
+    </row>
+    <row r="136" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A136" s="4" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B136" s="20" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C136" s="9"/>
       <c r="D136" s="19">
         <v>3</v>
       </c>
-      <c r="E136" s="20"/>
-    </row>
-    <row r="137" spans="1:5" outlineLevel="1">
+      <c r="E136" s="19"/>
+      <c r="F136" s="29"/>
+      <c r="G136" s="20"/>
+    </row>
+    <row r="137" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A137" s="4" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="B137" s="20" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="C137" s="9"/>
       <c r="D137" s="19">
         <v>3</v>
       </c>
-      <c r="E137" s="20"/>
-    </row>
-    <row r="138" spans="1:5" outlineLevel="1">
+      <c r="E137" s="19"/>
+      <c r="F137" s="29"/>
+      <c r="G137" s="20"/>
+    </row>
+    <row r="138" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A138" s="4" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="B138" s="20" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="C138" s="9"/>
       <c r="D138" s="19">
         <v>3</v>
       </c>
-      <c r="E138" s="20"/>
-    </row>
-    <row r="139" spans="1:5" outlineLevel="1">
+      <c r="E138" s="19"/>
+      <c r="F138" s="29"/>
+      <c r="G138" s="20"/>
+    </row>
+    <row r="139" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A139" s="4" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="B139" s="20" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="C139" s="9"/>
       <c r="D139" s="19">
         <v>3</v>
       </c>
-      <c r="E139" s="20"/>
-    </row>
-    <row r="140" spans="1:5" outlineLevel="1">
+      <c r="E139" s="19"/>
+      <c r="F139" s="29"/>
+      <c r="G139" s="20"/>
+    </row>
+    <row r="140" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A140" s="4" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="B140" s="20" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="C140" s="9"/>
       <c r="D140" s="19">
         <v>3</v>
       </c>
-      <c r="E140" s="20"/>
-    </row>
-    <row r="141" spans="1:5" outlineLevel="1">
+      <c r="E140" s="19"/>
+      <c r="F140" s="29"/>
+      <c r="G140" s="20"/>
+    </row>
+    <row r="141" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A141" s="4" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B141" s="20" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C141" s="9"/>
       <c r="D141" s="19">
         <v>3</v>
       </c>
-      <c r="E141" s="20"/>
-    </row>
-    <row r="142" spans="1:5" outlineLevel="1">
+      <c r="E141" s="19"/>
+      <c r="F141" s="29"/>
+      <c r="G141" s="20"/>
+    </row>
+    <row r="142" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A142" s="4" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="B142" s="20" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="C142" s="9"/>
       <c r="D142" s="19">
         <v>3</v>
       </c>
-      <c r="E142" s="20"/>
-    </row>
-    <row r="143" spans="1:5" outlineLevel="1">
+      <c r="E142" s="19"/>
+      <c r="F142" s="29"/>
+      <c r="G142" s="20"/>
+    </row>
+    <row r="143" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A143" s="4" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="B143" s="20" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="C143" s="9"/>
       <c r="D143" s="19">
         <v>3</v>
       </c>
-      <c r="E143" s="20"/>
-    </row>
-    <row r="144" spans="1:5" outlineLevel="1">
+      <c r="E143" s="19"/>
+      <c r="F143" s="29"/>
+      <c r="G143" s="20"/>
+    </row>
+    <row r="144" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A144" s="4" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="B144" s="20" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="C144" s="9"/>
       <c r="D144" s="19">
         <v>3</v>
       </c>
-      <c r="E144" s="20"/>
-    </row>
-    <row r="145" spans="1:5" outlineLevel="1">
+      <c r="E144" s="19"/>
+      <c r="F144" s="29"/>
+      <c r="G144" s="20"/>
+    </row>
+    <row r="145" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A145" s="4" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="B145" s="20" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="C145" s="9"/>
       <c r="D145" s="19">
         <v>3</v>
       </c>
-      <c r="E145" s="20"/>
-    </row>
-    <row r="146" spans="1:5" outlineLevel="1">
+      <c r="E145" s="19"/>
+      <c r="F145" s="29"/>
+      <c r="G145" s="20"/>
+    </row>
+    <row r="146" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A146" s="4" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B146" s="20" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C146" s="9"/>
       <c r="D146" s="19">
         <v>3</v>
       </c>
-      <c r="E146" s="20"/>
-    </row>
-    <row r="147" spans="1:5" outlineLevel="1">
+      <c r="E146" s="19"/>
+      <c r="F146" s="29"/>
+      <c r="G146" s="20"/>
+    </row>
+    <row r="147" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A147" s="4" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="B147" s="20" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="C147" s="9"/>
       <c r="D147" s="19">
         <v>3</v>
       </c>
-      <c r="E147" s="20"/>
-    </row>
-    <row r="148" spans="1:5" outlineLevel="1">
-      <c r="A148" s="21" t="s">
-        <v>220</v>
+      <c r="E147" s="19"/>
+      <c r="F147" s="29"/>
+      <c r="G147" s="20"/>
+    </row>
+    <row r="148" spans="1:7" hidden="1" outlineLevel="1">
+      <c r="A148" s="4" t="s">
+        <v>228</v>
       </c>
       <c r="B148" s="20" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="C148" s="9"/>
       <c r="D148" s="19">
         <v>3</v>
       </c>
-      <c r="E148" s="20"/>
-    </row>
-    <row r="149" spans="1:5" outlineLevel="1">
+      <c r="E148" s="19"/>
+      <c r="F148" s="29"/>
+      <c r="G148" s="20"/>
+    </row>
+    <row r="149" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A149" s="4" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="B149" s="20" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="C149" s="9"/>
       <c r="D149" s="19">
         <v>3</v>
       </c>
-      <c r="E149" s="20"/>
-    </row>
-    <row r="150" spans="1:5" outlineLevel="1">
-      <c r="A150" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="B150" s="24" t="s">
-        <v>217</v>
+      <c r="E149" s="19"/>
+      <c r="F149" s="29"/>
+      <c r="G149" s="20"/>
+    </row>
+    <row r="150" spans="1:7" hidden="1" outlineLevel="1">
+      <c r="A150" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="B150" s="20" t="s">
+        <v>221</v>
       </c>
       <c r="C150" s="9"/>
       <c r="D150" s="19">
         <v>3</v>
       </c>
-      <c r="E150" s="20"/>
-    </row>
-    <row r="151" spans="1:5" outlineLevel="1">
+      <c r="E150" s="19"/>
+      <c r="F150" s="29"/>
+      <c r="G150" s="20"/>
+    </row>
+    <row r="151" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A151" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="B151" s="24" t="s">
-        <v>215</v>
+        <v>218</v>
+      </c>
+      <c r="B151" s="20" t="s">
+        <v>219</v>
       </c>
       <c r="C151" s="9"/>
       <c r="D151" s="19">
         <v>3</v>
       </c>
-      <c r="E151" s="20"/>
-    </row>
-    <row r="152" spans="1:5" outlineLevel="1">
+      <c r="E151" s="19"/>
+      <c r="F151" s="29"/>
+      <c r="G151" s="20"/>
+    </row>
+    <row r="152" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A152" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="B152" s="24" t="s">
+        <v>217</v>
+      </c>
+      <c r="C152" s="9"/>
+      <c r="D152" s="19">
+        <v>3</v>
+      </c>
+      <c r="E152" s="19"/>
+      <c r="F152" s="29"/>
+      <c r="G152" s="20"/>
+    </row>
+    <row r="153" spans="1:7" hidden="1" outlineLevel="1">
+      <c r="A153" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="B153" s="24" t="s">
+        <v>215</v>
+      </c>
+      <c r="C153" s="9"/>
+      <c r="D153" s="19">
+        <v>3</v>
+      </c>
+      <c r="E153" s="19"/>
+      <c r="F153" s="29"/>
+      <c r="G153" s="20"/>
+    </row>
+    <row r="154" spans="1:7" outlineLevel="1">
+      <c r="A154" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="B152" t="s">
+      <c r="B154" t="s">
         <v>210</v>
       </c>
-      <c r="D152" s="19">
+      <c r="D154" s="19">
         <v>1</v>
       </c>
-      <c r="E152" s="20" t="s">
+      <c r="E154" s="25" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="153" spans="1:5" outlineLevel="1">
-      <c r="A153" s="4" t="s">
+      <c r="F154" s="29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" outlineLevel="1">
+      <c r="A155" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="B153" t="s">
+      <c r="B155" t="s">
         <v>213</v>
-      </c>
-      <c r="D153" s="19">
-        <v>1</v>
-      </c>
-      <c r="E153" s="20">
-        <f>165-96</f>
-        <v>69</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5">
-      <c r="A154" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="B154" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="C154" s="9"/>
-      <c r="D154" s="19">
-        <v>2</v>
-      </c>
-      <c r="E154" s="20"/>
-    </row>
-    <row r="155" spans="1:5" outlineLevel="1">
-      <c r="A155" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B155" t="s">
-        <v>53</v>
       </c>
       <c r="D155" s="19">
         <v>1</v>
       </c>
-      <c r="E155" s="20"/>
-    </row>
-    <row r="156" spans="1:5" outlineLevel="1">
-      <c r="A156" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B156" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D156" s="19">
-        <v>1</v>
-      </c>
-      <c r="E156" s="20"/>
-    </row>
-    <row r="157" spans="1:5" outlineLevel="1">
+      <c r="E155" s="25" t="s">
+        <v>377</v>
+      </c>
+      <c r="F155" s="29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" hidden="1">
+      <c r="A156" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B156" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C156" s="9"/>
+      <c r="D156" s="19"/>
+      <c r="E156" s="25"/>
+      <c r="F156" s="29"/>
+    </row>
+    <row r="157" spans="1:7" outlineLevel="1">
       <c r="A157" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B157" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
+      </c>
+      <c r="B157" t="s">
+        <v>53</v>
       </c>
       <c r="D157" s="19">
         <v>1</v>
       </c>
-      <c r="E157" s="20"/>
-    </row>
-    <row r="158" spans="1:5" outlineLevel="1">
-      <c r="A158" s="4" t="s">
+      <c r="E157" s="25" t="s">
+        <v>377</v>
+      </c>
+      <c r="F157" s="29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" hidden="1" outlineLevel="1">
+      <c r="A158" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D158" s="19">
+        <v>3</v>
+      </c>
+      <c r="E158" s="25"/>
+      <c r="F158" s="29"/>
+    </row>
+    <row r="159" spans="1:7" hidden="1" outlineLevel="1">
+      <c r="A159" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D159" s="19">
+        <v>3</v>
+      </c>
+      <c r="E159" s="25"/>
+      <c r="F159" s="29"/>
+    </row>
+    <row r="160" spans="1:7" hidden="1" outlineLevel="1">
+      <c r="A160" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B158" t="s">
+      <c r="B160" t="s">
         <v>59</v>
       </c>
-      <c r="C158" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D158" s="19">
-        <v>1</v>
-      </c>
-      <c r="E158" s="20"/>
-    </row>
-    <row r="159" spans="1:5" outlineLevel="1">
-      <c r="A159" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B159" t="s">
-        <v>61</v>
-      </c>
-      <c r="D159" s="19">
-        <v>1</v>
-      </c>
-      <c r="E159" s="20"/>
-    </row>
-    <row r="160" spans="1:5" outlineLevel="1">
-      <c r="A160" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B160" t="s">
-        <v>63</v>
+      <c r="C160" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="D160" s="19">
         <v>1</v>
       </c>
-      <c r="E160" s="20"/>
-    </row>
-    <row r="161" spans="1:5" outlineLevel="1">
+      <c r="E160" s="25" t="s">
+        <v>378</v>
+      </c>
+      <c r="F160" s="29"/>
+    </row>
+    <row r="161" spans="1:7" outlineLevel="1">
       <c r="A161" s="4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B161" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D161" s="19">
         <v>1</v>
       </c>
-      <c r="E161" s="20"/>
-    </row>
-    <row r="162" spans="1:5" outlineLevel="1">
-      <c r="A162" s="7" t="s">
-        <v>66</v>
+      <c r="E161" s="25" t="s">
+        <v>379</v>
+      </c>
+      <c r="F161" s="29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" outlineLevel="1">
+      <c r="A162" s="4" t="s">
+        <v>62</v>
       </c>
       <c r="B162" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D162" s="19">
         <v>1</v>
       </c>
-      <c r="E162" s="20"/>
-    </row>
-    <row r="163" spans="1:5" outlineLevel="1">
-      <c r="A163" s="7" t="s">
-        <v>68</v>
+      <c r="E162" s="25" t="s">
+        <v>377</v>
+      </c>
+      <c r="F162" s="29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" outlineLevel="1">
+      <c r="A163" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="B163" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D163" s="19">
         <v>1</v>
       </c>
-      <c r="E163" s="20"/>
-    </row>
-    <row r="164" spans="1:5" outlineLevel="1">
-      <c r="A164" s="4" t="s">
-        <v>70</v>
+      <c r="E163" s="25" t="s">
+        <v>377</v>
+      </c>
+      <c r="F163" s="29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" outlineLevel="1">
+      <c r="A164" s="7" t="s">
+        <v>66</v>
       </c>
       <c r="B164" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D164" s="19">
         <v>1</v>
       </c>
-      <c r="E164" s="20"/>
-    </row>
-    <row r="165" spans="1:5" outlineLevel="1">
-      <c r="A165" s="1" t="s">
+      <c r="E164" s="25" t="s">
+        <v>379</v>
+      </c>
+      <c r="F164" s="29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" outlineLevel="1">
+      <c r="A165" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B165" t="s">
+        <v>69</v>
+      </c>
+      <c r="D165" s="19">
+        <v>1</v>
+      </c>
+      <c r="E165" s="25" t="s">
+        <v>379</v>
+      </c>
+      <c r="F165" s="29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" outlineLevel="1">
+      <c r="A166" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B166" t="s">
+        <v>71</v>
+      </c>
+      <c r="D166" s="19">
+        <v>1</v>
+      </c>
+      <c r="E166" s="25" t="s">
+        <v>379</v>
+      </c>
+      <c r="F166" s="29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" hidden="1" outlineLevel="1">
+      <c r="A167" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D165" s="19">
+      <c r="D167" s="19">
         <v>4</v>
       </c>
-      <c r="E165" s="20" t="s">
+      <c r="E167" s="19"/>
+      <c r="F167" s="29"/>
+      <c r="G167" s="20" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="166" spans="1:5">
-      <c r="A166" s="8" t="s">
+    <row r="168" spans="1:7" hidden="1">
+      <c r="A168" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B166" s="20" t="s">
+      <c r="B168" s="20" t="s">
         <v>208</v>
-      </c>
-      <c r="C166" s="9"/>
-      <c r="D166" s="19">
-        <v>3</v>
-      </c>
-      <c r="E166" s="22"/>
-    </row>
-    <row r="167" spans="1:5" outlineLevel="1">
-      <c r="C167"/>
-      <c r="D167" s="20"/>
-      <c r="E167" s="22"/>
-    </row>
-    <row r="168" spans="1:5">
-      <c r="A168" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="B168" s="20" t="s">
-        <v>346</v>
       </c>
       <c r="C168" s="9"/>
       <c r="D168" s="19">
         <v>3</v>
       </c>
-      <c r="E168" s="22"/>
-    </row>
-    <row r="169" spans="1:5" outlineLevel="1">
-      <c r="D169" s="19"/>
-      <c r="E169" s="22"/>
-    </row>
-    <row r="170" spans="1:5">
+      <c r="E168" s="19"/>
+      <c r="F168" s="29"/>
+      <c r="G168" s="22"/>
+    </row>
+    <row r="169" spans="1:7" hidden="1" outlineLevel="1">
+      <c r="C169"/>
+      <c r="D169" s="20"/>
+      <c r="E169" s="25"/>
+      <c r="F169" s="29"/>
+      <c r="G169" s="22"/>
+    </row>
+    <row r="170" spans="1:7" hidden="1">
       <c r="A170" s="8" t="s">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="B170" s="20" t="s">
-        <v>104</v>
+        <v>346</v>
       </c>
       <c r="C170" s="9"/>
       <c r="D170" s="19">
         <v>3</v>
       </c>
-      <c r="E170" s="22"/>
-    </row>
-    <row r="171" spans="1:5" outlineLevel="1">
+      <c r="E170" s="19"/>
+      <c r="F170" s="29"/>
+      <c r="G170" s="22"/>
+    </row>
+    <row r="171" spans="1:7" hidden="1" outlineLevel="1">
       <c r="D171" s="19"/>
-      <c r="E171" s="22"/>
-    </row>
-    <row r="172" spans="1:5">
+      <c r="E171" s="25"/>
+      <c r="F171" s="29"/>
+      <c r="G171" s="22"/>
+    </row>
+    <row r="172" spans="1:7" hidden="1">
       <c r="A172" s="8" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="B172" s="20" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="C172" s="9"/>
       <c r="D172" s="19">
         <v>3</v>
       </c>
-      <c r="E172" s="22"/>
-    </row>
-    <row r="173" spans="1:5" outlineLevel="1">
-      <c r="A173" s="11"/>
-      <c r="B173" s="11"/>
-      <c r="C173" s="12"/>
-      <c r="D173" s="23"/>
-      <c r="E173" s="22"/>
-    </row>
-    <row r="174" spans="1:5">
+      <c r="E172" s="19"/>
+      <c r="F172" s="29"/>
+      <c r="G172" s="22"/>
+    </row>
+    <row r="173" spans="1:7" hidden="1" outlineLevel="1">
+      <c r="D173" s="19"/>
+      <c r="E173" s="25"/>
+      <c r="F173" s="29"/>
+      <c r="G173" s="22"/>
+    </row>
+    <row r="174" spans="1:7" hidden="1">
       <c r="A174" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B174" s="20" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C174" s="9"/>
       <c r="D174" s="19">
         <v>3</v>
       </c>
-      <c r="E174" s="22"/>
-    </row>
-    <row r="175" spans="1:5" outlineLevel="1">
+      <c r="E174" s="19"/>
+      <c r="F174" s="29"/>
+      <c r="G174" s="22"/>
+    </row>
+    <row r="175" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A175" s="11"/>
       <c r="B175" s="11"/>
       <c r="C175" s="12"/>
       <c r="D175" s="23"/>
-      <c r="E175" s="22"/>
-    </row>
-    <row r="176" spans="1:5">
+      <c r="E175" s="28"/>
+      <c r="F175" s="30"/>
+      <c r="G175" s="22"/>
+    </row>
+    <row r="176" spans="1:7" hidden="1">
       <c r="A176" s="8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B176" s="20" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C176" s="9"/>
       <c r="D176" s="19">
         <v>3</v>
       </c>
-      <c r="E176" s="22"/>
-    </row>
-    <row r="177" spans="1:5" outlineLevel="1">
-      <c r="A177" s="18" t="s">
+      <c r="E176" s="19"/>
+      <c r="F176" s="29"/>
+      <c r="G176" s="22"/>
+    </row>
+    <row r="177" spans="1:7" hidden="1" outlineLevel="1">
+      <c r="A177" s="11"/>
+      <c r="B177" s="11"/>
+      <c r="C177" s="12"/>
+      <c r="D177" s="23"/>
+      <c r="E177" s="28"/>
+      <c r="F177" s="30"/>
+      <c r="G177" s="22"/>
+    </row>
+    <row r="178" spans="1:7" hidden="1">
+      <c r="A178" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="B178" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="C178" s="9"/>
+      <c r="D178" s="19">
+        <v>3</v>
+      </c>
+      <c r="E178" s="19"/>
+      <c r="F178" s="29"/>
+      <c r="G178" s="22"/>
+    </row>
+    <row r="179" spans="1:7" outlineLevel="1">
+      <c r="A179" s="18" t="s">
         <v>349</v>
       </c>
-      <c r="B177" s="11" t="s">
+      <c r="B179" s="11" t="s">
         <v>350</v>
-      </c>
-      <c r="C177" s="12"/>
-      <c r="D177" s="23">
-        <v>1</v>
-      </c>
-      <c r="E177" s="22"/>
-    </row>
-    <row r="178" spans="1:5" outlineLevel="1">
-      <c r="A178" s="18" t="s">
-        <v>351</v>
-      </c>
-      <c r="B178" s="11" t="s">
-        <v>352</v>
-      </c>
-      <c r="C178" s="12"/>
-      <c r="D178" s="23">
-        <v>1</v>
-      </c>
-      <c r="E178" s="22"/>
-    </row>
-    <row r="179" spans="1:5" outlineLevel="1">
-      <c r="A179" s="18" t="s">
-        <v>353</v>
-      </c>
-      <c r="B179" s="11" t="s">
-        <v>354</v>
       </c>
       <c r="C179" s="12"/>
       <c r="D179" s="23">
         <v>1</v>
       </c>
-      <c r="E179" s="22"/>
-    </row>
-    <row r="180" spans="1:5" outlineLevel="1">
+      <c r="E179" s="28" t="s">
+        <v>379</v>
+      </c>
+      <c r="F179" s="30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" outlineLevel="1">
       <c r="A180" s="18" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B180" s="11" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="C180" s="12"/>
       <c r="D180" s="23">
         <v>1</v>
       </c>
-      <c r="E180" s="22"/>
-    </row>
-    <row r="181" spans="1:5" outlineLevel="1">
+      <c r="E180" s="28" t="s">
+        <v>379</v>
+      </c>
+      <c r="F180" s="30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" outlineLevel="1">
       <c r="A181" s="18" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B181" s="11" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C181" s="12"/>
       <c r="D181" s="23">
         <v>1</v>
       </c>
-      <c r="E181" s="22"/>
-    </row>
-    <row r="182" spans="1:5" outlineLevel="1">
+      <c r="E181" s="28" t="s">
+        <v>379</v>
+      </c>
+      <c r="F181" s="30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" outlineLevel="1">
       <c r="A182" s="18" t="s">
-        <v>359</v>
+        <v>390</v>
       </c>
       <c r="B182" s="11" t="s">
-        <v>360</v>
+        <v>391</v>
       </c>
       <c r="C182" s="12"/>
       <c r="D182" s="23">
         <v>1</v>
       </c>
-      <c r="E182" s="22"/>
-    </row>
-    <row r="183" spans="1:5" outlineLevel="1">
+      <c r="E182" s="28" t="s">
+        <v>379</v>
+      </c>
+      <c r="F182" s="30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" outlineLevel="1">
       <c r="A183" s="18" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="B183" s="11" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="C183" s="12"/>
       <c r="D183" s="23">
+        <v>1</v>
+      </c>
+      <c r="E183" s="28" t="s">
+        <v>379</v>
+      </c>
+      <c r="F183" s="30">
         <v>4</v>
       </c>
-      <c r="E183" s="22" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" outlineLevel="1">
+    </row>
+    <row r="184" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A184" s="18" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="B184" s="11" t="s">
-        <v>365</v>
-      </c>
-      <c r="C184" s="12"/>
+        <v>358</v>
+      </c>
+      <c r="C184" s="12" t="s">
+        <v>3</v>
+      </c>
       <c r="D184" s="23">
-        <v>2</v>
-      </c>
-      <c r="E184" s="22"/>
-    </row>
-    <row r="185" spans="1:5" outlineLevel="1">
+        <v>1</v>
+      </c>
+      <c r="E184" s="28" t="s">
+        <v>378</v>
+      </c>
+      <c r="F184" s="30"/>
+    </row>
+    <row r="185" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A185" s="18" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="B185" s="11" t="s">
-        <v>367</v>
-      </c>
-      <c r="C185" s="12"/>
+        <v>360</v>
+      </c>
+      <c r="C185" s="12" t="s">
+        <v>3</v>
+      </c>
       <c r="D185" s="23">
-        <v>2</v>
-      </c>
-      <c r="E185" s="22"/>
-    </row>
-    <row r="186" spans="1:5" outlineLevel="1">
+        <v>1</v>
+      </c>
+      <c r="E185" s="28" t="s">
+        <v>378</v>
+      </c>
+      <c r="F185" s="30"/>
+    </row>
+    <row r="186" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A186" s="18" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="B186" s="11" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="C186" s="12"/>
       <c r="D186" s="23">
-        <v>3</v>
-      </c>
-      <c r="E186" s="22" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5">
-      <c r="A187" s="14" t="s">
-        <v>205</v>
+        <v>4</v>
+      </c>
+      <c r="E186" s="23"/>
+      <c r="F186" s="30"/>
+      <c r="G186" s="22" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" hidden="1" outlineLevel="1">
+      <c r="A187" s="18" t="s">
+        <v>364</v>
       </c>
       <c r="B187" s="11" t="s">
-        <v>206</v>
+        <v>365</v>
       </c>
       <c r="C187" s="12"/>
       <c r="D187" s="23">
-        <v>1</v>
-      </c>
-      <c r="E187" s="20"/>
-    </row>
-    <row r="189" spans="1:5">
-      <c r="A189" t="s">
+        <v>2</v>
+      </c>
+      <c r="E187" s="23"/>
+      <c r="F187" s="30"/>
+      <c r="G187" s="22"/>
+    </row>
+    <row r="188" spans="1:7" hidden="1" outlineLevel="1">
+      <c r="A188" s="18" t="s">
+        <v>366</v>
+      </c>
+      <c r="B188" s="11" t="s">
+        <v>367</v>
+      </c>
+      <c r="C188" s="12"/>
+      <c r="D188" s="23">
+        <v>2</v>
+      </c>
+      <c r="E188" s="23"/>
+      <c r="F188" s="30"/>
+      <c r="G188" s="22"/>
+    </row>
+    <row r="189" spans="1:7" hidden="1" outlineLevel="1">
+      <c r="A189" s="18" t="s">
+        <v>369</v>
+      </c>
+      <c r="B189" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="C189" s="12"/>
+      <c r="D189" s="23">
+        <v>3</v>
+      </c>
+      <c r="E189" s="23"/>
+      <c r="F189" s="30"/>
+      <c r="G189" s="22" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" hidden="1">
+      <c r="A190" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="B190" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="C190" s="12"/>
+      <c r="D190" s="23"/>
+      <c r="E190" s="28"/>
+      <c r="F190" s="30"/>
+      <c r="G190" s="20"/>
+    </row>
+    <row r="191" spans="1:7">
+      <c r="A191" s="11"/>
+      <c r="B191" s="11"/>
+      <c r="C191" s="12"/>
+      <c r="D191" s="12"/>
+      <c r="E191" s="23" t="s">
+        <v>392</v>
+      </c>
+      <c r="F191" s="30">
+        <f>SUM(Table1[Cost])/8</f>
+        <v>10.5</v>
+      </c>
+      <c r="G191" s="11"/>
+    </row>
+    <row r="192" spans="1:7">
+      <c r="A192" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="190" spans="1:5">
-      <c r="A190" t="s">
+    <row r="193" spans="1:2">
+      <c r="A193" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="191" spans="1:5">
-      <c r="A191" t="s">
+    <row r="194" spans="1:2">
+      <c r="A194" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="192" spans="1:5">
-      <c r="A192" t="s">
+    <row r="195" spans="1:2">
+      <c r="A195" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="209" spans="2:2">
-      <c r="B209">
+    <row r="199" spans="1:2">
+      <c r="B199">
+        <f>5+3+4+1+1+3</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2">
+      <c r="B200">
+        <f>20/8</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="212" spans="2:2">
+      <c r="B212">
         <f>3+5+3+4+2+3</f>
         <v>20</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A78" r:id="rId1"/>
+    <hyperlink ref="A80" r:id="rId1"/>
     <hyperlink ref="A59" r:id="rId2" location="GET_authentication.2Fcurrent-context.2F.7Bname.7D"/>
     <hyperlink ref="A58" r:id="rId3" location="GET_authentication.2Fcurrent-context"/>
     <hyperlink ref="A60" r:id="rId4" location="GET_authentication.2Fhttpauth-tokens" display="authentication/httpauth-tokens"/>
     <hyperlink ref="A62" r:id="rId5" location="GET_authentication.2Fhttpauth-tokens.2F.7Bname.7D"/>
-    <hyperlink ref="A61" r:id="rId6" location="DELETE_authentication.2Fhttpauth-tokens.2F.7Bname.7D"/>
+    <hyperlink ref="A61" r:id="rId6"/>
     <hyperlink ref="A63" r:id="rId7" location="GET_authentication.2Fusers"/>
     <hyperlink ref="A64" r:id="rId8" location="POST_authentication.2Fusers"/>
     <hyperlink ref="A65" r:id="rId9" location="DELETE_authentication.2Fusers.2F.7Bname.7D"/>
@@ -4100,20 +6710,20 @@
     <hyperlink ref="A73" r:id="rId16" location="GET_authorization.2Froles.2F.7Bname.7D"/>
     <hyperlink ref="A72" r:id="rId17"/>
     <hyperlink ref="A74" r:id="rId18" location="POST_authorization.2Froles.2F.7Bname.7D"/>
-    <hyperlink ref="A75" r:id="rId19" location="GET_storage.2Fpasswords"/>
-    <hyperlink ref="A76" r:id="rId20" location="POST_storage.2Fpasswords"/>
-    <hyperlink ref="A77" r:id="rId21" location="storage.2Fpasswords.2F.7Bname.7D"/>
-    <hyperlink ref="A168" r:id="rId22"/>
-    <hyperlink ref="A155" r:id="rId23" location="POST_apps.2Fappinstall"/>
-    <hyperlink ref="A156" r:id="rId24" location="GET_apps.2Fapptemplates"/>
-    <hyperlink ref="A157" r:id="rId25" location="GET_apps.2Fapptemplates.2F.7Bname.7D"/>
-    <hyperlink ref="A158" r:id="rId26" location="GET_apps.2Flocal"/>
-    <hyperlink ref="A159" r:id="rId27" location="POST_apps.2Flocal"/>
-    <hyperlink ref="A160" r:id="rId28" location="DELETE_apps.2Flocal.2F.7Bname.7D"/>
-    <hyperlink ref="A161" r:id="rId29" location="GET_apps.2Flocal.2F.7Bname.7D"/>
-    <hyperlink ref="A162" r:id="rId30" location="apps.2Flocal.2F.7Bname.7D.2Fpackage"/>
-    <hyperlink ref="A163" r:id="rId31" location="GET_apps.2Flocal.2F.7Bname.7D.2Fsetup"/>
-    <hyperlink ref="A164" r:id="rId32" location="GET_apps.2Flocal.2F.7Bname.7D.2Fupdate"/>
+    <hyperlink ref="A75" r:id="rId19"/>
+    <hyperlink ref="A76" r:id="rId20"/>
+    <hyperlink ref="A77" r:id="rId21"/>
+    <hyperlink ref="A170" r:id="rId22"/>
+    <hyperlink ref="A157" r:id="rId23"/>
+    <hyperlink ref="A158" r:id="rId24" location="GET_apps.2Fapptemplates"/>
+    <hyperlink ref="A159" r:id="rId25" location="GET_apps.2Fapptemplates.2F.7Bname.7D"/>
+    <hyperlink ref="A160" r:id="rId26" location="GET_apps.2Flocal"/>
+    <hyperlink ref="A161" r:id="rId27"/>
+    <hyperlink ref="A162" r:id="rId28"/>
+    <hyperlink ref="A163" r:id="rId29"/>
+    <hyperlink ref="A164" r:id="rId30"/>
+    <hyperlink ref="A165" r:id="rId31"/>
+    <hyperlink ref="A166" r:id="rId32"/>
     <hyperlink ref="A15" r:id="rId33"/>
     <hyperlink ref="A2" r:id="rId34" location="GET_configs.2Fconf-.7Bfile.7D"/>
     <hyperlink ref="A3" r:id="rId35" location="POST_configs.2Fconf-.7Bfile.7D"/>
@@ -4127,14 +6737,14 @@
     <hyperlink ref="A12" r:id="rId43" location="POST_properties.2F.7Bfile_name.7D.2F.7Bstanza_name.7D"/>
     <hyperlink ref="A13" r:id="rId44" location="properties.2F.7Bfile_name.7D.2F.7Bstanza_name.7D.2F.7Bkey_name.7D"/>
     <hyperlink ref="A14" r:id="rId45" location="POST_properties.2F.7Bfile_name.7D.2F.7Bstanza_name.7D.2F.7Bkey_name.7D"/>
-    <hyperlink ref="A79" r:id="rId46" location="GET_data.2Findexes"/>
-    <hyperlink ref="A81" r:id="rId47" location="DELETE_data.2Findexes.2F.7Bname.7D"/>
-    <hyperlink ref="A80" r:id="rId48" location="POST_data.2Findexes"/>
-    <hyperlink ref="A82" r:id="rId49" location="GET_data.2Findexes.2F.7Bname.7D"/>
-    <hyperlink ref="A83" r:id="rId50" location="POST_data.2Findexes.2F.7Bname.7D"/>
-    <hyperlink ref="A172" r:id="rId51"/>
-    <hyperlink ref="A174" r:id="rId52"/>
-    <hyperlink ref="A176" r:id="rId53"/>
+    <hyperlink ref="A81" r:id="rId46" location="GET_data.2Findexes"/>
+    <hyperlink ref="A83" r:id="rId47" location="DELETE_data.2Findexes.2F.7Bname.7D"/>
+    <hyperlink ref="A82" r:id="rId48" location="POST_data.2Findexes"/>
+    <hyperlink ref="A84" r:id="rId49" location="GET_data.2Findexes.2F.7Bname.7D"/>
+    <hyperlink ref="A85" r:id="rId50" location="POST_data.2Findexes.2F.7Bname.7D"/>
+    <hyperlink ref="A174" r:id="rId51"/>
+    <hyperlink ref="A176" r:id="rId52"/>
+    <hyperlink ref="A178" r:id="rId53"/>
     <hyperlink ref="A56" r:id="rId54"/>
     <hyperlink ref="A16" r:id="rId55" location="GET_alerts.2Ffired_alerts"/>
     <hyperlink ref="A17" r:id="rId56" location="DELETE_alerts.2Ffired_alerts.2F.7Bname.7D"/>
@@ -4149,8 +6759,8 @@
     <hyperlink ref="A26" r:id="rId65" location="POST_saved.2Fsearches.2F.7Bname.7D.2Facknowledge"/>
     <hyperlink ref="A27" r:id="rId66" location="POST_saved.2Fsearches.2F.7Bname.7D.2Fdispatch"/>
     <hyperlink ref="A28" r:id="rId67"/>
-    <hyperlink ref="A29" r:id="rId68" location="POST_saved.2Fsearches.2F.7Bname.7D.2Freschedule"/>
-    <hyperlink ref="A30" r:id="rId69" location="GET_saved.2Fsearches.2F.7Bname.7D.2Fscheduled_times"/>
+    <hyperlink ref="A29" r:id="rId68"/>
+    <hyperlink ref="A30" r:id="rId69"/>
     <hyperlink ref="A31" r:id="rId70" location="GET_saved.2Fsearches.2F.7Bname.7D.2Fsuppress"/>
     <hyperlink ref="A32" r:id="rId71" location="GET_scheduled.2Fviews"/>
     <hyperlink ref="A33" r:id="rId72" location="DELETE_scheduled.2Fviews.2F.7Bname.7D"/>
@@ -4176,92 +6786,96 @@
     <hyperlink ref="A53" r:id="rId92" location="GET_search.2Fparser"/>
     <hyperlink ref="A54" r:id="rId93" location="GET_search.2Ftimeparser"/>
     <hyperlink ref="A55" r:id="rId94" location="search.2Ftypeahead"/>
-    <hyperlink ref="A187" r:id="rId95"/>
-    <hyperlink ref="A166" r:id="rId96"/>
-    <hyperlink ref="A152" r:id="rId97" location="POST_receivers.2Fsimple"/>
-    <hyperlink ref="A151" r:id="rId98" location="GET_indexing.2Fpreview.2F.7Bjob_id.7D"/>
-    <hyperlink ref="A149" r:id="rId99" location="GET_indexing.2Fpreview"/>
-    <hyperlink ref="A150" r:id="rId100" location="POST_indexing.2Fpreview"/>
-    <hyperlink ref="A148" r:id="rId101" location="GET_data.2Fmodular-inputs.2F.7Bname.7D"/>
-    <hyperlink ref="A147" r:id="rId102" location="GET_data.2Fmodular-inputs"/>
-    <hyperlink ref="A144" r:id="rId103" location="DELETE_data.2Finputs.2Fwin-perfmon.2F.7Bname.7D"/>
-    <hyperlink ref="A145" r:id="rId104" location="GET_data.2Finputs.2Fwin-perfmon.2F.7Bname.7D"/>
-    <hyperlink ref="A146" r:id="rId105" location="POST_data.2Finputs.2Fwin-perfmon.2F.7Bname.7D"/>
-    <hyperlink ref="A142" r:id="rId106" location="GET_data.2Finputs.2Fwin-perfmon"/>
-    <hyperlink ref="A143" r:id="rId107" location="POST_data.2Finputs.2Fwin-perfmon"/>
-    <hyperlink ref="A139" r:id="rId108" location="DELETE_data.2Finputs.2Fwin-wmi-collections.2F.7Bname.7D"/>
-    <hyperlink ref="A140" r:id="rId109" location="GET_data.2Finputs.2Fwin-wmi-collections.2F.7Bname.7D"/>
-    <hyperlink ref="A141" r:id="rId110" location="POST_data.2Finputs.2Fwin-wmi-collections.2F.7Bname.7D"/>
-    <hyperlink ref="A137" r:id="rId111" location="GET_data.2Finputs.2Fwin-wmi-collections"/>
-    <hyperlink ref="A138" r:id="rId112" location="POST_data.2Finputs.2Fwin-wmi-collections"/>
-    <hyperlink ref="A147:A148" r:id="rId113" location="DELETE_data.2Finputs.2Fwin-event-log-collections.2F.7Bname.7D" display="DELETE data/inputs/win-event-log-collections/{name}"/>
-    <hyperlink ref="A134" r:id="rId114" location="DELETE_data.2Finputs.2Fwin-event-log-collections.2F.7Bname.7D"/>
-    <hyperlink ref="A135" r:id="rId115" location="GET_data.2Finputs.2Fwin-event-log-collections.2F.7Bname.7D"/>
-    <hyperlink ref="A136" r:id="rId116" location="POST_data.2Finputs.2Fwin-event-log-collections.2F.7Bname.7D"/>
-    <hyperlink ref="A133" r:id="rId117" location="GET_data.2Finputs.2Fudp.2F.7Bname.7D.2Fconnections"/>
-    <hyperlink ref="A130" r:id="rId118" location="DELETE_data.2Finputs.2Fudp.2F.7Bname.7D"/>
-    <hyperlink ref="A143:A144" r:id="rId119" location="DELETE_data.2Finputs.2Fudp.2F.7Bname.7D" display="DELETE data/inputs/udp/{name}"/>
-    <hyperlink ref="A131" r:id="rId120" location="GET_data.2Finputs.2Fudp.2F.7Bname.7D"/>
-    <hyperlink ref="A132" r:id="rId121" location="POST_data.2Finputs.2Fudp.2F.7Bname.7D"/>
-    <hyperlink ref="A128" r:id="rId122" location="GET_data.2Finputs.2Fudp"/>
-    <hyperlink ref="A129" r:id="rId123" location="POST_data.2Finputs.2Fudp"/>
-    <hyperlink ref="A126" r:id="rId124" location="GET_data.2Finputs.2Ftcp.2Fssl.2F.7Bname.7D"/>
-    <hyperlink ref="A127" r:id="rId125" location="POST_data.2Finputs.2Ftcp.2Fssl.2F.7Bname.7D"/>
-    <hyperlink ref="A125" r:id="rId126" location="GET_data.2Finputs.2Ftcp.2Fssl"/>
-    <hyperlink ref="A124" r:id="rId127" location="GET_data.2Finputs.2Ftcp.2Fraw.2F.7Bname.7D.2Fconnections"/>
-    <hyperlink ref="A121" r:id="rId128" location="DELETE_data.2Finputs.2Ftcp.2Fraw.2F.7Bname.7D"/>
-    <hyperlink ref="A122" r:id="rId129" location="GET_data.2Finputs.2Ftcp.2Fraw.2F.7Bname.7D"/>
-    <hyperlink ref="A123" r:id="rId130" location="POST_data.2Finputs.2Ftcp.2Fraw.2F.7Bname.7D"/>
-    <hyperlink ref="A119" r:id="rId131" location="GET_data.2Finputs.2Ftcp.2Fraw"/>
-    <hyperlink ref="A120" r:id="rId132" location="POST_data.2Finputs.2Ftcp.2Fraw"/>
-    <hyperlink ref="A118" r:id="rId133" location="GET_data.2Finputs.2Ftcp.2Fcooked.2F.7Bname.7D.2Fconnections"/>
-    <hyperlink ref="A115" r:id="rId134" location="DELETE_data.2Finputs.2Ftcp.2Fcooked.2F.7Bname.7D"/>
-    <hyperlink ref="A116" r:id="rId135" location="GET_data.2Finputs.2Ftcp.2Fcooked.2F.7Bname.7D"/>
-    <hyperlink ref="A117" r:id="rId136" location="POST_data.2Finputs.2Ftcp.2Fcooked.2F.7Bname.7D"/>
-    <hyperlink ref="A113" r:id="rId137" location="GET_data.2Finputs.2Ftcp.2Fcooked"/>
-    <hyperlink ref="A114" r:id="rId138" location="POST_data.2Finputs.2Ftcp.2Fcooked"/>
-    <hyperlink ref="A110" r:id="rId139" location="DELETE_data.2Finputs.2Fscript.2F.7Bname.7D"/>
-    <hyperlink ref="A111" r:id="rId140" location="GET_data.2Finputs.2Fscript.2F.7Bname.7D"/>
-    <hyperlink ref="A112" r:id="rId141" location="POST_data.2Finputs.2Fscript.2F.7Bname.7D"/>
-    <hyperlink ref="A109" r:id="rId142" location="POST_data.2Finputs.2Fscript.2Frestart"/>
-    <hyperlink ref="A107" r:id="rId143" location="GET_data.2Finputs.2Fscript"/>
-    <hyperlink ref="A108" r:id="rId144" location="POST_data.2Finputs.2Fscript"/>
-    <hyperlink ref="A104" r:id="rId145" location="DELETE_data.2Finputs.2Fregistry.2F.7Bname.7D"/>
-    <hyperlink ref="A105" r:id="rId146" location="GET_data.2Finputs.2Fregistry.2F.7Bname.7D"/>
-    <hyperlink ref="A106" r:id="rId147" location="POST_data.2Finputs.2Fregistry.2F.7Bname.7D"/>
-    <hyperlink ref="A102" r:id="rId148" location="GET_data.2Finputs.2Fregistry"/>
-    <hyperlink ref="A103" r:id="rId149" location="POST_data.2Finputs.2Fregistry"/>
-    <hyperlink ref="A100" r:id="rId150" location="data.2Finputs.2Foneshot.2F.7Bname.7D"/>
-    <hyperlink ref="A101" r:id="rId151" location="POST_data.2Finputs.2Fregistry"/>
-    <hyperlink ref="A98" r:id="rId152" location="GET_data.2Finputs.2Foneshot"/>
-    <hyperlink ref="A99" r:id="rId153" location="POST_data.2Finputs.2Foneshot"/>
-    <hyperlink ref="A97" r:id="rId154" location="GET_data.2Finputs.2Fmonitor.2F.7Bname.7D.2Fmembers"/>
-    <hyperlink ref="A94" r:id="rId155" location="DELETE_data.2Finputs.2Fmonitor.2F.7Bname.7D"/>
-    <hyperlink ref="A95" r:id="rId156" location="GET_data.2Finputs.2Fmonitor.2F.7Bname.7D"/>
-    <hyperlink ref="A96" r:id="rId157" location="POST_data.2Finputs.2Fmonitor.2F.7Bname.7D"/>
-    <hyperlink ref="A92" r:id="rId158" location="GET_data.2Finputs.2Fmonitor"/>
-    <hyperlink ref="A93" r:id="rId159" location="POST_data.2Finputs.2Fmonitor"/>
-    <hyperlink ref="A91" r:id="rId160" location="GET_data.2Finputs.2Fall.2F.7Bname.7D"/>
-    <hyperlink ref="A90" r:id="rId161" location="GET_data.2Finputs.2Fall"/>
-    <hyperlink ref="A87" r:id="rId162" location="DELETE_data.2Finputs.2Fad.2F.7Bname.7D"/>
-    <hyperlink ref="A88" r:id="rId163" location="GET_data.2Finputs.2Fad.2F.7Bname.7D"/>
-    <hyperlink ref="A89" r:id="rId164" location="POST_data.2Finputs.2Fad.2F.7Bname.7D"/>
-    <hyperlink ref="A85" r:id="rId165" location="GET_data.2Finputs.2Fad"/>
-    <hyperlink ref="A86" r:id="rId166" location="POST_data.2Finputs.2Fad"/>
-    <hyperlink ref="A177" r:id="rId167" location="GET_messages"/>
-    <hyperlink ref="A178" r:id="rId168"/>
-    <hyperlink ref="A179" r:id="rId169" location="DELETE_messages.2F.7Bname.7D"/>
-    <hyperlink ref="A180" r:id="rId170" location="GET_server.2Fcontrol"/>
-    <hyperlink ref="A181" r:id="rId171" location="POST_server.2Fcontrol.2Frestart"/>
-    <hyperlink ref="A182" r:id="rId172" location="GET_server.2Finfo"/>
-    <hyperlink ref="A184" r:id="rId173" location="GET_server.2Flogger"/>
-    <hyperlink ref="A185" r:id="rId174" location="GET_server.2Flogger.2F.7Bname.7D"/>
-    <hyperlink ref="A186" r:id="rId175" location="POST_server.2Flogger.2F.7Bname.7D"/>
+    <hyperlink ref="A190" r:id="rId95"/>
+    <hyperlink ref="A168" r:id="rId96"/>
+    <hyperlink ref="A154" r:id="rId97"/>
+    <hyperlink ref="A153" r:id="rId98" location="GET_indexing.2Fpreview.2F.7Bjob_id.7D"/>
+    <hyperlink ref="A151" r:id="rId99" location="GET_indexing.2Fpreview"/>
+    <hyperlink ref="A152" r:id="rId100" location="POST_indexing.2Fpreview"/>
+    <hyperlink ref="A150" r:id="rId101" location="GET_data.2Fmodular-inputs.2F.7Bname.7D"/>
+    <hyperlink ref="A149" r:id="rId102" location="GET_data.2Fmodular-inputs"/>
+    <hyperlink ref="A146" r:id="rId103" location="DELETE_data.2Finputs.2Fwin-perfmon.2F.7Bname.7D"/>
+    <hyperlink ref="A147" r:id="rId104" location="GET_data.2Finputs.2Fwin-perfmon.2F.7Bname.7D"/>
+    <hyperlink ref="A148" r:id="rId105" location="POST_data.2Finputs.2Fwin-perfmon.2F.7Bname.7D"/>
+    <hyperlink ref="A144" r:id="rId106" location="GET_data.2Finputs.2Fwin-perfmon"/>
+    <hyperlink ref="A145" r:id="rId107" location="POST_data.2Finputs.2Fwin-perfmon"/>
+    <hyperlink ref="A141" r:id="rId108" location="DELETE_data.2Finputs.2Fwin-wmi-collections.2F.7Bname.7D"/>
+    <hyperlink ref="A142" r:id="rId109" location="GET_data.2Finputs.2Fwin-wmi-collections.2F.7Bname.7D"/>
+    <hyperlink ref="A143" r:id="rId110" location="POST_data.2Finputs.2Fwin-wmi-collections.2F.7Bname.7D"/>
+    <hyperlink ref="A139" r:id="rId111" location="GET_data.2Finputs.2Fwin-wmi-collections"/>
+    <hyperlink ref="A140" r:id="rId112" location="POST_data.2Finputs.2Fwin-wmi-collections"/>
+    <hyperlink ref="A149:A150" r:id="rId113" location="DELETE_data.2Finputs.2Fwin-event-log-collections.2F.7Bname.7D" display="DELETE data/inputs/win-event-log-collections/{name}"/>
+    <hyperlink ref="A136" r:id="rId114" location="DELETE_data.2Finputs.2Fwin-event-log-collections.2F.7Bname.7D"/>
+    <hyperlink ref="A137" r:id="rId115" location="GET_data.2Finputs.2Fwin-event-log-collections.2F.7Bname.7D"/>
+    <hyperlink ref="A138" r:id="rId116" location="POST_data.2Finputs.2Fwin-event-log-collections.2F.7Bname.7D"/>
+    <hyperlink ref="A135" r:id="rId117" location="GET_data.2Finputs.2Fudp.2F.7Bname.7D.2Fconnections"/>
+    <hyperlink ref="A132" r:id="rId118" location="DELETE_data.2Finputs.2Fudp.2F.7Bname.7D"/>
+    <hyperlink ref="A145:A146" r:id="rId119" location="DELETE_data.2Finputs.2Fudp.2F.7Bname.7D" display="DELETE data/inputs/udp/{name}"/>
+    <hyperlink ref="A133" r:id="rId120" location="GET_data.2Finputs.2Fudp.2F.7Bname.7D"/>
+    <hyperlink ref="A134" r:id="rId121" location="POST_data.2Finputs.2Fudp.2F.7Bname.7D"/>
+    <hyperlink ref="A130" r:id="rId122" location="GET_data.2Finputs.2Fudp"/>
+    <hyperlink ref="A131" r:id="rId123" location="POST_data.2Finputs.2Fudp"/>
+    <hyperlink ref="A128" r:id="rId124" location="GET_data.2Finputs.2Ftcp.2Fssl.2F.7Bname.7D"/>
+    <hyperlink ref="A129" r:id="rId125" location="POST_data.2Finputs.2Ftcp.2Fssl.2F.7Bname.7D"/>
+    <hyperlink ref="A127" r:id="rId126" location="GET_data.2Finputs.2Ftcp.2Fssl"/>
+    <hyperlink ref="A126" r:id="rId127" location="GET_data.2Finputs.2Ftcp.2Fraw.2F.7Bname.7D.2Fconnections"/>
+    <hyperlink ref="A123" r:id="rId128" location="DELETE_data.2Finputs.2Ftcp.2Fraw.2F.7Bname.7D"/>
+    <hyperlink ref="A124" r:id="rId129" location="GET_data.2Finputs.2Ftcp.2Fraw.2F.7Bname.7D"/>
+    <hyperlink ref="A125" r:id="rId130" location="POST_data.2Finputs.2Ftcp.2Fraw.2F.7Bname.7D"/>
+    <hyperlink ref="A121" r:id="rId131" location="GET_data.2Finputs.2Ftcp.2Fraw"/>
+    <hyperlink ref="A122" r:id="rId132" location="POST_data.2Finputs.2Ftcp.2Fraw"/>
+    <hyperlink ref="A120" r:id="rId133" location="GET_data.2Finputs.2Ftcp.2Fcooked.2F.7Bname.7D.2Fconnections"/>
+    <hyperlink ref="A117" r:id="rId134" location="DELETE_data.2Finputs.2Ftcp.2Fcooked.2F.7Bname.7D"/>
+    <hyperlink ref="A118" r:id="rId135" location="GET_data.2Finputs.2Ftcp.2Fcooked.2F.7Bname.7D"/>
+    <hyperlink ref="A119" r:id="rId136" location="POST_data.2Finputs.2Ftcp.2Fcooked.2F.7Bname.7D"/>
+    <hyperlink ref="A115" r:id="rId137" location="GET_data.2Finputs.2Ftcp.2Fcooked"/>
+    <hyperlink ref="A116" r:id="rId138" location="POST_data.2Finputs.2Ftcp.2Fcooked"/>
+    <hyperlink ref="A112" r:id="rId139" location="DELETE_data.2Finputs.2Fscript.2F.7Bname.7D"/>
+    <hyperlink ref="A113" r:id="rId140" location="GET_data.2Finputs.2Fscript.2F.7Bname.7D"/>
+    <hyperlink ref="A114" r:id="rId141" location="POST_data.2Finputs.2Fscript.2F.7Bname.7D"/>
+    <hyperlink ref="A111" r:id="rId142" location="POST_data.2Finputs.2Fscript.2Frestart"/>
+    <hyperlink ref="A109" r:id="rId143" location="GET_data.2Finputs.2Fscript"/>
+    <hyperlink ref="A110" r:id="rId144" location="POST_data.2Finputs.2Fscript"/>
+    <hyperlink ref="A106" r:id="rId145" location="DELETE_data.2Finputs.2Fregistry.2F.7Bname.7D"/>
+    <hyperlink ref="A107" r:id="rId146" location="GET_data.2Finputs.2Fregistry.2F.7Bname.7D"/>
+    <hyperlink ref="A108" r:id="rId147" location="POST_data.2Finputs.2Fregistry.2F.7Bname.7D"/>
+    <hyperlink ref="A104" r:id="rId148" location="GET_data.2Finputs.2Fregistry"/>
+    <hyperlink ref="A105" r:id="rId149" location="POST_data.2Finputs.2Fregistry"/>
+    <hyperlink ref="A102" r:id="rId150" location="data.2Finputs.2Foneshot.2F.7Bname.7D"/>
+    <hyperlink ref="A103" r:id="rId151" location="POST_data.2Finputs.2Fregistry"/>
+    <hyperlink ref="A100" r:id="rId152" location="GET_data.2Finputs.2Foneshot"/>
+    <hyperlink ref="A101" r:id="rId153" location="POST_data.2Finputs.2Foneshot"/>
+    <hyperlink ref="A99" r:id="rId154" location="GET_data.2Finputs.2Fmonitor.2F.7Bname.7D.2Fmembers"/>
+    <hyperlink ref="A96" r:id="rId155" location="DELETE_data.2Finputs.2Fmonitor.2F.7Bname.7D"/>
+    <hyperlink ref="A97" r:id="rId156" location="GET_data.2Finputs.2Fmonitor.2F.7Bname.7D"/>
+    <hyperlink ref="A98" r:id="rId157" location="POST_data.2Finputs.2Fmonitor.2F.7Bname.7D"/>
+    <hyperlink ref="A94" r:id="rId158" location="GET_data.2Finputs.2Fmonitor"/>
+    <hyperlink ref="A95" r:id="rId159" location="POST_data.2Finputs.2Fmonitor"/>
+    <hyperlink ref="A93" r:id="rId160" location="GET_data.2Finputs.2Fall.2F.7Bname.7D"/>
+    <hyperlink ref="A92" r:id="rId161" location="GET_data.2Finputs.2Fall"/>
+    <hyperlink ref="A89" r:id="rId162" location="DELETE_data.2Finputs.2Fad.2F.7Bname.7D"/>
+    <hyperlink ref="A90" r:id="rId163" location="GET_data.2Finputs.2Fad.2F.7Bname.7D"/>
+    <hyperlink ref="A91" r:id="rId164" location="POST_data.2Finputs.2Fad.2F.7Bname.7D"/>
+    <hyperlink ref="A87" r:id="rId165" location="GET_data.2Finputs.2Fad"/>
+    <hyperlink ref="A88" r:id="rId166" location="POST_data.2Finputs.2Fad"/>
+    <hyperlink ref="A179" r:id="rId167" location="GET_messages"/>
+    <hyperlink ref="A180" r:id="rId168"/>
+    <hyperlink ref="A181" r:id="rId169" location="DELETE_messages.2F.7Bname.7D"/>
+    <hyperlink ref="A183" r:id="rId170" location="GET_server.2Fcontrol"/>
+    <hyperlink ref="A184" r:id="rId171" location="POST_server.2Fcontrol.2Frestart"/>
+    <hyperlink ref="A185" r:id="rId172" location="GET_server.2Finfo"/>
+    <hyperlink ref="A187" r:id="rId173" location="GET_server.2Flogger"/>
+    <hyperlink ref="A188" r:id="rId174" location="GET_server.2Flogger.2F.7Bname.7D"/>
+    <hyperlink ref="A189" r:id="rId175" location="POST_server.2Flogger.2F.7Bname.7D"/>
+    <hyperlink ref="A182" r:id="rId176"/>
+    <hyperlink ref="A78" r:id="rId177"/>
+    <hyperlink ref="A79" r:id="rId178"/>
+    <hyperlink ref="A155" r:id="rId179"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <tableParts count="1">
-    <tablePart r:id="rId176"/>
+    <tablePart r:id="rId180"/>
   </tableParts>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">

--- a/REST API coverage.xlsx
+++ b/REST API coverage.xlsx
@@ -12,7 +12,7 @@
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="394">
   <si>
     <t>Access Control</t>
   </si>
@@ -1202,13 +1202,16 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>Area</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1248,6 +1251,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1266,12 +1276,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
@@ -1341,9 +1352,16 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -1396,7 +1414,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right/>
@@ -3023,7 +3041,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
   <location ref="A3:F10" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField dataField="1" showAll="0"/>
@@ -3107,12 +3125,12 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G191" totalsRowCount="1">
-  <autoFilter ref="A1:G191">
+  <autoFilter ref="A1:G190">
     <filterColumn colId="4">
       <filters>
+        <filter val="Area"/>
         <filter val="PCL-3"/>
         <filter val="PCL-3 ?"/>
-        <filter val="Total"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -3607,10 +3625,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:G212"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B200" sqref="B200"/>
+      <selection activeCell="E190" sqref="E190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0"/>
@@ -3894,7 +3913,7 @@
       <c r="F14" s="29"/>
       <c r="G14" s="22"/>
     </row>
-    <row r="15" spans="1:7" hidden="1">
+    <row r="15" spans="1:7" collapsed="1">
       <c r="A15" s="15" t="s">
         <v>75</v>
       </c>
@@ -3903,7 +3922,9 @@
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="23"/>
-      <c r="E15" s="28"/>
+      <c r="E15" s="32" t="s">
+        <v>393</v>
+      </c>
       <c r="F15" s="30"/>
       <c r="G15" s="22"/>
     </row>
@@ -4583,7 +4604,7 @@
       <c r="F55" s="30"/>
       <c r="G55" s="22"/>
     </row>
-    <row r="56" spans="1:7" hidden="1">
+    <row r="56" spans="1:7" collapsed="1">
       <c r="A56" s="8" t="s">
         <v>125</v>
       </c>
@@ -4591,8 +4612,9 @@
         <v>126</v>
       </c>
       <c r="C56" s="9"/>
-      <c r="D56" s="19"/>
-      <c r="E56" s="25"/>
+      <c r="E56" s="31" t="s">
+        <v>393</v>
+      </c>
       <c r="F56" s="29"/>
       <c r="G56" s="20"/>
     </row>
@@ -4960,7 +4982,7 @@
       </c>
       <c r="G79" s="20"/>
     </row>
-    <row r="80" spans="1:7" hidden="1">
+    <row r="80" spans="1:7">
       <c r="A80" s="8" t="s">
         <v>0</v>
       </c>
@@ -4968,8 +4990,9 @@
         <v>207</v>
       </c>
       <c r="C80" s="9"/>
-      <c r="D80" s="19"/>
-      <c r="E80" s="25"/>
+      <c r="E80" s="31" t="s">
+        <v>393</v>
+      </c>
       <c r="F80" s="29"/>
       <c r="G80" s="20"/>
     </row>
@@ -5068,7 +5091,7 @@
       <c r="F85" s="29"/>
       <c r="G85" s="20"/>
     </row>
-    <row r="86" spans="1:7" hidden="1" collapsed="1">
+    <row r="86" spans="1:7" collapsed="1">
       <c r="A86" s="8" t="s">
         <v>105</v>
       </c>
@@ -5077,7 +5100,9 @@
       </c>
       <c r="C86" s="9"/>
       <c r="D86" s="19"/>
-      <c r="E86" s="25"/>
+      <c r="E86" s="32" t="s">
+        <v>393</v>
+      </c>
       <c r="F86" s="29"/>
       <c r="G86" s="20"/>
     </row>
@@ -6120,7 +6145,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="156" spans="1:7" hidden="1">
+    <row r="156" spans="1:7">
       <c r="A156" s="8" t="s">
         <v>117</v>
       </c>
@@ -6129,7 +6154,9 @@
       </c>
       <c r="C156" s="9"/>
       <c r="D156" s="19"/>
-      <c r="E156" s="25"/>
+      <c r="E156" s="31" t="s">
+        <v>393</v>
+      </c>
       <c r="F156" s="29"/>
     </row>
     <row r="157" spans="1:7" outlineLevel="1">
@@ -6172,7 +6199,7 @@
       <c r="D159" s="19">
         <v>3</v>
       </c>
-      <c r="E159" s="25"/>
+      <c r="E159" s="19"/>
       <c r="F159" s="29"/>
     </row>
     <row r="160" spans="1:7" hidden="1" outlineLevel="1">
@@ -6308,7 +6335,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="168" spans="1:7" hidden="1">
+    <row r="168" spans="1:7" collapsed="1">
       <c r="A168" s="8" t="s">
         <v>51</v>
       </c>
@@ -6316,10 +6343,12 @@
         <v>208</v>
       </c>
       <c r="C168" s="9"/>
-      <c r="D168" s="19">
-        <v>3</v>
-      </c>
-      <c r="E168" s="19"/>
+      <c r="D168" s="31" t="s">
+        <v>393</v>
+      </c>
+      <c r="E168" s="31" t="s">
+        <v>393</v>
+      </c>
       <c r="F168" s="29"/>
       <c r="G168" s="22"/>
     </row>
@@ -6330,7 +6359,7 @@
       <c r="F169" s="29"/>
       <c r="G169" s="22"/>
     </row>
-    <row r="170" spans="1:7" hidden="1">
+    <row r="170" spans="1:7" collapsed="1">
       <c r="A170" s="8" t="s">
         <v>74</v>
       </c>
@@ -6338,10 +6367,10 @@
         <v>346</v>
       </c>
       <c r="C170" s="9"/>
-      <c r="D170" s="19">
-        <v>3</v>
-      </c>
-      <c r="E170" s="19"/>
+      <c r="D170" s="19"/>
+      <c r="E170" s="31" t="s">
+        <v>393</v>
+      </c>
       <c r="F170" s="29"/>
       <c r="G170" s="22"/>
     </row>
@@ -6351,7 +6380,7 @@
       <c r="F171" s="29"/>
       <c r="G171" s="22"/>
     </row>
-    <row r="172" spans="1:7" hidden="1">
+    <row r="172" spans="1:7" collapsed="1">
       <c r="A172" s="8" t="s">
         <v>103</v>
       </c>
@@ -6359,10 +6388,10 @@
         <v>104</v>
       </c>
       <c r="C172" s="9"/>
-      <c r="D172" s="19">
-        <v>3</v>
-      </c>
-      <c r="E172" s="19"/>
+      <c r="D172" s="19"/>
+      <c r="E172" s="31" t="s">
+        <v>393</v>
+      </c>
       <c r="F172" s="29"/>
       <c r="G172" s="22"/>
     </row>
@@ -6372,7 +6401,7 @@
       <c r="F173" s="29"/>
       <c r="G173" s="22"/>
     </row>
-    <row r="174" spans="1:7" hidden="1">
+    <row r="174" spans="1:7" collapsed="1">
       <c r="A174" s="8" t="s">
         <v>119</v>
       </c>
@@ -6380,10 +6409,10 @@
         <v>120</v>
       </c>
       <c r="C174" s="9"/>
-      <c r="D174" s="19">
-        <v>3</v>
-      </c>
-      <c r="E174" s="19"/>
+      <c r="D174" s="19"/>
+      <c r="E174" s="31" t="s">
+        <v>393</v>
+      </c>
       <c r="F174" s="29"/>
       <c r="G174" s="22"/>
     </row>
@@ -6396,7 +6425,7 @@
       <c r="F175" s="30"/>
       <c r="G175" s="22"/>
     </row>
-    <row r="176" spans="1:7" hidden="1">
+    <row r="176" spans="1:7" collapsed="1">
       <c r="A176" s="8" t="s">
         <v>121</v>
       </c>
@@ -6404,10 +6433,10 @@
         <v>122</v>
       </c>
       <c r="C176" s="9"/>
-      <c r="D176" s="19">
-        <v>3</v>
-      </c>
-      <c r="E176" s="19"/>
+      <c r="D176" s="19"/>
+      <c r="E176" s="31" t="s">
+        <v>393</v>
+      </c>
       <c r="F176" s="29"/>
       <c r="G176" s="22"/>
     </row>
@@ -6428,8 +6457,8 @@
         <v>124</v>
       </c>
       <c r="C178" s="9"/>
-      <c r="D178" s="19">
-        <v>3</v>
+      <c r="D178" s="31" t="s">
+        <v>393</v>
       </c>
       <c r="E178" s="19"/>
       <c r="F178" s="29"/>
@@ -6625,7 +6654,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="190" spans="1:7" hidden="1">
+    <row r="190" spans="1:7" collapsed="1">
       <c r="A190" s="14" t="s">
         <v>205</v>
       </c>
@@ -6633,8 +6662,10 @@
         <v>206</v>
       </c>
       <c r="C190" s="12"/>
-      <c r="D190" s="23"/>
-      <c r="E190" s="28"/>
+      <c r="D190" s="32"/>
+      <c r="E190" s="32" t="s">
+        <v>393</v>
+      </c>
       <c r="F190" s="30"/>
       <c r="G190" s="20"/>
     </row>
@@ -6643,7 +6674,7 @@
       <c r="B191" s="11"/>
       <c r="C191" s="12"/>
       <c r="D191" s="12"/>
-      <c r="E191" s="23" t="s">
+      <c r="E191" s="28" t="s">
         <v>392</v>
       </c>
       <c r="F191" s="30">

--- a/REST API coverage.xlsx
+++ b/REST API coverage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" hidePivotFieldList="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-28800" yWindow="-440" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="-440" windowWidth="51200" windowHeight="28800" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="394">
   <si>
     <t>Access Control</t>
   </si>
@@ -3629,7 +3629,7 @@
   <dimension ref="A1:G212"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="E190" sqref="E190"/>
+      <selection activeCell="C156" sqref="C156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0"/>
@@ -6118,6 +6118,9 @@
       <c r="B154" t="s">
         <v>210</v>
       </c>
+      <c r="C154" s="3" t="s">
+        <v>209</v>
+      </c>
       <c r="D154" s="19">
         <v>1</v>
       </c>
@@ -6134,6 +6137,9 @@
       </c>
       <c r="B155" t="s">
         <v>213</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>209</v>
       </c>
       <c r="D155" s="19">
         <v>1</v>
@@ -6471,7 +6477,9 @@
       <c r="B179" s="11" t="s">
         <v>350</v>
       </c>
-      <c r="C179" s="12"/>
+      <c r="C179" s="12" t="s">
+        <v>209</v>
+      </c>
       <c r="D179" s="23">
         <v>1</v>
       </c>
@@ -6536,7 +6544,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="183" spans="1:7" outlineLevel="1">
+    <row r="183" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A183" s="18" t="s">
         <v>355</v>
       </c>
@@ -6545,11 +6553,9 @@
       </c>
       <c r="C183" s="12"/>
       <c r="D183" s="23">
-        <v>1</v>
-      </c>
-      <c r="E183" s="28" t="s">
-        <v>379</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="E183" s="28"/>
       <c r="F183" s="30">
         <v>4</v>
       </c>

--- a/REST API coverage.xlsx
+++ b/REST API coverage.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
   <workbookPr showInkAnnotation="0" hidePivotFieldList="1" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="-440" windowWidth="51200" windowHeight="28800" tabRatio="500" activeTab="1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="394">
   <si>
     <t>Access Control</t>
   </si>
@@ -1144,15 +1144,9 @@
     <t>2 = Nice to have in splunk-sdk-csharp-2.0.0</t>
   </si>
   <si>
-    <t>4 = Redundant endpoint that we will not support</t>
-  </si>
-  <si>
     <t>Redundant with GET authorization/capabilities</t>
   </si>
   <si>
-    <t>3 = Splunk management API, perhaps code named splunk-management-1.0.0 that I'll argue should be the heart of a set of Windows PowerShell commands for managing Splunk servers</t>
-  </si>
-  <si>
     <t>Alerts related</t>
   </si>
   <si>
@@ -1205,13 +1199,19 @@
   </si>
   <si>
     <t>Area</t>
+  </si>
+  <si>
+    <t>3 = Splunk management API, code named Splunk.Mangement.Automation</t>
+  </si>
+  <si>
+    <t>4 = Unsupported because the endpoint is either redundant or undocumented</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1258,13 +1258,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="7" tint="0.79998168889431442"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1276,13 +1288,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
@@ -1314,11 +1327,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1355,13 +1363,20 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -3126,6 +3141,13 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G191" totalsRowCount="1">
   <autoFilter ref="A1:G190">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="1"/>
+        <filter val="4"/>
+        <filter val="Area"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="4">
       <filters>
         <filter val="Area"/>
@@ -3490,50 +3512,50 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:6">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="23" t="s">
+        <v>379</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="23" t="s">
         <v>381</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B4" t="s">
+        <v>376</v>
+      </c>
+      <c r="C4" t="s">
+        <v>375</v>
+      </c>
+      <c r="D4" t="s">
+        <v>377</v>
+      </c>
+      <c r="E4" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="26" t="s">
+      <c r="F4" t="s">
         <v>383</v>
-      </c>
-      <c r="B4" t="s">
-        <v>378</v>
-      </c>
-      <c r="C4" t="s">
-        <v>377</v>
-      </c>
-      <c r="D4" t="s">
-        <v>379</v>
-      </c>
-      <c r="E4" t="s">
-        <v>384</v>
-      </c>
-      <c r="F4" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="2">
         <v>1</v>
       </c>
-      <c r="B5" s="27">
+      <c r="B5" s="24">
         <v>25</v>
       </c>
-      <c r="C5" s="27">
+      <c r="C5" s="24">
         <v>9</v>
       </c>
-      <c r="D5" s="27">
+      <c r="D5" s="24">
         <v>11</v>
       </c>
-      <c r="E5" s="27">
+      <c r="E5" s="24">
         <v>15</v>
       </c>
-      <c r="F5" s="27">
+      <c r="F5" s="24">
         <v>60</v>
       </c>
     </row>
@@ -3541,13 +3563,13 @@
       <c r="A6" s="2">
         <v>2</v>
       </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27">
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24">
         <v>16</v>
       </c>
-      <c r="F6" s="27">
+      <c r="F6" s="24">
         <v>16</v>
       </c>
     </row>
@@ -3555,13 +3577,13 @@
       <c r="A7" s="2">
         <v>3</v>
       </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27">
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24">
         <v>96</v>
       </c>
-      <c r="F7" s="27">
+      <c r="F7" s="24">
         <v>96</v>
       </c>
     </row>
@@ -3569,47 +3591,47 @@
       <c r="A8" s="2">
         <v>4</v>
       </c>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27">
-        <v>3</v>
-      </c>
-      <c r="F8" s="27">
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24">
+        <v>3</v>
+      </c>
+      <c r="F8" s="24">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27">
+        <v>382</v>
+      </c>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24">
         <v>6</v>
       </c>
-      <c r="F9" s="27">
+      <c r="F9" s="24">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="B10" s="27">
+        <v>383</v>
+      </c>
+      <c r="B10" s="24">
         <v>25</v>
       </c>
-      <c r="C10" s="27">
+      <c r="C10" s="24">
         <v>9</v>
       </c>
-      <c r="D10" s="27">
+      <c r="D10" s="24">
         <v>11</v>
       </c>
-      <c r="E10" s="27">
+      <c r="E10" s="24">
         <v>136</v>
       </c>
-      <c r="F10" s="27">
+      <c r="F10" s="24">
         <v>181</v>
       </c>
     </row>
@@ -3628,15 +3650,13 @@
   <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:G212"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="C156" sqref="C156"/>
-    </sheetView>
+    <sheetView tabSelected="1" showRuler="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="48.83203125" customWidth="1"/>
-    <col min="2" max="2" width="82" customWidth="1"/>
-    <col min="3" max="3" width="8.83203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="157.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.83203125" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.83203125" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.5" bestFit="1" customWidth="1"/>
@@ -3657,10 +3677,10 @@
         <v>4</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="G1" t="s">
         <v>12</v>
@@ -3676,14 +3696,14 @@
       <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="19">
+      <c r="D2" s="16">
         <v>1</v>
       </c>
-      <c r="E2" s="25" t="s">
-        <v>378</v>
-      </c>
-      <c r="F2" s="29"/>
-      <c r="G2" s="20"/>
+      <c r="E2" s="22" t="s">
+        <v>376</v>
+      </c>
+      <c r="F2" s="26"/>
+      <c r="G2" s="17"/>
     </row>
     <row r="3" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A3" s="4" t="s">
@@ -3695,14 +3715,14 @@
       <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="19">
+      <c r="D3" s="16">
         <v>1</v>
       </c>
-      <c r="E3" s="25" t="s">
-        <v>378</v>
-      </c>
-      <c r="F3" s="29"/>
-      <c r="G3" s="20"/>
+      <c r="E3" s="22" t="s">
+        <v>376</v>
+      </c>
+      <c r="F3" s="26"/>
+      <c r="G3" s="17"/>
     </row>
     <row r="4" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A4" s="4" t="s">
@@ -3714,14 +3734,14 @@
       <c r="C4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="19">
+      <c r="D4" s="16">
         <v>1</v>
       </c>
-      <c r="E4" s="25" t="s">
-        <v>378</v>
-      </c>
-      <c r="F4" s="29"/>
-      <c r="G4" s="20"/>
+      <c r="E4" s="22" t="s">
+        <v>376</v>
+      </c>
+      <c r="F4" s="26"/>
+      <c r="G4" s="17"/>
     </row>
     <row r="5" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A5" s="4" t="s">
@@ -3733,14 +3753,14 @@
       <c r="C5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="19">
+      <c r="D5" s="16">
         <v>1</v>
       </c>
-      <c r="E5" s="25" t="s">
-        <v>378</v>
-      </c>
-      <c r="F5" s="29"/>
-      <c r="G5" s="20"/>
+      <c r="E5" s="22" t="s">
+        <v>376</v>
+      </c>
+      <c r="F5" s="26"/>
+      <c r="G5" s="17"/>
     </row>
     <row r="6" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A6" s="4" t="s">
@@ -3752,14 +3772,14 @@
       <c r="C6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="19">
+      <c r="D6" s="16">
         <v>1</v>
       </c>
-      <c r="E6" s="25" t="s">
-        <v>378</v>
-      </c>
-      <c r="F6" s="29"/>
-      <c r="G6" s="20"/>
+      <c r="E6" s="22" t="s">
+        <v>376</v>
+      </c>
+      <c r="F6" s="26"/>
+      <c r="G6" s="17"/>
     </row>
     <row r="7" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A7" s="4" t="s">
@@ -3771,14 +3791,14 @@
       <c r="C7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="19">
+      <c r="D7" s="16">
         <v>1</v>
       </c>
-      <c r="E7" s="25" t="s">
-        <v>378</v>
-      </c>
-      <c r="F7" s="29"/>
-      <c r="G7" s="20"/>
+      <c r="E7" s="22" t="s">
+        <v>376</v>
+      </c>
+      <c r="F7" s="26"/>
+      <c r="G7" s="17"/>
     </row>
     <row r="8" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A8" s="4" t="s">
@@ -3790,14 +3810,14 @@
       <c r="C8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="19">
+      <c r="D8" s="16">
         <v>1</v>
       </c>
-      <c r="E8" s="25" t="s">
-        <v>378</v>
-      </c>
-      <c r="F8" s="29"/>
-      <c r="G8" s="20"/>
+      <c r="E8" s="22" t="s">
+        <v>376</v>
+      </c>
+      <c r="F8" s="26"/>
+      <c r="G8" s="17"/>
     </row>
     <row r="9" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A9" s="7" t="s">
@@ -3809,14 +3829,14 @@
       <c r="C9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="19">
+      <c r="D9" s="16">
         <v>1</v>
       </c>
-      <c r="E9" s="25" t="s">
-        <v>378</v>
-      </c>
-      <c r="F9" s="29"/>
-      <c r="G9" s="20"/>
+      <c r="E9" s="22" t="s">
+        <v>376</v>
+      </c>
+      <c r="F9" s="26"/>
+      <c r="G9" s="17"/>
     </row>
     <row r="10" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A10" s="4" t="s">
@@ -3828,14 +3848,14 @@
       <c r="C10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="19">
+      <c r="D10" s="16">
         <v>1</v>
       </c>
-      <c r="E10" s="25" t="s">
-        <v>378</v>
-      </c>
-      <c r="F10" s="29"/>
-      <c r="G10" s="20"/>
+      <c r="E10" s="22" t="s">
+        <v>376</v>
+      </c>
+      <c r="F10" s="26"/>
+      <c r="G10" s="17"/>
     </row>
     <row r="11" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A11" s="4" t="s">
@@ -3847,17 +3867,17 @@
       <c r="C11" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="19">
+      <c r="D11" s="16">
         <v>1</v>
       </c>
-      <c r="E11" s="25" t="s">
-        <v>378</v>
-      </c>
-      <c r="F11" s="29"/>
-      <c r="G11" s="20"/>
+      <c r="E11" s="22" t="s">
+        <v>376</v>
+      </c>
+      <c r="F11" s="26"/>
+      <c r="G11" s="17"/>
     </row>
     <row r="12" spans="1:7" hidden="1" outlineLevel="1">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="14" t="s">
         <v>95</v>
       </c>
       <c r="B12" s="11" t="s">
@@ -3866,17 +3886,17 @@
       <c r="C12" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="23">
+      <c r="D12" s="20">
         <v>1</v>
       </c>
-      <c r="E12" s="25" t="s">
-        <v>378</v>
-      </c>
-      <c r="F12" s="29"/>
-      <c r="G12" s="22"/>
+      <c r="E12" s="22" t="s">
+        <v>376</v>
+      </c>
+      <c r="F12" s="26"/>
+      <c r="G12" s="19"/>
     </row>
     <row r="13" spans="1:7" hidden="1" outlineLevel="1">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="15" t="s">
         <v>97</v>
       </c>
       <c r="B13" s="11" t="s">
@@ -3885,17 +3905,17 @@
       <c r="C13" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="23">
+      <c r="D13" s="20">
         <v>1</v>
       </c>
-      <c r="E13" s="25" t="s">
-        <v>378</v>
-      </c>
-      <c r="F13" s="29"/>
-      <c r="G13" s="22"/>
+      <c r="E13" s="22" t="s">
+        <v>376</v>
+      </c>
+      <c r="F13" s="26"/>
+      <c r="G13" s="19"/>
     </row>
     <row r="14" spans="1:7" hidden="1" outlineLevel="1">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="15" t="s">
         <v>99</v>
       </c>
       <c r="B14" s="11" t="s">
@@ -3904,29 +3924,31 @@
       <c r="C14" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="23">
+      <c r="D14" s="20">
         <v>1</v>
       </c>
-      <c r="E14" s="25" t="s">
-        <v>378</v>
-      </c>
-      <c r="F14" s="29"/>
-      <c r="G14" s="22"/>
+      <c r="E14" s="22" t="s">
+        <v>376</v>
+      </c>
+      <c r="F14" s="26"/>
+      <c r="G14" s="19"/>
     </row>
     <row r="15" spans="1:7" collapsed="1">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="32" t="s">
-        <v>393</v>
-      </c>
-      <c r="F15" s="30"/>
-      <c r="G15" s="22"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="33" t="s">
+        <v>391</v>
+      </c>
+      <c r="E15" s="33" t="s">
+        <v>391</v>
+      </c>
+      <c r="F15" s="32"/>
+      <c r="G15" s="30"/>
     </row>
     <row r="16" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A16" s="4" t="s">
@@ -3935,12 +3957,12 @@
       <c r="B16" t="s">
         <v>128</v>
       </c>
-      <c r="D16" s="19">
+      <c r="D16" s="16">
         <v>2</v>
       </c>
-      <c r="E16" s="19"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="20"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="17"/>
     </row>
     <row r="17" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A17" s="4" t="s">
@@ -3949,12 +3971,12 @@
       <c r="B17" t="s">
         <v>130</v>
       </c>
-      <c r="D17" s="19">
+      <c r="D17" s="16">
         <v>2</v>
       </c>
-      <c r="E17" s="19"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="20"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="17"/>
     </row>
     <row r="18" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A18" s="4" t="s">
@@ -3963,27 +3985,27 @@
       <c r="B18" t="s">
         <v>132</v>
       </c>
-      <c r="D18" s="19">
+      <c r="D18" s="16">
         <v>2</v>
       </c>
-      <c r="E18" s="19"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="20"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="17"/>
     </row>
     <row r="19" spans="1:7" hidden="1" outlineLevel="1">
-      <c r="A19" s="18" t="s">
+      <c r="A19" s="15" t="s">
         <v>134</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>133</v>
       </c>
       <c r="C19" s="12"/>
-      <c r="D19" s="23">
+      <c r="D19" s="20">
         <v>2</v>
       </c>
-      <c r="E19" s="23"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="22"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="19"/>
     </row>
     <row r="20" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A20" s="4" t="s">
@@ -3992,15 +4014,15 @@
       <c r="B20" t="s">
         <v>136</v>
       </c>
-      <c r="D20" s="19">
+      <c r="D20" s="16">
         <v>2</v>
       </c>
-      <c r="E20" s="19"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="20"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="17"/>
     </row>
     <row r="21" spans="1:7" hidden="1" outlineLevel="1">
-      <c r="A21" s="18" t="s">
+      <c r="A21" s="15" t="s">
         <v>138</v>
       </c>
       <c r="B21" s="11" t="s">
@@ -4009,14 +4031,14 @@
       <c r="C21" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="23">
+      <c r="D21" s="20">
         <v>1</v>
       </c>
-      <c r="E21" s="28" t="s">
-        <v>378</v>
-      </c>
-      <c r="F21" s="30"/>
-      <c r="G21" s="22"/>
+      <c r="E21" s="25" t="s">
+        <v>376</v>
+      </c>
+      <c r="F21" s="27"/>
+      <c r="G21" s="19"/>
     </row>
     <row r="22" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A22" s="4" t="s">
@@ -4028,17 +4050,17 @@
       <c r="C22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D22" s="23">
+      <c r="D22" s="20">
         <v>1</v>
       </c>
-      <c r="E22" s="28" t="s">
-        <v>378</v>
-      </c>
-      <c r="F22" s="30"/>
-      <c r="G22" s="20"/>
+      <c r="E22" s="25" t="s">
+        <v>376</v>
+      </c>
+      <c r="F22" s="27"/>
+      <c r="G22" s="17"/>
     </row>
     <row r="23" spans="1:7" s="10" customFormat="1" hidden="1" outlineLevel="1" collapsed="1">
-      <c r="A23" s="18" t="s">
+      <c r="A23" s="15" t="s">
         <v>141</v>
       </c>
       <c r="B23" s="11" t="s">
@@ -4047,14 +4069,14 @@
       <c r="C23" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D23" s="23">
+      <c r="D23" s="20">
         <v>1</v>
       </c>
-      <c r="E23" s="28" t="s">
-        <v>378</v>
-      </c>
-      <c r="F23" s="30"/>
-      <c r="G23" s="22"/>
+      <c r="E23" s="25" t="s">
+        <v>376</v>
+      </c>
+      <c r="F23" s="27"/>
+      <c r="G23" s="19"/>
     </row>
     <row r="24" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A24" s="4" t="s">
@@ -4066,14 +4088,14 @@
       <c r="C24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D24" s="23">
+      <c r="D24" s="20">
         <v>1</v>
       </c>
-      <c r="E24" s="28" t="s">
-        <v>378</v>
-      </c>
-      <c r="F24" s="30"/>
-      <c r="G24" s="20"/>
+      <c r="E24" s="25" t="s">
+        <v>376</v>
+      </c>
+      <c r="F24" s="27"/>
+      <c r="G24" s="17"/>
     </row>
     <row r="25" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A25" s="4" t="s">
@@ -4085,29 +4107,29 @@
       <c r="C25" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D25" s="23">
+      <c r="D25" s="20">
         <v>1</v>
       </c>
-      <c r="E25" s="28" t="s">
-        <v>378</v>
-      </c>
-      <c r="F25" s="30"/>
-      <c r="G25" s="20"/>
-    </row>
-    <row r="26" spans="1:7" ht="30" hidden="1" outlineLevel="1">
+      <c r="E25" s="25" t="s">
+        <v>376</v>
+      </c>
+      <c r="F25" s="27"/>
+      <c r="G25" s="17"/>
+    </row>
+    <row r="26" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A26" s="4" t="s">
         <v>147</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="D26" s="23">
+      <c r="D26" s="20">
         <v>2</v>
       </c>
-      <c r="E26" s="23"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="20" t="s">
-        <v>376</v>
+      <c r="E26" s="20"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="17" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="27" spans="1:7" hidden="1" outlineLevel="1">
@@ -4120,14 +4142,14 @@
       <c r="C27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D27" s="23">
+      <c r="D27" s="20">
         <v>1</v>
       </c>
-      <c r="E27" s="28" t="s">
-        <v>378</v>
-      </c>
-      <c r="F27" s="30"/>
-      <c r="G27" s="20"/>
+      <c r="E27" s="25" t="s">
+        <v>376</v>
+      </c>
+      <c r="F27" s="27"/>
+      <c r="G27" s="17"/>
     </row>
     <row r="28" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A28" s="4" t="s">
@@ -4139,14 +4161,14 @@
       <c r="C28" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D28" s="23">
+      <c r="D28" s="20">
         <v>1</v>
       </c>
-      <c r="E28" s="28" t="s">
-        <v>378</v>
-      </c>
-      <c r="F28" s="30"/>
-      <c r="G28" s="20"/>
+      <c r="E28" s="25" t="s">
+        <v>376</v>
+      </c>
+      <c r="F28" s="27"/>
+      <c r="G28" s="17"/>
     </row>
     <row r="29" spans="1:7" outlineLevel="1">
       <c r="A29" s="4" t="s">
@@ -4158,19 +4180,19 @@
       <c r="C29" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="D29" s="23">
+      <c r="D29" s="20">
         <v>1</v>
       </c>
-      <c r="E29" s="28" t="s">
-        <v>377</v>
-      </c>
-      <c r="F29" s="30">
+      <c r="E29" s="25" t="s">
+        <v>375</v>
+      </c>
+      <c r="F29" s="27">
         <v>4</v>
       </c>
-      <c r="G29" s="20"/>
+      <c r="G29" s="17"/>
     </row>
     <row r="30" spans="1:7" outlineLevel="1">
-      <c r="A30" s="18" t="s">
+      <c r="A30" s="15" t="s">
         <v>155</v>
       </c>
       <c r="B30" s="11" t="s">
@@ -4179,32 +4201,32 @@
       <c r="C30" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="D30" s="23">
+      <c r="D30" s="20">
         <v>1</v>
       </c>
-      <c r="E30" s="28" t="s">
-        <v>377</v>
-      </c>
-      <c r="F30" s="30">
+      <c r="E30" s="25" t="s">
+        <v>375</v>
+      </c>
+      <c r="F30" s="27">
         <v>4</v>
       </c>
-      <c r="G30" s="22"/>
+      <c r="G30" s="19"/>
     </row>
     <row r="31" spans="1:7" hidden="1" outlineLevel="1">
-      <c r="A31" s="18" t="s">
+      <c r="A31" s="15" t="s">
         <v>158</v>
       </c>
       <c r="B31" s="11" t="s">
         <v>157</v>
       </c>
       <c r="C31" s="12"/>
-      <c r="D31" s="23">
+      <c r="D31" s="20">
         <v>2</v>
       </c>
-      <c r="E31" s="23"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="22" t="s">
-        <v>376</v>
+      <c r="E31" s="20"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="19" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="32" spans="1:7" hidden="1" outlineLevel="1">
@@ -4214,12 +4236,12 @@
       <c r="B32" t="s">
         <v>160</v>
       </c>
-      <c r="D32" s="19">
-        <v>3</v>
-      </c>
-      <c r="E32" s="19"/>
-      <c r="F32" s="29"/>
-      <c r="G32" s="20"/>
+      <c r="D32" s="16">
+        <v>3</v>
+      </c>
+      <c r="E32" s="16"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="17"/>
     </row>
     <row r="33" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A33" s="4" t="s">
@@ -4228,12 +4250,12 @@
       <c r="B33" t="s">
         <v>162</v>
       </c>
-      <c r="D33" s="19">
-        <v>3</v>
-      </c>
-      <c r="E33" s="19"/>
-      <c r="F33" s="29"/>
-      <c r="G33" s="20"/>
+      <c r="D33" s="16">
+        <v>3</v>
+      </c>
+      <c r="E33" s="16"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="17"/>
     </row>
     <row r="34" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A34" s="4" t="s">
@@ -4242,12 +4264,12 @@
       <c r="B34" t="s">
         <v>164</v>
       </c>
-      <c r="D34" s="19">
-        <v>3</v>
-      </c>
-      <c r="E34" s="19"/>
-      <c r="F34" s="29"/>
-      <c r="G34" s="20"/>
+      <c r="D34" s="16">
+        <v>3</v>
+      </c>
+      <c r="E34" s="16"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="17"/>
     </row>
     <row r="35" spans="1:7" s="10" customFormat="1" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A35" s="4" t="s">
@@ -4257,27 +4279,27 @@
         <v>166</v>
       </c>
       <c r="C35" s="3"/>
-      <c r="D35" s="19">
-        <v>3</v>
-      </c>
-      <c r="E35" s="19"/>
-      <c r="F35" s="29"/>
-      <c r="G35" s="20"/>
+      <c r="D35" s="16">
+        <v>3</v>
+      </c>
+      <c r="E35" s="16"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="17"/>
     </row>
     <row r="36" spans="1:7" hidden="1" outlineLevel="1">
-      <c r="A36" s="18" t="s">
+      <c r="A36" s="15" t="s">
         <v>167</v>
       </c>
       <c r="B36" s="11" t="s">
         <v>168</v>
       </c>
       <c r="C36" s="12"/>
-      <c r="D36" s="19">
-        <v>3</v>
-      </c>
-      <c r="E36" s="19"/>
-      <c r="F36" s="29"/>
-      <c r="G36" s="22"/>
+      <c r="D36" s="16">
+        <v>3</v>
+      </c>
+      <c r="E36" s="16"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="19"/>
     </row>
     <row r="37" spans="1:7" s="10" customFormat="1" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A37" s="4" t="s">
@@ -4287,45 +4309,45 @@
         <v>170</v>
       </c>
       <c r="C37" s="3"/>
-      <c r="D37" s="19">
-        <v>3</v>
-      </c>
-      <c r="E37" s="19"/>
-      <c r="F37" s="29"/>
-      <c r="G37" s="20"/>
+      <c r="D37" s="16">
+        <v>3</v>
+      </c>
+      <c r="E37" s="16"/>
+      <c r="F37" s="26"/>
+      <c r="G37" s="17"/>
     </row>
     <row r="38" spans="1:7" hidden="1" outlineLevel="1">
-      <c r="A38" s="18" t="s">
+      <c r="A38" s="15" t="s">
         <v>171</v>
       </c>
       <c r="B38" s="11" t="s">
         <v>172</v>
       </c>
       <c r="C38" s="12"/>
-      <c r="D38" s="19">
-        <v>3</v>
-      </c>
-      <c r="E38" s="19"/>
-      <c r="F38" s="29"/>
-      <c r="G38" s="22"/>
+      <c r="D38" s="16">
+        <v>3</v>
+      </c>
+      <c r="E38" s="16"/>
+      <c r="F38" s="26"/>
+      <c r="G38" s="19"/>
     </row>
     <row r="39" spans="1:7" hidden="1" outlineLevel="1">
-      <c r="A39" s="18" t="s">
+      <c r="A39" s="15" t="s">
         <v>173</v>
       </c>
       <c r="B39" s="11" t="s">
         <v>174</v>
       </c>
       <c r="C39" s="12"/>
-      <c r="D39" s="19">
-        <v>3</v>
-      </c>
-      <c r="E39" s="19"/>
-      <c r="F39" s="29"/>
-      <c r="G39" s="22"/>
+      <c r="D39" s="16">
+        <v>3</v>
+      </c>
+      <c r="E39" s="16"/>
+      <c r="F39" s="26"/>
+      <c r="G39" s="19"/>
     </row>
     <row r="40" spans="1:7" hidden="1" outlineLevel="1">
-      <c r="A40" s="18" t="s">
+      <c r="A40" s="15" t="s">
         <v>175</v>
       </c>
       <c r="B40" s="11" t="s">
@@ -4334,17 +4356,17 @@
       <c r="C40" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D40" s="23">
+      <c r="D40" s="20">
         <v>1</v>
       </c>
-      <c r="E40" s="28" t="s">
-        <v>378</v>
-      </c>
-      <c r="F40" s="30"/>
-      <c r="G40" s="22"/>
+      <c r="E40" s="25" t="s">
+        <v>376</v>
+      </c>
+      <c r="F40" s="27"/>
+      <c r="G40" s="19"/>
     </row>
     <row r="41" spans="1:7" hidden="1" outlineLevel="1">
-      <c r="A41" s="18" t="s">
+      <c r="A41" s="15" t="s">
         <v>177</v>
       </c>
       <c r="B41" s="11" t="s">
@@ -4353,17 +4375,17 @@
       <c r="C41" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D41" s="23">
+      <c r="D41" s="20">
         <v>1</v>
       </c>
-      <c r="E41" s="28" t="s">
-        <v>378</v>
-      </c>
-      <c r="F41" s="30"/>
-      <c r="G41" s="22"/>
+      <c r="E41" s="25" t="s">
+        <v>376</v>
+      </c>
+      <c r="F41" s="27"/>
+      <c r="G41" s="19"/>
     </row>
     <row r="42" spans="1:7" hidden="1" outlineLevel="1">
-      <c r="A42" s="18" t="s">
+      <c r="A42" s="15" t="s">
         <v>179</v>
       </c>
       <c r="B42" s="11" t="s">
@@ -4372,17 +4394,17 @@
       <c r="C42" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D42" s="23">
+      <c r="D42" s="20">
         <v>1</v>
       </c>
-      <c r="E42" s="28" t="s">
-        <v>378</v>
-      </c>
-      <c r="F42" s="30"/>
-      <c r="G42" s="22"/>
+      <c r="E42" s="25" t="s">
+        <v>376</v>
+      </c>
+      <c r="F42" s="27"/>
+      <c r="G42" s="19"/>
     </row>
     <row r="43" spans="1:7" hidden="1" outlineLevel="1">
-      <c r="A43" s="18" t="s">
+      <c r="A43" s="15" t="s">
         <v>181</v>
       </c>
       <c r="B43" s="11" t="s">
@@ -4391,17 +4413,17 @@
       <c r="C43" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D43" s="23">
+      <c r="D43" s="20">
         <v>1</v>
       </c>
-      <c r="E43" s="28" t="s">
-        <v>378</v>
-      </c>
-      <c r="F43" s="30"/>
-      <c r="G43" s="22"/>
+      <c r="E43" s="25" t="s">
+        <v>376</v>
+      </c>
+      <c r="F43" s="27"/>
+      <c r="G43" s="19"/>
     </row>
     <row r="44" spans="1:7" hidden="1" outlineLevel="1">
-      <c r="A44" s="18" t="s">
+      <c r="A44" s="15" t="s">
         <v>183</v>
       </c>
       <c r="B44" s="11" t="s">
@@ -4410,17 +4432,17 @@
       <c r="C44" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D44" s="23">
+      <c r="D44" s="20">
         <v>1</v>
       </c>
-      <c r="E44" s="28" t="s">
-        <v>378</v>
-      </c>
-      <c r="F44" s="30"/>
-      <c r="G44" s="22"/>
+      <c r="E44" s="25" t="s">
+        <v>376</v>
+      </c>
+      <c r="F44" s="27"/>
+      <c r="G44" s="19"/>
     </row>
     <row r="45" spans="1:7" hidden="1" outlineLevel="1">
-      <c r="A45" s="18" t="s">
+      <c r="A45" s="15" t="s">
         <v>185</v>
       </c>
       <c r="B45" s="11" t="s">
@@ -4429,17 +4451,17 @@
       <c r="C45" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D45" s="23">
+      <c r="D45" s="20">
         <v>1</v>
       </c>
-      <c r="E45" s="28" t="s">
-        <v>378</v>
-      </c>
-      <c r="F45" s="30"/>
-      <c r="G45" s="22"/>
+      <c r="E45" s="25" t="s">
+        <v>376</v>
+      </c>
+      <c r="F45" s="27"/>
+      <c r="G45" s="19"/>
     </row>
     <row r="46" spans="1:7" hidden="1" outlineLevel="1">
-      <c r="A46" s="18" t="s">
+      <c r="A46" s="15" t="s">
         <v>187</v>
       </c>
       <c r="B46" s="11" t="s">
@@ -4448,36 +4470,36 @@
       <c r="C46" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D46" s="23">
+      <c r="D46" s="20">
         <v>1</v>
       </c>
-      <c r="E46" s="28" t="s">
-        <v>378</v>
-      </c>
-      <c r="F46" s="30"/>
-      <c r="G46" s="22"/>
+      <c r="E46" s="25" t="s">
+        <v>376</v>
+      </c>
+      <c r="F46" s="27"/>
+      <c r="G46" s="19"/>
     </row>
     <row r="47" spans="1:7" hidden="1" outlineLevel="1">
-      <c r="A47" s="18" t="s">
+      <c r="A47" s="15" t="s">
         <v>189</v>
       </c>
-      <c r="B47" s="16" t="s">
+      <c r="B47" s="13" t="s">
         <v>347</v>
       </c>
       <c r="C47" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D47" s="23">
+      <c r="D47" s="20">
         <v>1</v>
       </c>
-      <c r="E47" s="28" t="s">
-        <v>378</v>
-      </c>
-      <c r="F47" s="30"/>
-      <c r="G47" s="22"/>
+      <c r="E47" s="25" t="s">
+        <v>376</v>
+      </c>
+      <c r="F47" s="27"/>
+      <c r="G47" s="19"/>
     </row>
     <row r="48" spans="1:7" hidden="1" outlineLevel="1">
-      <c r="A48" s="18" t="s">
+      <c r="A48" s="15" t="s">
         <v>190</v>
       </c>
       <c r="B48" s="11" t="s">
@@ -4486,17 +4508,17 @@
       <c r="C48" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D48" s="23">
+      <c r="D48" s="20">
         <v>1</v>
       </c>
-      <c r="E48" s="28" t="s">
-        <v>378</v>
-      </c>
-      <c r="F48" s="30"/>
-      <c r="G48" s="22"/>
+      <c r="E48" s="25" t="s">
+        <v>376</v>
+      </c>
+      <c r="F48" s="27"/>
+      <c r="G48" s="19"/>
     </row>
     <row r="49" spans="1:7" hidden="1" outlineLevel="1">
-      <c r="A49" s="18" t="s">
+      <c r="A49" s="15" t="s">
         <v>191</v>
       </c>
       <c r="B49" s="11" t="s">
@@ -4505,59 +4527,59 @@
       <c r="C49" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D49" s="23">
+      <c r="D49" s="20">
         <v>1</v>
       </c>
-      <c r="E49" s="28" t="s">
-        <v>378</v>
-      </c>
-      <c r="F49" s="30"/>
-      <c r="G49" s="22"/>
+      <c r="E49" s="25" t="s">
+        <v>376</v>
+      </c>
+      <c r="F49" s="27"/>
+      <c r="G49" s="19"/>
     </row>
     <row r="50" spans="1:7" hidden="1" outlineLevel="1">
-      <c r="A50" s="18" t="s">
+      <c r="A50" s="15" t="s">
         <v>193</v>
       </c>
       <c r="B50" s="11" t="s">
         <v>194</v>
       </c>
       <c r="C50" s="12"/>
-      <c r="D50" s="23">
+      <c r="D50" s="20">
         <v>2</v>
       </c>
-      <c r="E50" s="23"/>
-      <c r="F50" s="30"/>
-      <c r="G50" s="22"/>
+      <c r="E50" s="20"/>
+      <c r="F50" s="27"/>
+      <c r="G50" s="19"/>
     </row>
     <row r="51" spans="1:7" s="10" customFormat="1" hidden="1" outlineLevel="1" collapsed="1">
-      <c r="A51" s="18" t="s">
+      <c r="A51" s="15" t="s">
         <v>195</v>
       </c>
       <c r="B51" s="11" t="s">
         <v>196</v>
       </c>
       <c r="C51" s="12"/>
-      <c r="D51" s="23">
+      <c r="D51" s="20">
         <v>2</v>
       </c>
-      <c r="E51" s="23"/>
-      <c r="F51" s="30"/>
-      <c r="G51" s="22"/>
+      <c r="E51" s="20"/>
+      <c r="F51" s="27"/>
+      <c r="G51" s="19"/>
     </row>
     <row r="52" spans="1:7" hidden="1" outlineLevel="1">
-      <c r="A52" s="18" t="s">
+      <c r="A52" s="15" t="s">
         <v>197</v>
       </c>
       <c r="B52" s="11" t="s">
         <v>198</v>
       </c>
       <c r="C52" s="12"/>
-      <c r="D52" s="23">
+      <c r="D52" s="20">
         <v>2</v>
       </c>
-      <c r="E52" s="23"/>
-      <c r="F52" s="30"/>
-      <c r="G52" s="22"/>
+      <c r="E52" s="20"/>
+      <c r="F52" s="27"/>
+      <c r="G52" s="19"/>
     </row>
     <row r="53" spans="1:7" s="10" customFormat="1" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A53" s="4" t="s">
@@ -4567,56 +4589,59 @@
         <v>200</v>
       </c>
       <c r="C53" s="3"/>
-      <c r="D53" s="19">
+      <c r="D53" s="16">
         <v>2</v>
       </c>
-      <c r="E53" s="19"/>
-      <c r="F53" s="29"/>
-      <c r="G53" s="20"/>
+      <c r="E53" s="16"/>
+      <c r="F53" s="26"/>
+      <c r="G53" s="17"/>
     </row>
     <row r="54" spans="1:7" hidden="1" outlineLevel="1">
-      <c r="A54" s="18" t="s">
+      <c r="A54" s="15" t="s">
         <v>201</v>
       </c>
       <c r="B54" s="11" t="s">
         <v>202</v>
       </c>
       <c r="C54" s="12"/>
-      <c r="D54" s="23">
+      <c r="D54" s="20">
         <v>2</v>
       </c>
-      <c r="E54" s="23"/>
-      <c r="F54" s="30"/>
-      <c r="G54" s="22"/>
+      <c r="E54" s="20"/>
+      <c r="F54" s="27"/>
+      <c r="G54" s="19"/>
     </row>
     <row r="55" spans="1:7" hidden="1" outlineLevel="1">
-      <c r="A55" s="18" t="s">
+      <c r="A55" s="15" t="s">
         <v>203</v>
       </c>
       <c r="B55" s="11" t="s">
         <v>204</v>
       </c>
       <c r="C55" s="12"/>
-      <c r="D55" s="23">
+      <c r="D55" s="20">
         <v>2</v>
       </c>
-      <c r="E55" s="23"/>
-      <c r="F55" s="30"/>
-      <c r="G55" s="22"/>
+      <c r="E55" s="20"/>
+      <c r="F55" s="27"/>
+      <c r="G55" s="19"/>
     </row>
     <row r="56" spans="1:7" collapsed="1">
-      <c r="A56" s="8" t="s">
+      <c r="A56" s="29" t="s">
         <v>125</v>
       </c>
-      <c r="B56" s="20" t="s">
+      <c r="B56" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="C56" s="9"/>
-      <c r="E56" s="31" t="s">
-        <v>393</v>
-      </c>
-      <c r="F56" s="29"/>
-      <c r="G56" s="20"/>
+      <c r="C56" s="31"/>
+      <c r="D56" s="33" t="s">
+        <v>391</v>
+      </c>
+      <c r="E56" s="33" t="s">
+        <v>391</v>
+      </c>
+      <c r="F56" s="32"/>
+      <c r="G56" s="30"/>
     </row>
     <row r="57" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A57" s="1" t="s">
@@ -4628,14 +4653,14 @@
       <c r="C57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D57" s="19">
+      <c r="D57" s="16">
         <v>1</v>
       </c>
-      <c r="E57" s="25" t="s">
-        <v>378</v>
-      </c>
-      <c r="F57" s="29"/>
-      <c r="G57" s="20"/>
+      <c r="E57" s="22" t="s">
+        <v>376</v>
+      </c>
+      <c r="F57" s="26"/>
+      <c r="G57" s="17"/>
     </row>
     <row r="58" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A58" s="4" t="s">
@@ -4644,12 +4669,12 @@
       <c r="B58" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D58" s="19">
+      <c r="D58" s="16">
         <v>2</v>
       </c>
-      <c r="E58" s="19"/>
-      <c r="F58" s="29"/>
-      <c r="G58" s="20"/>
+      <c r="E58" s="16"/>
+      <c r="F58" s="26"/>
+      <c r="G58" s="17"/>
     </row>
     <row r="59" spans="1:7" s="10" customFormat="1" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A59" s="4" t="s">
@@ -4659,12 +4684,12 @@
         <v>11</v>
       </c>
       <c r="C59" s="3"/>
-      <c r="D59" s="19">
-        <v>3</v>
-      </c>
-      <c r="E59" s="19"/>
-      <c r="F59" s="29"/>
-      <c r="G59" s="20" t="s">
+      <c r="D59" s="16">
+        <v>3</v>
+      </c>
+      <c r="E59" s="16"/>
+      <c r="F59" s="26"/>
+      <c r="G59" s="17" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4675,12 +4700,12 @@
       <c r="B60" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D60" s="19">
-        <v>3</v>
-      </c>
-      <c r="E60" s="19"/>
-      <c r="F60" s="29"/>
-      <c r="G60" s="20"/>
+      <c r="D60" s="16">
+        <v>3</v>
+      </c>
+      <c r="E60" s="16"/>
+      <c r="F60" s="26"/>
+      <c r="G60" s="17"/>
     </row>
     <row r="61" spans="1:7" s="10" customFormat="1" outlineLevel="1" collapsed="1">
       <c r="A61" s="4" t="s">
@@ -4689,17 +4714,19 @@
       <c r="B61" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C61" s="3"/>
-      <c r="D61" s="19">
+      <c r="C61" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D61" s="16">
         <v>1</v>
       </c>
-      <c r="E61" s="25" t="s">
-        <v>377</v>
-      </c>
-      <c r="F61" s="29">
+      <c r="E61" s="22" t="s">
+        <v>375</v>
+      </c>
+      <c r="F61" s="26">
         <v>4</v>
       </c>
-      <c r="G61" s="20" t="s">
+      <c r="G61" s="17" t="s">
         <v>18</v>
       </c>
     </row>
@@ -4710,12 +4737,12 @@
       <c r="B62" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D62" s="19">
-        <v>3</v>
-      </c>
-      <c r="E62" s="19"/>
-      <c r="F62" s="29"/>
-      <c r="G62" s="20"/>
+      <c r="D62" s="16">
+        <v>3</v>
+      </c>
+      <c r="E62" s="16"/>
+      <c r="F62" s="26"/>
+      <c r="G62" s="17"/>
     </row>
     <row r="63" spans="1:7" s="10" customFormat="1" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A63" s="4" t="s">
@@ -4725,12 +4752,12 @@
         <v>22</v>
       </c>
       <c r="C63" s="3"/>
-      <c r="D63" s="19">
-        <v>3</v>
-      </c>
-      <c r="E63" s="19"/>
-      <c r="F63" s="29"/>
-      <c r="G63" s="20"/>
+      <c r="D63" s="16">
+        <v>3</v>
+      </c>
+      <c r="E63" s="16"/>
+      <c r="F63" s="26"/>
+      <c r="G63" s="17"/>
     </row>
     <row r="64" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A64" s="4" t="s">
@@ -4739,12 +4766,12 @@
       <c r="B64" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D64" s="19">
-        <v>3</v>
-      </c>
-      <c r="E64" s="19"/>
-      <c r="F64" s="29"/>
-      <c r="G64" s="20"/>
+      <c r="D64" s="16">
+        <v>3</v>
+      </c>
+      <c r="E64" s="16"/>
+      <c r="F64" s="26"/>
+      <c r="G64" s="17"/>
     </row>
     <row r="65" spans="1:7" s="10" customFormat="1" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A65" s="4" t="s">
@@ -4754,12 +4781,12 @@
         <v>28</v>
       </c>
       <c r="C65" s="3"/>
-      <c r="D65" s="19">
-        <v>3</v>
-      </c>
-      <c r="E65" s="19"/>
-      <c r="F65" s="29"/>
-      <c r="G65" s="20"/>
+      <c r="D65" s="16">
+        <v>3</v>
+      </c>
+      <c r="E65" s="16"/>
+      <c r="F65" s="26"/>
+      <c r="G65" s="17"/>
     </row>
     <row r="66" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A66" s="4" t="s">
@@ -4768,12 +4795,12 @@
       <c r="B66" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D66" s="19">
-        <v>3</v>
-      </c>
-      <c r="E66" s="19"/>
-      <c r="F66" s="29"/>
-      <c r="G66" s="20"/>
+      <c r="D66" s="16">
+        <v>3</v>
+      </c>
+      <c r="E66" s="16"/>
+      <c r="F66" s="26"/>
+      <c r="G66" s="17"/>
     </row>
     <row r="67" spans="1:7" s="10" customFormat="1" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A67" s="4" t="s">
@@ -4783,12 +4810,12 @@
         <v>30</v>
       </c>
       <c r="C67" s="3"/>
-      <c r="D67" s="19">
-        <v>3</v>
-      </c>
-      <c r="E67" s="19"/>
-      <c r="F67" s="29"/>
-      <c r="G67" s="20"/>
+      <c r="D67" s="16">
+        <v>3</v>
+      </c>
+      <c r="E67" s="16"/>
+      <c r="F67" s="26"/>
+      <c r="G67" s="17"/>
     </row>
     <row r="68" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A68" s="4" t="s">
@@ -4797,12 +4824,12 @@
       <c r="B68" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D68" s="19">
-        <v>3</v>
-      </c>
-      <c r="E68" s="19"/>
-      <c r="F68" s="29"/>
-      <c r="G68" s="20"/>
+      <c r="D68" s="16">
+        <v>3</v>
+      </c>
+      <c r="E68" s="16"/>
+      <c r="F68" s="26"/>
+      <c r="G68" s="17"/>
     </row>
     <row r="69" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A69" s="4" t="s">
@@ -4811,13 +4838,13 @@
       <c r="B69" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D69" s="19">
+      <c r="D69" s="16">
         <v>4</v>
       </c>
-      <c r="E69" s="19"/>
-      <c r="F69" s="29"/>
-      <c r="G69" s="20" t="s">
-        <v>374</v>
+      <c r="E69" s="16"/>
+      <c r="F69" s="26"/>
+      <c r="G69" s="17" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="70" spans="1:7" hidden="1" outlineLevel="1">
@@ -4827,12 +4854,12 @@
       <c r="B70" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D70" s="19">
-        <v>3</v>
-      </c>
-      <c r="E70" s="19"/>
-      <c r="F70" s="29"/>
-      <c r="G70" s="20"/>
+      <c r="D70" s="16">
+        <v>3</v>
+      </c>
+      <c r="E70" s="16"/>
+      <c r="F70" s="26"/>
+      <c r="G70" s="17"/>
     </row>
     <row r="71" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A71" s="4" t="s">
@@ -4841,12 +4868,12 @@
       <c r="B71" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D71" s="19">
-        <v>3</v>
-      </c>
-      <c r="E71" s="19"/>
-      <c r="F71" s="29"/>
-      <c r="G71" s="20"/>
+      <c r="D71" s="16">
+        <v>3</v>
+      </c>
+      <c r="E71" s="16"/>
+      <c r="F71" s="26"/>
+      <c r="G71" s="17"/>
     </row>
     <row r="72" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A72" s="4" t="s">
@@ -4855,12 +4882,12 @@
       <c r="B72" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D72" s="19">
-        <v>3</v>
-      </c>
-      <c r="E72" s="19"/>
-      <c r="F72" s="29"/>
-      <c r="G72" s="20"/>
+      <c r="D72" s="16">
+        <v>3</v>
+      </c>
+      <c r="E72" s="16"/>
+      <c r="F72" s="26"/>
+      <c r="G72" s="17"/>
     </row>
     <row r="73" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A73" s="4" t="s">
@@ -4869,12 +4896,12 @@
       <c r="B73" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D73" s="19">
-        <v>3</v>
-      </c>
-      <c r="E73" s="19"/>
-      <c r="F73" s="29"/>
-      <c r="G73" s="20"/>
+      <c r="D73" s="16">
+        <v>3</v>
+      </c>
+      <c r="E73" s="16"/>
+      <c r="F73" s="26"/>
+      <c r="G73" s="17"/>
     </row>
     <row r="74" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A74" s="4" t="s">
@@ -4883,12 +4910,12 @@
       <c r="B74" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D74" s="19">
-        <v>3</v>
-      </c>
-      <c r="E74" s="19"/>
-      <c r="F74" s="29"/>
-      <c r="G74" s="20"/>
+      <c r="D74" s="16">
+        <v>3</v>
+      </c>
+      <c r="E74" s="16"/>
+      <c r="F74" s="26"/>
+      <c r="G74" s="17"/>
     </row>
     <row r="75" spans="1:7" outlineLevel="1">
       <c r="A75" s="4" t="s">
@@ -4897,17 +4924,20 @@
       <c r="B75" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D75" s="19">
+      <c r="C75" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D75" s="16">
         <v>1</v>
       </c>
-      <c r="E75" s="25" t="s">
-        <v>379</v>
-      </c>
-      <c r="F75" s="29">
+      <c r="E75" s="22" t="s">
+        <v>377</v>
+      </c>
+      <c r="F75" s="26">
         <v>4</v>
       </c>
-      <c r="G75" s="20" t="s">
-        <v>389</v>
+      <c r="G75" s="17" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="76" spans="1:7" outlineLevel="1">
@@ -4917,16 +4947,19 @@
       <c r="B76" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D76" s="19">
+      <c r="C76" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D76" s="16">
         <v>1</v>
       </c>
-      <c r="E76" s="25" t="s">
-        <v>379</v>
-      </c>
-      <c r="F76" s="29">
+      <c r="E76" s="22" t="s">
+        <v>377</v>
+      </c>
+      <c r="F76" s="26">
         <v>4</v>
       </c>
-      <c r="G76" s="20"/>
+      <c r="G76" s="17"/>
     </row>
     <row r="77" spans="1:7" outlineLevel="1">
       <c r="A77" s="4" t="s">
@@ -4935,34 +4968,40 @@
       <c r="B77" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D77" s="19">
+      <c r="C77" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D77" s="16">
         <v>1</v>
       </c>
-      <c r="E77" s="25" t="s">
-        <v>379</v>
-      </c>
-      <c r="F77" s="29">
+      <c r="E77" s="22" t="s">
+        <v>377</v>
+      </c>
+      <c r="F77" s="26">
         <v>4</v>
       </c>
-      <c r="G77" s="20"/>
+      <c r="G77" s="17"/>
     </row>
     <row r="78" spans="1:7" outlineLevel="1">
       <c r="A78" s="4" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="D78" s="19">
+        <v>386</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D78" s="16">
         <v>1</v>
       </c>
-      <c r="E78" s="25" t="s">
-        <v>379</v>
-      </c>
-      <c r="F78" s="29">
+      <c r="E78" s="22" t="s">
+        <v>377</v>
+      </c>
+      <c r="F78" s="26">
         <v>2</v>
       </c>
-      <c r="G78" s="20"/>
+      <c r="G78" s="17"/>
     </row>
     <row r="79" spans="1:7" outlineLevel="1">
       <c r="A79" s="4" t="s">
@@ -4971,32 +5010,38 @@
       <c r="B79" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D79" s="19">
+      <c r="C79" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D79" s="16">
         <v>1</v>
       </c>
-      <c r="E79" s="25" t="s">
-        <v>379</v>
-      </c>
-      <c r="F79" s="29">
+      <c r="E79" s="22" t="s">
+        <v>377</v>
+      </c>
+      <c r="F79" s="26">
         <v>2</v>
       </c>
-      <c r="G79" s="20"/>
+      <c r="G79" s="17"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="8" t="s">
+      <c r="A80" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B80" s="20" t="s">
+      <c r="B80" s="30" t="s">
         <v>207</v>
       </c>
-      <c r="C80" s="9"/>
-      <c r="E80" s="31" t="s">
-        <v>393</v>
-      </c>
-      <c r="F80" s="29"/>
-      <c r="G80" s="20"/>
-    </row>
-    <row r="81" spans="1:7" hidden="1" outlineLevel="1">
+      <c r="C80" s="31"/>
+      <c r="D80" s="33" t="s">
+        <v>391</v>
+      </c>
+      <c r="E80" s="33" t="s">
+        <v>391</v>
+      </c>
+      <c r="F80" s="32"/>
+      <c r="G80" s="30"/>
+    </row>
+    <row r="81" spans="1:7" outlineLevel="1">
       <c r="A81" s="4" t="s">
         <v>108</v>
       </c>
@@ -5006,17 +5051,17 @@
       <c r="C81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D81" s="19">
+      <c r="D81" s="16">
         <v>1</v>
       </c>
-      <c r="E81" s="25" t="s">
-        <v>378</v>
-      </c>
-      <c r="F81" s="29"/>
-      <c r="G81" s="20"/>
-    </row>
-    <row r="82" spans="1:7" hidden="1" outlineLevel="1">
-      <c r="A82" s="18" t="s">
+      <c r="E81" s="22" t="s">
+        <v>376</v>
+      </c>
+      <c r="F81" s="26"/>
+      <c r="G81" s="17"/>
+    </row>
+    <row r="82" spans="1:7" outlineLevel="1">
+      <c r="A82" s="15" t="s">
         <v>109</v>
       </c>
       <c r="B82" s="11" t="s">
@@ -5025,17 +5070,17 @@
       <c r="C82" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D82" s="19">
+      <c r="D82" s="16">
         <v>1</v>
       </c>
-      <c r="E82" s="25" t="s">
-        <v>378</v>
-      </c>
-      <c r="F82" s="29"/>
-      <c r="G82" s="22"/>
-    </row>
-    <row r="83" spans="1:7" hidden="1" outlineLevel="1">
-      <c r="A83" s="18" t="s">
+      <c r="E82" s="22" t="s">
+        <v>376</v>
+      </c>
+      <c r="F82" s="26"/>
+      <c r="G82" s="19"/>
+    </row>
+    <row r="83" spans="1:7" outlineLevel="1">
+      <c r="A83" s="15" t="s">
         <v>111</v>
       </c>
       <c r="B83" s="11" t="s">
@@ -5044,16 +5089,16 @@
       <c r="C83" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D83" s="19">
+      <c r="D83" s="16">
         <v>1</v>
       </c>
-      <c r="E83" s="25" t="s">
-        <v>378</v>
-      </c>
-      <c r="F83" s="29"/>
-      <c r="G83" s="22"/>
-    </row>
-    <row r="84" spans="1:7" hidden="1" outlineLevel="1">
+      <c r="E83" s="22" t="s">
+        <v>376</v>
+      </c>
+      <c r="F83" s="26"/>
+      <c r="G83" s="19"/>
+    </row>
+    <row r="84" spans="1:7" outlineLevel="1">
       <c r="A84" s="4" t="s">
         <v>113</v>
       </c>
@@ -5063,16 +5108,16 @@
       <c r="C84" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D84" s="19">
+      <c r="D84" s="16">
         <v>1</v>
       </c>
-      <c r="E84" s="25" t="s">
-        <v>378</v>
-      </c>
-      <c r="F84" s="29"/>
-      <c r="G84" s="20"/>
-    </row>
-    <row r="85" spans="1:7" hidden="1" outlineLevel="1">
+      <c r="E84" s="22" t="s">
+        <v>376</v>
+      </c>
+      <c r="F84" s="26"/>
+      <c r="G84" s="17"/>
+    </row>
+    <row r="85" spans="1:7" outlineLevel="1">
       <c r="A85" s="4" t="s">
         <v>115</v>
       </c>
@@ -5082,1034 +5127,1036 @@
       <c r="C85" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D85" s="19">
+      <c r="D85" s="16">
         <v>1</v>
       </c>
-      <c r="E85" s="25" t="s">
-        <v>378</v>
-      </c>
-      <c r="F85" s="29"/>
-      <c r="G85" s="20"/>
-    </row>
-    <row r="86" spans="1:7" collapsed="1">
-      <c r="A86" s="8" t="s">
+      <c r="E85" s="22" t="s">
+        <v>376</v>
+      </c>
+      <c r="F85" s="26"/>
+      <c r="G85" s="17"/>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="B86" s="20" t="s">
+      <c r="B86" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="C86" s="9"/>
-      <c r="D86" s="19"/>
-      <c r="E86" s="32" t="s">
-        <v>393</v>
-      </c>
-      <c r="F86" s="29"/>
-      <c r="G86" s="20"/>
+      <c r="C86" s="31"/>
+      <c r="D86" s="33" t="s">
+        <v>391</v>
+      </c>
+      <c r="E86" s="33" t="s">
+        <v>391</v>
+      </c>
+      <c r="F86" s="32"/>
+      <c r="G86" s="30"/>
     </row>
     <row r="87" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A87" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="B87" s="20" t="s">
+      <c r="B87" s="17" t="s">
         <v>343</v>
       </c>
       <c r="C87" s="9"/>
-      <c r="D87" s="19">
-        <v>3</v>
-      </c>
-      <c r="E87" s="19"/>
-      <c r="F87" s="29"/>
-      <c r="G87" s="20"/>
+      <c r="D87" s="16">
+        <v>3</v>
+      </c>
+      <c r="E87" s="16"/>
+      <c r="F87" s="26"/>
+      <c r="G87" s="17"/>
     </row>
     <row r="88" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A88" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="B88" s="20" t="s">
+      <c r="B88" s="17" t="s">
         <v>345</v>
       </c>
       <c r="C88" s="9"/>
-      <c r="D88" s="19">
-        <v>3</v>
-      </c>
-      <c r="E88" s="19"/>
-      <c r="F88" s="29"/>
-      <c r="G88" s="20"/>
+      <c r="D88" s="16">
+        <v>3</v>
+      </c>
+      <c r="E88" s="16"/>
+      <c r="F88" s="26"/>
+      <c r="G88" s="17"/>
     </row>
     <row r="89" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A89" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="B89" s="20" t="s">
+      <c r="B89" s="17" t="s">
         <v>337</v>
       </c>
       <c r="C89" s="9"/>
-      <c r="D89" s="19">
-        <v>3</v>
-      </c>
-      <c r="E89" s="19"/>
-      <c r="F89" s="29"/>
-      <c r="G89" s="20"/>
+      <c r="D89" s="16">
+        <v>3</v>
+      </c>
+      <c r="E89" s="16"/>
+      <c r="F89" s="26"/>
+      <c r="G89" s="17"/>
     </row>
     <row r="90" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A90" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="B90" s="20" t="s">
+      <c r="B90" s="17" t="s">
         <v>339</v>
       </c>
       <c r="C90" s="9"/>
-      <c r="D90" s="19">
-        <v>3</v>
-      </c>
-      <c r="E90" s="19"/>
-      <c r="F90" s="29"/>
-      <c r="G90" s="20"/>
+      <c r="D90" s="16">
+        <v>3</v>
+      </c>
+      <c r="E90" s="16"/>
+      <c r="F90" s="26"/>
+      <c r="G90" s="17"/>
     </row>
     <row r="91" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A91" s="4" t="s">
         <v>340</v>
       </c>
-      <c r="B91" s="20" t="s">
+      <c r="B91" s="17" t="s">
         <v>341</v>
       </c>
       <c r="C91" s="9"/>
-      <c r="D91" s="19">
-        <v>3</v>
-      </c>
-      <c r="E91" s="19"/>
-      <c r="F91" s="29"/>
-      <c r="G91" s="20"/>
+      <c r="D91" s="16">
+        <v>3</v>
+      </c>
+      <c r="E91" s="16"/>
+      <c r="F91" s="26"/>
+      <c r="G91" s="17"/>
     </row>
     <row r="92" spans="1:7" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A92" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="B92" s="20" t="s">
+      <c r="B92" s="17" t="s">
         <v>335</v>
       </c>
       <c r="C92" s="9"/>
-      <c r="D92" s="19">
-        <v>3</v>
-      </c>
-      <c r="E92" s="19"/>
-      <c r="F92" s="29"/>
-      <c r="G92" s="20"/>
+      <c r="D92" s="16">
+        <v>3</v>
+      </c>
+      <c r="E92" s="16"/>
+      <c r="F92" s="26"/>
+      <c r="G92" s="17"/>
     </row>
     <row r="93" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A93" s="4" t="s">
         <v>332</v>
       </c>
-      <c r="B93" s="20" t="s">
+      <c r="B93" s="17" t="s">
         <v>333</v>
       </c>
       <c r="C93" s="9"/>
-      <c r="D93" s="19">
-        <v>3</v>
-      </c>
-      <c r="E93" s="19"/>
-      <c r="F93" s="29"/>
-      <c r="G93" s="20"/>
+      <c r="D93" s="16">
+        <v>3</v>
+      </c>
+      <c r="E93" s="16"/>
+      <c r="F93" s="26"/>
+      <c r="G93" s="17"/>
     </row>
     <row r="94" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A94" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="B94" s="20" t="s">
+      <c r="B94" s="17" t="s">
         <v>329</v>
       </c>
       <c r="C94" s="9"/>
-      <c r="D94" s="19">
-        <v>3</v>
-      </c>
-      <c r="E94" s="19"/>
-      <c r="F94" s="29"/>
-      <c r="G94" s="20"/>
+      <c r="D94" s="16">
+        <v>3</v>
+      </c>
+      <c r="E94" s="16"/>
+      <c r="F94" s="26"/>
+      <c r="G94" s="17"/>
     </row>
     <row r="95" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A95" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="B95" s="20" t="s">
+      <c r="B95" s="17" t="s">
         <v>331</v>
       </c>
       <c r="C95" s="9"/>
-      <c r="D95" s="19">
-        <v>3</v>
-      </c>
-      <c r="E95" s="19"/>
-      <c r="F95" s="29"/>
-      <c r="G95" s="20"/>
+      <c r="D95" s="16">
+        <v>3</v>
+      </c>
+      <c r="E95" s="16"/>
+      <c r="F95" s="26"/>
+      <c r="G95" s="17"/>
     </row>
     <row r="96" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A96" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="B96" s="20" t="s">
+      <c r="B96" s="17" t="s">
         <v>323</v>
       </c>
       <c r="C96" s="9"/>
-      <c r="D96" s="19">
-        <v>3</v>
-      </c>
-      <c r="E96" s="19"/>
-      <c r="F96" s="29"/>
-      <c r="G96" s="20"/>
+      <c r="D96" s="16">
+        <v>3</v>
+      </c>
+      <c r="E96" s="16"/>
+      <c r="F96" s="26"/>
+      <c r="G96" s="17"/>
     </row>
     <row r="97" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A97" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="B97" s="20" t="s">
+      <c r="B97" s="17" t="s">
         <v>325</v>
       </c>
       <c r="C97" s="9"/>
-      <c r="D97" s="19">
-        <v>3</v>
-      </c>
-      <c r="E97" s="19"/>
-      <c r="F97" s="29"/>
-      <c r="G97" s="20"/>
+      <c r="D97" s="16">
+        <v>3</v>
+      </c>
+      <c r="E97" s="16"/>
+      <c r="F97" s="26"/>
+      <c r="G97" s="17"/>
     </row>
     <row r="98" spans="1:7" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A98" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="B98" s="20" t="s">
+      <c r="B98" s="17" t="s">
         <v>327</v>
       </c>
       <c r="C98" s="9"/>
-      <c r="D98" s="19">
-        <v>3</v>
-      </c>
-      <c r="E98" s="19"/>
-      <c r="F98" s="29"/>
-      <c r="G98" s="20"/>
+      <c r="D98" s="16">
+        <v>3</v>
+      </c>
+      <c r="E98" s="16"/>
+      <c r="F98" s="26"/>
+      <c r="G98" s="17"/>
     </row>
     <row r="99" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A99" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="B99" s="20" t="s">
+      <c r="B99" s="17" t="s">
         <v>321</v>
       </c>
       <c r="C99" s="9"/>
-      <c r="D99" s="19">
-        <v>3</v>
-      </c>
-      <c r="E99" s="19"/>
-      <c r="F99" s="29"/>
-      <c r="G99" s="20"/>
+      <c r="D99" s="16">
+        <v>3</v>
+      </c>
+      <c r="E99" s="16"/>
+      <c r="F99" s="26"/>
+      <c r="G99" s="17"/>
     </row>
     <row r="100" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A100" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="B100" s="20" t="s">
+      <c r="B100" s="17" t="s">
         <v>317</v>
       </c>
       <c r="C100" s="9"/>
-      <c r="D100" s="19">
-        <v>3</v>
-      </c>
-      <c r="E100" s="19"/>
-      <c r="F100" s="29"/>
-      <c r="G100" s="20"/>
+      <c r="D100" s="16">
+        <v>3</v>
+      </c>
+      <c r="E100" s="16"/>
+      <c r="F100" s="26"/>
+      <c r="G100" s="17"/>
     </row>
     <row r="101" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A101" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="B101" s="20" t="s">
+      <c r="B101" s="17" t="s">
         <v>319</v>
       </c>
       <c r="C101" s="9"/>
-      <c r="D101" s="19">
-        <v>3</v>
-      </c>
-      <c r="E101" s="19"/>
-      <c r="F101" s="29"/>
-      <c r="G101" s="20"/>
+      <c r="D101" s="16">
+        <v>3</v>
+      </c>
+      <c r="E101" s="16"/>
+      <c r="F101" s="26"/>
+      <c r="G101" s="17"/>
     </row>
     <row r="102" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A102" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="B102" s="20" t="s">
+      <c r="B102" s="17" t="s">
         <v>315</v>
       </c>
       <c r="C102" s="9"/>
-      <c r="D102" s="19">
-        <v>3</v>
-      </c>
-      <c r="E102" s="19"/>
-      <c r="F102" s="29"/>
-      <c r="G102" s="20"/>
+      <c r="D102" s="16">
+        <v>3</v>
+      </c>
+      <c r="E102" s="16"/>
+      <c r="F102" s="26"/>
+      <c r="G102" s="17"/>
     </row>
     <row r="103" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A103" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="B103" s="20" t="s">
+      <c r="B103" s="17" t="s">
         <v>313</v>
       </c>
       <c r="C103" s="9"/>
-      <c r="D103" s="19">
-        <v>3</v>
-      </c>
-      <c r="E103" s="19"/>
-      <c r="F103" s="29"/>
-      <c r="G103" s="20"/>
+      <c r="D103" s="16">
+        <v>3</v>
+      </c>
+      <c r="E103" s="16"/>
+      <c r="F103" s="26"/>
+      <c r="G103" s="17"/>
     </row>
     <row r="104" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A104" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="B104" s="20" t="s">
+      <c r="B104" s="17" t="s">
         <v>311</v>
       </c>
       <c r="C104" s="9"/>
-      <c r="D104" s="19">
-        <v>3</v>
-      </c>
-      <c r="E104" s="19"/>
-      <c r="F104" s="29"/>
-      <c r="G104" s="20"/>
+      <c r="D104" s="16">
+        <v>3</v>
+      </c>
+      <c r="E104" s="16"/>
+      <c r="F104" s="26"/>
+      <c r="G104" s="17"/>
     </row>
     <row r="105" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A105" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="B105" s="20" t="s">
+      <c r="B105" s="17" t="s">
         <v>313</v>
       </c>
       <c r="C105" s="9"/>
-      <c r="D105" s="19">
-        <v>3</v>
-      </c>
-      <c r="E105" s="19"/>
-      <c r="F105" s="29"/>
-      <c r="G105" s="20"/>
+      <c r="D105" s="16">
+        <v>3</v>
+      </c>
+      <c r="E105" s="16"/>
+      <c r="F105" s="26"/>
+      <c r="G105" s="17"/>
     </row>
     <row r="106" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A106" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="B106" s="20" t="s">
+      <c r="B106" s="17" t="s">
         <v>305</v>
       </c>
       <c r="C106" s="9"/>
-      <c r="D106" s="19">
-        <v>3</v>
-      </c>
-      <c r="E106" s="19"/>
-      <c r="F106" s="29"/>
-      <c r="G106" s="20"/>
+      <c r="D106" s="16">
+        <v>3</v>
+      </c>
+      <c r="E106" s="16"/>
+      <c r="F106" s="26"/>
+      <c r="G106" s="17"/>
     </row>
     <row r="107" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A107" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="B107" s="20" t="s">
+      <c r="B107" s="17" t="s">
         <v>307</v>
       </c>
       <c r="C107" s="9"/>
-      <c r="D107" s="19">
-        <v>3</v>
-      </c>
-      <c r="E107" s="19"/>
-      <c r="F107" s="29"/>
-      <c r="G107" s="20"/>
+      <c r="D107" s="16">
+        <v>3</v>
+      </c>
+      <c r="E107" s="16"/>
+      <c r="F107" s="26"/>
+      <c r="G107" s="17"/>
     </row>
     <row r="108" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A108" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="B108" s="20" t="s">
+      <c r="B108" s="17" t="s">
         <v>309</v>
       </c>
       <c r="C108" s="9"/>
-      <c r="D108" s="19">
-        <v>3</v>
-      </c>
-      <c r="E108" s="19"/>
-      <c r="F108" s="29"/>
-      <c r="G108" s="20"/>
+      <c r="D108" s="16">
+        <v>3</v>
+      </c>
+      <c r="E108" s="16"/>
+      <c r="F108" s="26"/>
+      <c r="G108" s="17"/>
     </row>
     <row r="109" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A109" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="B109" s="20" t="s">
+      <c r="B109" s="17" t="s">
         <v>301</v>
       </c>
       <c r="C109" s="9"/>
-      <c r="D109" s="19">
-        <v>3</v>
-      </c>
-      <c r="E109" s="19"/>
-      <c r="F109" s="29"/>
-      <c r="G109" s="20"/>
+      <c r="D109" s="16">
+        <v>3</v>
+      </c>
+      <c r="E109" s="16"/>
+      <c r="F109" s="26"/>
+      <c r="G109" s="17"/>
     </row>
     <row r="110" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A110" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="B110" s="20" t="s">
+      <c r="B110" s="17" t="s">
         <v>303</v>
       </c>
       <c r="C110" s="9"/>
-      <c r="D110" s="19">
-        <v>3</v>
-      </c>
-      <c r="E110" s="19"/>
-      <c r="F110" s="29"/>
-      <c r="G110" s="20"/>
+      <c r="D110" s="16">
+        <v>3</v>
+      </c>
+      <c r="E110" s="16"/>
+      <c r="F110" s="26"/>
+      <c r="G110" s="17"/>
     </row>
     <row r="111" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A111" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="B111" s="20" t="s">
+      <c r="B111" s="17" t="s">
         <v>299</v>
       </c>
       <c r="C111" s="9"/>
-      <c r="D111" s="19">
-        <v>3</v>
-      </c>
-      <c r="E111" s="19"/>
-      <c r="F111" s="29"/>
-      <c r="G111" s="20"/>
+      <c r="D111" s="16">
+        <v>3</v>
+      </c>
+      <c r="E111" s="16"/>
+      <c r="F111" s="26"/>
+      <c r="G111" s="17"/>
     </row>
     <row r="112" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A112" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="B112" s="20" t="s">
+      <c r="B112" s="17" t="s">
         <v>293</v>
       </c>
       <c r="C112" s="9"/>
-      <c r="D112" s="19">
-        <v>3</v>
-      </c>
-      <c r="E112" s="19"/>
-      <c r="F112" s="29"/>
-      <c r="G112" s="20"/>
+      <c r="D112" s="16">
+        <v>3</v>
+      </c>
+      <c r="E112" s="16"/>
+      <c r="F112" s="26"/>
+      <c r="G112" s="17"/>
     </row>
     <row r="113" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A113" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="B113" s="20" t="s">
+      <c r="B113" s="17" t="s">
         <v>295</v>
       </c>
       <c r="C113" s="9"/>
-      <c r="D113" s="19">
-        <v>3</v>
-      </c>
-      <c r="E113" s="19"/>
-      <c r="F113" s="29"/>
-      <c r="G113" s="20"/>
+      <c r="D113" s="16">
+        <v>3</v>
+      </c>
+      <c r="E113" s="16"/>
+      <c r="F113" s="26"/>
+      <c r="G113" s="17"/>
     </row>
     <row r="114" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A114" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="B114" s="20" t="s">
+      <c r="B114" s="17" t="s">
         <v>297</v>
       </c>
       <c r="C114" s="9"/>
-      <c r="D114" s="19">
-        <v>3</v>
-      </c>
-      <c r="E114" s="19"/>
-      <c r="F114" s="29"/>
-      <c r="G114" s="20"/>
+      <c r="D114" s="16">
+        <v>3</v>
+      </c>
+      <c r="E114" s="16"/>
+      <c r="F114" s="26"/>
+      <c r="G114" s="17"/>
     </row>
     <row r="115" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A115" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="B115" s="20" t="s">
+      <c r="B115" s="17" t="s">
         <v>289</v>
       </c>
       <c r="C115" s="9"/>
-      <c r="D115" s="19">
-        <v>3</v>
-      </c>
-      <c r="E115" s="19"/>
-      <c r="F115" s="29"/>
-      <c r="G115" s="20"/>
+      <c r="D115" s="16">
+        <v>3</v>
+      </c>
+      <c r="E115" s="16"/>
+      <c r="F115" s="26"/>
+      <c r="G115" s="17"/>
     </row>
     <row r="116" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A116" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="B116" s="20" t="s">
+      <c r="B116" s="17" t="s">
         <v>291</v>
       </c>
       <c r="C116" s="9"/>
-      <c r="D116" s="19">
-        <v>3</v>
-      </c>
-      <c r="E116" s="19"/>
-      <c r="F116" s="29"/>
-      <c r="G116" s="20"/>
+      <c r="D116" s="16">
+        <v>3</v>
+      </c>
+      <c r="E116" s="16"/>
+      <c r="F116" s="26"/>
+      <c r="G116" s="17"/>
     </row>
     <row r="117" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A117" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="B117" s="20" t="s">
+      <c r="B117" s="17" t="s">
         <v>283</v>
       </c>
       <c r="C117" s="9"/>
-      <c r="D117" s="19">
-        <v>3</v>
-      </c>
-      <c r="E117" s="19"/>
-      <c r="F117" s="29"/>
-      <c r="G117" s="20"/>
+      <c r="D117" s="16">
+        <v>3</v>
+      </c>
+      <c r="E117" s="16"/>
+      <c r="F117" s="26"/>
+      <c r="G117" s="17"/>
     </row>
     <row r="118" spans="1:7" s="10" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A118" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="B118" s="20" t="s">
+      <c r="B118" s="17" t="s">
         <v>285</v>
       </c>
       <c r="C118" s="9"/>
-      <c r="D118" s="19">
-        <v>3</v>
-      </c>
-      <c r="E118" s="19"/>
-      <c r="F118" s="29"/>
-      <c r="G118" s="20"/>
+      <c r="D118" s="16">
+        <v>3</v>
+      </c>
+      <c r="E118" s="16"/>
+      <c r="F118" s="26"/>
+      <c r="G118" s="17"/>
     </row>
     <row r="119" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A119" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="B119" s="20" t="s">
+      <c r="B119" s="17" t="s">
         <v>287</v>
       </c>
       <c r="C119" s="9"/>
-      <c r="D119" s="19">
-        <v>3</v>
-      </c>
-      <c r="E119" s="19"/>
-      <c r="F119" s="29"/>
-      <c r="G119" s="20"/>
+      <c r="D119" s="16">
+        <v>3</v>
+      </c>
+      <c r="E119" s="16"/>
+      <c r="F119" s="26"/>
+      <c r="G119" s="17"/>
     </row>
     <row r="120" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A120" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="B120" s="20" t="s">
+      <c r="B120" s="17" t="s">
         <v>281</v>
       </c>
       <c r="C120" s="9"/>
-      <c r="D120" s="19">
-        <v>3</v>
-      </c>
-      <c r="E120" s="19"/>
-      <c r="F120" s="29"/>
-      <c r="G120" s="20"/>
+      <c r="D120" s="16">
+        <v>3</v>
+      </c>
+      <c r="E120" s="16"/>
+      <c r="F120" s="26"/>
+      <c r="G120" s="17"/>
     </row>
     <row r="121" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A121" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="B121" s="20" t="s">
+      <c r="B121" s="17" t="s">
         <v>277</v>
       </c>
       <c r="C121" s="9"/>
-      <c r="D121" s="19">
-        <v>3</v>
-      </c>
-      <c r="E121" s="19"/>
-      <c r="F121" s="29"/>
-      <c r="G121" s="20"/>
+      <c r="D121" s="16">
+        <v>3</v>
+      </c>
+      <c r="E121" s="16"/>
+      <c r="F121" s="26"/>
+      <c r="G121" s="17"/>
     </row>
     <row r="122" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A122" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="B122" s="20" t="s">
+      <c r="B122" s="17" t="s">
         <v>279</v>
       </c>
       <c r="C122" s="9"/>
-      <c r="D122" s="19">
-        <v>3</v>
-      </c>
-      <c r="E122" s="19"/>
-      <c r="F122" s="29"/>
-      <c r="G122" s="20"/>
+      <c r="D122" s="16">
+        <v>3</v>
+      </c>
+      <c r="E122" s="16"/>
+      <c r="F122" s="26"/>
+      <c r="G122" s="17"/>
     </row>
     <row r="123" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A123" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="B123" s="20" t="s">
+      <c r="B123" s="17" t="s">
         <v>271</v>
       </c>
       <c r="C123" s="9"/>
-      <c r="D123" s="19">
-        <v>3</v>
-      </c>
-      <c r="E123" s="19"/>
-      <c r="F123" s="29"/>
-      <c r="G123" s="20"/>
+      <c r="D123" s="16">
+        <v>3</v>
+      </c>
+      <c r="E123" s="16"/>
+      <c r="F123" s="26"/>
+      <c r="G123" s="17"/>
     </row>
     <row r="124" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A124" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="B124" s="20" t="s">
+      <c r="B124" s="17" t="s">
         <v>273</v>
       </c>
       <c r="C124" s="9"/>
-      <c r="D124" s="19">
-        <v>3</v>
-      </c>
-      <c r="E124" s="19"/>
-      <c r="F124" s="29"/>
-      <c r="G124" s="20"/>
+      <c r="D124" s="16">
+        <v>3</v>
+      </c>
+      <c r="E124" s="16"/>
+      <c r="F124" s="26"/>
+      <c r="G124" s="17"/>
     </row>
     <row r="125" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A125" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="B125" s="20" t="s">
+      <c r="B125" s="17" t="s">
         <v>275</v>
       </c>
       <c r="C125" s="9"/>
-      <c r="D125" s="19">
-        <v>3</v>
-      </c>
-      <c r="E125" s="19"/>
-      <c r="F125" s="29"/>
-      <c r="G125" s="20"/>
+      <c r="D125" s="16">
+        <v>3</v>
+      </c>
+      <c r="E125" s="16"/>
+      <c r="F125" s="26"/>
+      <c r="G125" s="17"/>
     </row>
     <row r="126" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A126" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="B126" s="20" t="s">
+      <c r="B126" s="17" t="s">
         <v>269</v>
       </c>
       <c r="C126" s="9"/>
-      <c r="D126" s="19">
-        <v>3</v>
-      </c>
-      <c r="E126" s="19"/>
-      <c r="F126" s="29"/>
-      <c r="G126" s="20"/>
+      <c r="D126" s="16">
+        <v>3</v>
+      </c>
+      <c r="E126" s="16"/>
+      <c r="F126" s="26"/>
+      <c r="G126" s="17"/>
     </row>
     <row r="127" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A127" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="B127" s="20" t="s">
+      <c r="B127" s="17" t="s">
         <v>267</v>
       </c>
       <c r="C127" s="9"/>
-      <c r="D127" s="19">
-        <v>3</v>
-      </c>
-      <c r="E127" s="19"/>
-      <c r="F127" s="29"/>
-      <c r="G127" s="20"/>
+      <c r="D127" s="16">
+        <v>3</v>
+      </c>
+      <c r="E127" s="16"/>
+      <c r="F127" s="26"/>
+      <c r="G127" s="17"/>
     </row>
     <row r="128" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A128" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="B128" s="20" t="s">
+      <c r="B128" s="17" t="s">
         <v>263</v>
       </c>
       <c r="C128" s="9"/>
-      <c r="D128" s="19">
-        <v>3</v>
-      </c>
-      <c r="E128" s="19"/>
-      <c r="F128" s="29"/>
-      <c r="G128" s="20"/>
+      <c r="D128" s="16">
+        <v>3</v>
+      </c>
+      <c r="E128" s="16"/>
+      <c r="F128" s="26"/>
+      <c r="G128" s="17"/>
     </row>
     <row r="129" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A129" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="B129" s="20" t="s">
+      <c r="B129" s="17" t="s">
         <v>265</v>
       </c>
       <c r="C129" s="9"/>
-      <c r="D129" s="19">
-        <v>3</v>
-      </c>
-      <c r="E129" s="19"/>
-      <c r="F129" s="29"/>
-      <c r="G129" s="20"/>
+      <c r="D129" s="16">
+        <v>3</v>
+      </c>
+      <c r="E129" s="16"/>
+      <c r="F129" s="26"/>
+      <c r="G129" s="17"/>
     </row>
     <row r="130" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A130" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="B130" s="20" t="s">
+      <c r="B130" s="17" t="s">
         <v>259</v>
       </c>
       <c r="C130" s="9"/>
-      <c r="D130" s="19">
-        <v>3</v>
-      </c>
-      <c r="E130" s="19"/>
-      <c r="F130" s="29"/>
-      <c r="G130" s="20"/>
+      <c r="D130" s="16">
+        <v>3</v>
+      </c>
+      <c r="E130" s="16"/>
+      <c r="F130" s="26"/>
+      <c r="G130" s="17"/>
     </row>
     <row r="131" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A131" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="B131" s="20" t="s">
+      <c r="B131" s="17" t="s">
         <v>261</v>
       </c>
       <c r="C131" s="9"/>
-      <c r="D131" s="19">
-        <v>3</v>
-      </c>
-      <c r="E131" s="19"/>
-      <c r="F131" s="29"/>
-      <c r="G131" s="20"/>
+      <c r="D131" s="16">
+        <v>3</v>
+      </c>
+      <c r="E131" s="16"/>
+      <c r="F131" s="26"/>
+      <c r="G131" s="17"/>
     </row>
     <row r="132" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A132" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="B132" s="20" t="s">
+      <c r="B132" s="17" t="s">
         <v>253</v>
       </c>
       <c r="C132" s="9"/>
-      <c r="D132" s="19">
-        <v>3</v>
-      </c>
-      <c r="E132" s="19"/>
-      <c r="F132" s="29"/>
-      <c r="G132" s="20"/>
+      <c r="D132" s="16">
+        <v>3</v>
+      </c>
+      <c r="E132" s="16"/>
+      <c r="F132" s="26"/>
+      <c r="G132" s="17"/>
     </row>
     <row r="133" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A133" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="B133" s="20" t="s">
+      <c r="B133" s="17" t="s">
         <v>256</v>
       </c>
       <c r="C133" s="9"/>
-      <c r="D133" s="19">
-        <v>3</v>
-      </c>
-      <c r="E133" s="19"/>
-      <c r="F133" s="29"/>
-      <c r="G133" s="20"/>
+      <c r="D133" s="16">
+        <v>3</v>
+      </c>
+      <c r="E133" s="16"/>
+      <c r="F133" s="26"/>
+      <c r="G133" s="17"/>
     </row>
     <row r="134" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A134" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="B134" s="20" t="s">
+      <c r="B134" s="17" t="s">
         <v>257</v>
       </c>
       <c r="C134" s="9"/>
-      <c r="D134" s="19">
-        <v>3</v>
-      </c>
-      <c r="E134" s="19"/>
-      <c r="F134" s="29"/>
-      <c r="G134" s="20"/>
+      <c r="D134" s="16">
+        <v>3</v>
+      </c>
+      <c r="E134" s="16"/>
+      <c r="F134" s="26"/>
+      <c r="G134" s="17"/>
     </row>
     <row r="135" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A135" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="B135" s="20" t="s">
+      <c r="B135" s="17" t="s">
         <v>251</v>
       </c>
       <c r="C135" s="9"/>
-      <c r="D135" s="19">
-        <v>3</v>
-      </c>
-      <c r="E135" s="19"/>
-      <c r="F135" s="29"/>
-      <c r="G135" s="20"/>
+      <c r="D135" s="16">
+        <v>3</v>
+      </c>
+      <c r="E135" s="16"/>
+      <c r="F135" s="26"/>
+      <c r="G135" s="17"/>
     </row>
     <row r="136" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A136" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="B136" s="20" t="s">
+      <c r="B136" s="17" t="s">
         <v>245</v>
       </c>
       <c r="C136" s="9"/>
-      <c r="D136" s="19">
-        <v>3</v>
-      </c>
-      <c r="E136" s="19"/>
-      <c r="F136" s="29"/>
-      <c r="G136" s="20"/>
+      <c r="D136" s="16">
+        <v>3</v>
+      </c>
+      <c r="E136" s="16"/>
+      <c r="F136" s="26"/>
+      <c r="G136" s="17"/>
     </row>
     <row r="137" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A137" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="B137" s="20" t="s">
+      <c r="B137" s="17" t="s">
         <v>248</v>
       </c>
       <c r="C137" s="9"/>
-      <c r="D137" s="19">
-        <v>3</v>
-      </c>
-      <c r="E137" s="19"/>
-      <c r="F137" s="29"/>
-      <c r="G137" s="20"/>
+      <c r="D137" s="16">
+        <v>3</v>
+      </c>
+      <c r="E137" s="16"/>
+      <c r="F137" s="26"/>
+      <c r="G137" s="17"/>
     </row>
     <row r="138" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A138" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="B138" s="20" t="s">
+      <c r="B138" s="17" t="s">
         <v>249</v>
       </c>
       <c r="C138" s="9"/>
-      <c r="D138" s="19">
-        <v>3</v>
-      </c>
-      <c r="E138" s="19"/>
-      <c r="F138" s="29"/>
-      <c r="G138" s="20"/>
+      <c r="D138" s="16">
+        <v>3</v>
+      </c>
+      <c r="E138" s="16"/>
+      <c r="F138" s="26"/>
+      <c r="G138" s="17"/>
     </row>
     <row r="139" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A139" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="B139" s="20" t="s">
+      <c r="B139" s="17" t="s">
         <v>241</v>
       </c>
       <c r="C139" s="9"/>
-      <c r="D139" s="19">
-        <v>3</v>
-      </c>
-      <c r="E139" s="19"/>
-      <c r="F139" s="29"/>
-      <c r="G139" s="20"/>
+      <c r="D139" s="16">
+        <v>3</v>
+      </c>
+      <c r="E139" s="16"/>
+      <c r="F139" s="26"/>
+      <c r="G139" s="17"/>
     </row>
     <row r="140" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A140" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="B140" s="20" t="s">
+      <c r="B140" s="17" t="s">
         <v>243</v>
       </c>
       <c r="C140" s="9"/>
-      <c r="D140" s="19">
-        <v>3</v>
-      </c>
-      <c r="E140" s="19"/>
-      <c r="F140" s="29"/>
-      <c r="G140" s="20"/>
+      <c r="D140" s="16">
+        <v>3</v>
+      </c>
+      <c r="E140" s="16"/>
+      <c r="F140" s="26"/>
+      <c r="G140" s="17"/>
     </row>
     <row r="141" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A141" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="B141" s="20" t="s">
+      <c r="B141" s="17" t="s">
         <v>235</v>
       </c>
       <c r="C141" s="9"/>
-      <c r="D141" s="19">
-        <v>3</v>
-      </c>
-      <c r="E141" s="19"/>
-      <c r="F141" s="29"/>
-      <c r="G141" s="20"/>
+      <c r="D141" s="16">
+        <v>3</v>
+      </c>
+      <c r="E141" s="16"/>
+      <c r="F141" s="26"/>
+      <c r="G141" s="17"/>
     </row>
     <row r="142" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A142" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="B142" s="20" t="s">
+      <c r="B142" s="17" t="s">
         <v>236</v>
       </c>
       <c r="C142" s="9"/>
-      <c r="D142" s="19">
-        <v>3</v>
-      </c>
-      <c r="E142" s="19"/>
-      <c r="F142" s="29"/>
-      <c r="G142" s="20"/>
+      <c r="D142" s="16">
+        <v>3</v>
+      </c>
+      <c r="E142" s="16"/>
+      <c r="F142" s="26"/>
+      <c r="G142" s="17"/>
     </row>
     <row r="143" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A143" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="B143" s="20" t="s">
+      <c r="B143" s="17" t="s">
         <v>239</v>
       </c>
       <c r="C143" s="9"/>
-      <c r="D143" s="19">
-        <v>3</v>
-      </c>
-      <c r="E143" s="19"/>
-      <c r="F143" s="29"/>
-      <c r="G143" s="20"/>
+      <c r="D143" s="16">
+        <v>3</v>
+      </c>
+      <c r="E143" s="16"/>
+      <c r="F143" s="26"/>
+      <c r="G143" s="17"/>
     </row>
     <row r="144" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A144" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="B144" s="20" t="s">
+      <c r="B144" s="17" t="s">
         <v>231</v>
       </c>
       <c r="C144" s="9"/>
-      <c r="D144" s="19">
-        <v>3</v>
-      </c>
-      <c r="E144" s="19"/>
-      <c r="F144" s="29"/>
-      <c r="G144" s="20"/>
+      <c r="D144" s="16">
+        <v>3</v>
+      </c>
+      <c r="E144" s="16"/>
+      <c r="F144" s="26"/>
+      <c r="G144" s="17"/>
     </row>
     <row r="145" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A145" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="B145" s="20" t="s">
+      <c r="B145" s="17" t="s">
         <v>233</v>
       </c>
       <c r="C145" s="9"/>
-      <c r="D145" s="19">
-        <v>3</v>
-      </c>
-      <c r="E145" s="19"/>
-      <c r="F145" s="29"/>
-      <c r="G145" s="20"/>
+      <c r="D145" s="16">
+        <v>3</v>
+      </c>
+      <c r="E145" s="16"/>
+      <c r="F145" s="26"/>
+      <c r="G145" s="17"/>
     </row>
     <row r="146" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A146" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="B146" s="20" t="s">
+      <c r="B146" s="17" t="s">
         <v>225</v>
       </c>
       <c r="C146" s="9"/>
-      <c r="D146" s="19">
-        <v>3</v>
-      </c>
-      <c r="E146" s="19"/>
-      <c r="F146" s="29"/>
-      <c r="G146" s="20"/>
+      <c r="D146" s="16">
+        <v>3</v>
+      </c>
+      <c r="E146" s="16"/>
+      <c r="F146" s="26"/>
+      <c r="G146" s="17"/>
     </row>
     <row r="147" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A147" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="B147" s="20" t="s">
+      <c r="B147" s="17" t="s">
         <v>227</v>
       </c>
       <c r="C147" s="9"/>
-      <c r="D147" s="19">
-        <v>3</v>
-      </c>
-      <c r="E147" s="19"/>
-      <c r="F147" s="29"/>
-      <c r="G147" s="20"/>
+      <c r="D147" s="16">
+        <v>3</v>
+      </c>
+      <c r="E147" s="16"/>
+      <c r="F147" s="26"/>
+      <c r="G147" s="17"/>
     </row>
     <row r="148" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A148" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="B148" s="20" t="s">
+      <c r="B148" s="17" t="s">
         <v>229</v>
       </c>
       <c r="C148" s="9"/>
-      <c r="D148" s="19">
-        <v>3</v>
-      </c>
-      <c r="E148" s="19"/>
-      <c r="F148" s="29"/>
-      <c r="G148" s="20"/>
+      <c r="D148" s="16">
+        <v>3</v>
+      </c>
+      <c r="E148" s="16"/>
+      <c r="F148" s="26"/>
+      <c r="G148" s="17"/>
     </row>
     <row r="149" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A149" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="B149" s="20" t="s">
+      <c r="B149" s="17" t="s">
         <v>223</v>
       </c>
       <c r="C149" s="9"/>
-      <c r="D149" s="19">
-        <v>3</v>
-      </c>
-      <c r="E149" s="19"/>
-      <c r="F149" s="29"/>
-      <c r="G149" s="20"/>
+      <c r="D149" s="16">
+        <v>3</v>
+      </c>
+      <c r="E149" s="16"/>
+      <c r="F149" s="26"/>
+      <c r="G149" s="17"/>
     </row>
     <row r="150" spans="1:7" hidden="1" outlineLevel="1">
-      <c r="A150" s="21" t="s">
+      <c r="A150" s="18" t="s">
         <v>220</v>
       </c>
-      <c r="B150" s="20" t="s">
+      <c r="B150" s="17" t="s">
         <v>221</v>
       </c>
       <c r="C150" s="9"/>
-      <c r="D150" s="19">
-        <v>3</v>
-      </c>
-      <c r="E150" s="19"/>
-      <c r="F150" s="29"/>
-      <c r="G150" s="20"/>
+      <c r="D150" s="16">
+        <v>3</v>
+      </c>
+      <c r="E150" s="16"/>
+      <c r="F150" s="26"/>
+      <c r="G150" s="17"/>
     </row>
     <row r="151" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A151" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="B151" s="20" t="s">
+      <c r="B151" s="17" t="s">
         <v>219</v>
       </c>
       <c r="C151" s="9"/>
-      <c r="D151" s="19">
-        <v>3</v>
-      </c>
-      <c r="E151" s="19"/>
-      <c r="F151" s="29"/>
-      <c r="G151" s="20"/>
+      <c r="D151" s="16">
+        <v>3</v>
+      </c>
+      <c r="E151" s="16"/>
+      <c r="F151" s="26"/>
+      <c r="G151" s="17"/>
     </row>
     <row r="152" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A152" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="B152" s="24" t="s">
+      <c r="B152" s="21" t="s">
         <v>217</v>
       </c>
       <c r="C152" s="9"/>
-      <c r="D152" s="19">
-        <v>3</v>
-      </c>
-      <c r="E152" s="19"/>
-      <c r="F152" s="29"/>
-      <c r="G152" s="20"/>
+      <c r="D152" s="16">
+        <v>3</v>
+      </c>
+      <c r="E152" s="16"/>
+      <c r="F152" s="26"/>
+      <c r="G152" s="17"/>
     </row>
     <row r="153" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A153" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="B153" s="24" t="s">
+      <c r="B153" s="21" t="s">
         <v>215</v>
       </c>
       <c r="C153" s="9"/>
-      <c r="D153" s="19">
-        <v>3</v>
-      </c>
-      <c r="E153" s="19"/>
-      <c r="F153" s="29"/>
-      <c r="G153" s="20"/>
+      <c r="D153" s="16">
+        <v>3</v>
+      </c>
+      <c r="E153" s="16"/>
+      <c r="F153" s="26"/>
+      <c r="G153" s="17"/>
     </row>
     <row r="154" spans="1:7" outlineLevel="1">
       <c r="A154" s="4" t="s">
@@ -6119,15 +6166,15 @@
         <v>210</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="D154" s="19">
+        <v>3</v>
+      </c>
+      <c r="D154" s="16">
         <v>1</v>
       </c>
-      <c r="E154" s="25" t="s">
-        <v>377</v>
-      </c>
-      <c r="F154" s="29">
+      <c r="E154" s="22" t="s">
+        <v>375</v>
+      </c>
+      <c r="F154" s="26">
         <v>4</v>
       </c>
     </row>
@@ -6141,29 +6188,32 @@
       <c r="C155" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="D155" s="19">
+      <c r="D155" s="16">
         <v>1</v>
       </c>
-      <c r="E155" s="25" t="s">
-        <v>377</v>
-      </c>
-      <c r="F155" s="29">
+      <c r="E155" s="22" t="s">
+        <v>375</v>
+      </c>
+      <c r="F155" s="26">
         <v>4</v>
       </c>
     </row>
     <row r="156" spans="1:7">
-      <c r="A156" s="8" t="s">
+      <c r="A156" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="B156" s="20" t="s">
+      <c r="B156" s="30" t="s">
         <v>118</v>
       </c>
-      <c r="C156" s="9"/>
-      <c r="D156" s="19"/>
-      <c r="E156" s="31" t="s">
-        <v>393</v>
-      </c>
-      <c r="F156" s="29"/>
+      <c r="C156" s="31"/>
+      <c r="D156" s="33" t="s">
+        <v>391</v>
+      </c>
+      <c r="E156" s="33" t="s">
+        <v>391</v>
+      </c>
+      <c r="F156" s="32"/>
+      <c r="G156" s="30"/>
     </row>
     <row r="157" spans="1:7" outlineLevel="1">
       <c r="A157" s="4" t="s">
@@ -6172,43 +6222,46 @@
       <c r="B157" t="s">
         <v>53</v>
       </c>
-      <c r="D157" s="19">
+      <c r="C157" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D157" s="16">
         <v>1</v>
       </c>
-      <c r="E157" s="25" t="s">
-        <v>377</v>
-      </c>
-      <c r="F157" s="29">
+      <c r="E157" s="22" t="s">
+        <v>375</v>
+      </c>
+      <c r="F157" s="26">
         <v>4</v>
       </c>
     </row>
-    <row r="158" spans="1:7" hidden="1" outlineLevel="1">
+    <row r="158" spans="1:7" outlineLevel="1">
       <c r="A158" s="7" t="s">
         <v>54</v>
       </c>
       <c r="B158" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D158" s="19">
-        <v>3</v>
-      </c>
-      <c r="E158" s="25"/>
-      <c r="F158" s="29"/>
-    </row>
-    <row r="159" spans="1:7" hidden="1" outlineLevel="1">
+      <c r="D158" s="16">
+        <v>3</v>
+      </c>
+      <c r="E158" s="22"/>
+      <c r="F158" s="26"/>
+    </row>
+    <row r="159" spans="1:7" outlineLevel="1">
       <c r="A159" s="4" t="s">
         <v>56</v>
       </c>
       <c r="B159" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D159" s="19">
-        <v>3</v>
-      </c>
-      <c r="E159" s="19"/>
-      <c r="F159" s="29"/>
-    </row>
-    <row r="160" spans="1:7" hidden="1" outlineLevel="1">
+      <c r="D159" s="16">
+        <v>3</v>
+      </c>
+      <c r="E159" s="16"/>
+      <c r="F159" s="26"/>
+    </row>
+    <row r="160" spans="1:7" outlineLevel="1">
       <c r="A160" s="4" t="s">
         <v>58</v>
       </c>
@@ -6218,13 +6271,13 @@
       <c r="C160" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D160" s="19">
+      <c r="D160" s="16">
         <v>1</v>
       </c>
-      <c r="E160" s="25" t="s">
-        <v>378</v>
-      </c>
-      <c r="F160" s="29"/>
+      <c r="E160" s="22" t="s">
+        <v>376</v>
+      </c>
+      <c r="F160" s="26"/>
     </row>
     <row r="161" spans="1:7" outlineLevel="1">
       <c r="A161" s="4" t="s">
@@ -6233,13 +6286,16 @@
       <c r="B161" t="s">
         <v>61</v>
       </c>
-      <c r="D161" s="19">
+      <c r="C161" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D161" s="16">
         <v>1</v>
       </c>
-      <c r="E161" s="25" t="s">
-        <v>379</v>
-      </c>
-      <c r="F161" s="29">
+      <c r="E161" s="22" t="s">
+        <v>377</v>
+      </c>
+      <c r="F161" s="26">
         <v>4</v>
       </c>
     </row>
@@ -6250,13 +6306,16 @@
       <c r="B162" t="s">
         <v>63</v>
       </c>
-      <c r="D162" s="19">
+      <c r="C162" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D162" s="16">
         <v>1</v>
       </c>
-      <c r="E162" s="25" t="s">
-        <v>377</v>
-      </c>
-      <c r="F162" s="29">
+      <c r="E162" s="22" t="s">
+        <v>375</v>
+      </c>
+      <c r="F162" s="26">
         <v>4</v>
       </c>
     </row>
@@ -6267,13 +6326,16 @@
       <c r="B163" t="s">
         <v>65</v>
       </c>
-      <c r="D163" s="19">
+      <c r="C163" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D163" s="16">
         <v>1</v>
       </c>
-      <c r="E163" s="25" t="s">
-        <v>377</v>
-      </c>
-      <c r="F163" s="29">
+      <c r="E163" s="22" t="s">
+        <v>375</v>
+      </c>
+      <c r="F163" s="26">
         <v>4</v>
       </c>
     </row>
@@ -6284,13 +6346,16 @@
       <c r="B164" t="s">
         <v>67</v>
       </c>
-      <c r="D164" s="19">
+      <c r="C164" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D164" s="16">
         <v>1</v>
       </c>
-      <c r="E164" s="25" t="s">
-        <v>379</v>
-      </c>
-      <c r="F164" s="29">
+      <c r="E164" s="22" t="s">
+        <v>377</v>
+      </c>
+      <c r="F164" s="26">
         <v>4</v>
       </c>
     </row>
@@ -6301,13 +6366,16 @@
       <c r="B165" t="s">
         <v>69</v>
       </c>
-      <c r="D165" s="19">
+      <c r="C165" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D165" s="16">
         <v>1</v>
       </c>
-      <c r="E165" s="25" t="s">
-        <v>379</v>
-      </c>
-      <c r="F165" s="29">
+      <c r="E165" s="22" t="s">
+        <v>377</v>
+      </c>
+      <c r="F165" s="26">
         <v>4</v>
       </c>
     </row>
@@ -6318,250 +6386,267 @@
       <c r="B166" t="s">
         <v>71</v>
       </c>
-      <c r="D166" s="19">
+      <c r="C166" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D166" s="16">
         <v>1</v>
       </c>
-      <c r="E166" s="25" t="s">
-        <v>379</v>
-      </c>
-      <c r="F166" s="29">
+      <c r="E166" s="22" t="s">
+        <v>377</v>
+      </c>
+      <c r="F166" s="26">
         <v>4</v>
       </c>
     </row>
-    <row r="167" spans="1:7" hidden="1" outlineLevel="1">
+    <row r="167" spans="1:7" outlineLevel="1">
       <c r="A167" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D167" s="19">
+      <c r="D167" s="16">
         <v>4</v>
       </c>
-      <c r="E167" s="19"/>
-      <c r="F167" s="29"/>
-      <c r="G167" s="20" t="s">
+      <c r="E167" s="16"/>
+      <c r="F167" s="26"/>
+      <c r="G167" s="17" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="168" spans="1:7" collapsed="1">
-      <c r="A168" s="8" t="s">
+    <row r="168" spans="1:7">
+      <c r="A168" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="B168" s="20" t="s">
+      <c r="B168" s="30" t="s">
         <v>208</v>
       </c>
-      <c r="C168" s="9"/>
-      <c r="D168" s="31" t="s">
-        <v>393</v>
-      </c>
-      <c r="E168" s="31" t="s">
-        <v>393</v>
-      </c>
-      <c r="F168" s="29"/>
-      <c r="G168" s="22"/>
-    </row>
-    <row r="169" spans="1:7" hidden="1" outlineLevel="1">
+      <c r="C168" s="31"/>
+      <c r="D168" s="33" t="s">
+        <v>391</v>
+      </c>
+      <c r="E168" s="33" t="s">
+        <v>391</v>
+      </c>
+      <c r="F168" s="32"/>
+      <c r="G168" s="30"/>
+    </row>
+    <row r="169" spans="1:7" outlineLevel="1">
       <c r="C169"/>
-      <c r="D169" s="20"/>
-      <c r="E169" s="25"/>
-      <c r="F169" s="29"/>
-      <c r="G169" s="22"/>
-    </row>
-    <row r="170" spans="1:7" collapsed="1">
-      <c r="A170" s="8" t="s">
+      <c r="D169" s="17"/>
+      <c r="E169" s="22"/>
+      <c r="F169" s="26"/>
+      <c r="G169" s="19"/>
+    </row>
+    <row r="170" spans="1:7">
+      <c r="A170" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="B170" s="20" t="s">
+      <c r="B170" s="30" t="s">
         <v>346</v>
       </c>
-      <c r="C170" s="9"/>
-      <c r="D170" s="19"/>
-      <c r="E170" s="31" t="s">
-        <v>393</v>
-      </c>
-      <c r="F170" s="29"/>
-      <c r="G170" s="22"/>
-    </row>
-    <row r="171" spans="1:7" hidden="1" outlineLevel="1">
-      <c r="D171" s="19"/>
-      <c r="E171" s="25"/>
-      <c r="F171" s="29"/>
-      <c r="G171" s="22"/>
-    </row>
-    <row r="172" spans="1:7" collapsed="1">
-      <c r="A172" s="8" t="s">
+      <c r="C170" s="31"/>
+      <c r="D170" s="33" t="s">
+        <v>391</v>
+      </c>
+      <c r="E170" s="33" t="s">
+        <v>391</v>
+      </c>
+      <c r="F170" s="32"/>
+      <c r="G170" s="30"/>
+    </row>
+    <row r="171" spans="1:7" outlineLevel="1">
+      <c r="D171" s="16"/>
+      <c r="E171" s="22"/>
+      <c r="F171" s="26"/>
+      <c r="G171" s="19"/>
+    </row>
+    <row r="172" spans="1:7">
+      <c r="A172" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="B172" s="20" t="s">
+      <c r="B172" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="C172" s="9"/>
-      <c r="D172" s="19"/>
-      <c r="E172" s="31" t="s">
-        <v>393</v>
-      </c>
-      <c r="F172" s="29"/>
-      <c r="G172" s="22"/>
-    </row>
-    <row r="173" spans="1:7" hidden="1" outlineLevel="1">
-      <c r="D173" s="19"/>
-      <c r="E173" s="25"/>
-      <c r="F173" s="29"/>
-      <c r="G173" s="22"/>
-    </row>
-    <row r="174" spans="1:7" collapsed="1">
-      <c r="A174" s="8" t="s">
+      <c r="C172" s="31"/>
+      <c r="D172" s="33" t="s">
+        <v>391</v>
+      </c>
+      <c r="E172" s="33" t="s">
+        <v>391</v>
+      </c>
+      <c r="F172" s="32"/>
+      <c r="G172" s="30"/>
+    </row>
+    <row r="173" spans="1:7" outlineLevel="1">
+      <c r="D173" s="16"/>
+      <c r="E173" s="22"/>
+      <c r="F173" s="26"/>
+      <c r="G173" s="19"/>
+    </row>
+    <row r="174" spans="1:7">
+      <c r="A174" s="29" t="s">
         <v>119</v>
       </c>
-      <c r="B174" s="20" t="s">
+      <c r="B174" s="30" t="s">
         <v>120</v>
       </c>
-      <c r="C174" s="9"/>
-      <c r="D174" s="19"/>
-      <c r="E174" s="31" t="s">
-        <v>393</v>
-      </c>
-      <c r="F174" s="29"/>
-      <c r="G174" s="22"/>
-    </row>
-    <row r="175" spans="1:7" hidden="1" outlineLevel="1">
+      <c r="C174" s="31"/>
+      <c r="D174" s="33" t="s">
+        <v>391</v>
+      </c>
+      <c r="E174" s="33" t="s">
+        <v>391</v>
+      </c>
+      <c r="F174" s="32"/>
+      <c r="G174" s="30"/>
+    </row>
+    <row r="175" spans="1:7" outlineLevel="1">
       <c r="A175" s="11"/>
       <c r="B175" s="11"/>
       <c r="C175" s="12"/>
-      <c r="D175" s="23"/>
-      <c r="E175" s="28"/>
-      <c r="F175" s="30"/>
-      <c r="G175" s="22"/>
-    </row>
-    <row r="176" spans="1:7" collapsed="1">
-      <c r="A176" s="8" t="s">
+      <c r="D175" s="20"/>
+      <c r="E175" s="25"/>
+      <c r="F175" s="27"/>
+      <c r="G175" s="19"/>
+    </row>
+    <row r="176" spans="1:7">
+      <c r="A176" s="29" t="s">
         <v>121</v>
       </c>
-      <c r="B176" s="20" t="s">
+      <c r="B176" s="30" t="s">
         <v>122</v>
       </c>
-      <c r="C176" s="9"/>
-      <c r="D176" s="19"/>
-      <c r="E176" s="31" t="s">
-        <v>393</v>
-      </c>
-      <c r="F176" s="29"/>
-      <c r="G176" s="22"/>
+      <c r="C176" s="31"/>
+      <c r="D176" s="33" t="s">
+        <v>391</v>
+      </c>
+      <c r="E176" s="33" t="s">
+        <v>391</v>
+      </c>
+      <c r="F176" s="32"/>
+      <c r="G176" s="30"/>
     </row>
     <row r="177" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A177" s="11"/>
       <c r="B177" s="11"/>
       <c r="C177" s="12"/>
-      <c r="D177" s="23"/>
-      <c r="E177" s="28"/>
-      <c r="F177" s="30"/>
-      <c r="G177" s="22"/>
+      <c r="D177" s="20"/>
+      <c r="E177" s="25"/>
+      <c r="F177" s="27"/>
+      <c r="G177" s="19"/>
     </row>
     <row r="178" spans="1:7" hidden="1">
       <c r="A178" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="B178" s="20" t="s">
+      <c r="B178" s="17" t="s">
         <v>124</v>
       </c>
       <c r="C178" s="9"/>
-      <c r="D178" s="31" t="s">
-        <v>393</v>
-      </c>
-      <c r="E178" s="19"/>
-      <c r="F178" s="29"/>
-      <c r="G178" s="22"/>
+      <c r="D178" s="28" t="s">
+        <v>391</v>
+      </c>
+      <c r="E178" s="16"/>
+      <c r="F178" s="26"/>
+      <c r="G178" s="19"/>
     </row>
     <row r="179" spans="1:7" outlineLevel="1">
-      <c r="A179" s="18" t="s">
+      <c r="A179" s="15" t="s">
         <v>349</v>
       </c>
       <c r="B179" s="11" t="s">
         <v>350</v>
       </c>
       <c r="C179" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="D179" s="23">
+        <v>3</v>
+      </c>
+      <c r="D179" s="20">
         <v>1</v>
       </c>
-      <c r="E179" s="28" t="s">
-        <v>379</v>
-      </c>
-      <c r="F179" s="30">
+      <c r="E179" s="25" t="s">
+        <v>377</v>
+      </c>
+      <c r="F179" s="27">
         <v>4</v>
       </c>
     </row>
     <row r="180" spans="1:7" outlineLevel="1">
-      <c r="A180" s="18" t="s">
+      <c r="A180" s="15" t="s">
         <v>351</v>
       </c>
       <c r="B180" s="11" t="s">
         <v>352</v>
       </c>
-      <c r="C180" s="12"/>
-      <c r="D180" s="23">
+      <c r="C180" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D180" s="20">
         <v>1</v>
       </c>
-      <c r="E180" s="28" t="s">
-        <v>379</v>
-      </c>
-      <c r="F180" s="30">
+      <c r="E180" s="25" t="s">
+        <v>377</v>
+      </c>
+      <c r="F180" s="27">
         <v>4</v>
       </c>
     </row>
     <row r="181" spans="1:7" outlineLevel="1">
-      <c r="A181" s="18" t="s">
+      <c r="A181" s="15" t="s">
         <v>353</v>
       </c>
       <c r="B181" s="11" t="s">
         <v>354</v>
       </c>
-      <c r="C181" s="12"/>
-      <c r="D181" s="23">
+      <c r="C181" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D181" s="20">
         <v>1</v>
       </c>
-      <c r="E181" s="28" t="s">
-        <v>379</v>
-      </c>
-      <c r="F181" s="30">
+      <c r="E181" s="25" t="s">
+        <v>377</v>
+      </c>
+      <c r="F181" s="27">
         <v>4</v>
       </c>
     </row>
     <row r="182" spans="1:7" outlineLevel="1">
-      <c r="A182" s="18" t="s">
-        <v>390</v>
+      <c r="A182" s="15" t="s">
+        <v>388</v>
       </c>
       <c r="B182" s="11" t="s">
-        <v>391</v>
-      </c>
-      <c r="C182" s="12"/>
-      <c r="D182" s="23">
+        <v>389</v>
+      </c>
+      <c r="C182" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D182" s="20">
         <v>1</v>
       </c>
-      <c r="E182" s="28" t="s">
-        <v>379</v>
-      </c>
-      <c r="F182" s="30">
+      <c r="E182" s="25" t="s">
+        <v>377</v>
+      </c>
+      <c r="F182" s="27">
         <v>4</v>
       </c>
     </row>
-    <row r="183" spans="1:7" hidden="1" outlineLevel="1">
-      <c r="A183" s="18" t="s">
+    <row r="183" spans="1:7" outlineLevel="1">
+      <c r="A183" s="15" t="s">
         <v>355</v>
       </c>
       <c r="B183" s="11" t="s">
         <v>356</v>
       </c>
       <c r="C183" s="12"/>
-      <c r="D183" s="23">
+      <c r="D183" s="20">
         <v>2</v>
       </c>
-      <c r="E183" s="28"/>
-      <c r="F183" s="30">
+      <c r="E183" s="25"/>
+      <c r="F183" s="27">
         <v>4</v>
       </c>
     </row>
-    <row r="184" spans="1:7" hidden="1" outlineLevel="1">
-      <c r="A184" s="18" t="s">
+    <row r="184" spans="1:7" outlineLevel="1">
+      <c r="A184" s="15" t="s">
         <v>357</v>
       </c>
       <c r="B184" s="11" t="s">
@@ -6570,16 +6655,16 @@
       <c r="C184" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D184" s="23">
+      <c r="D184" s="20">
         <v>1</v>
       </c>
-      <c r="E184" s="28" t="s">
-        <v>378</v>
-      </c>
-      <c r="F184" s="30"/>
-    </row>
-    <row r="185" spans="1:7" hidden="1" outlineLevel="1">
-      <c r="A185" s="18" t="s">
+      <c r="E184" s="25" t="s">
+        <v>376</v>
+      </c>
+      <c r="F184" s="27"/>
+    </row>
+    <row r="185" spans="1:7" outlineLevel="1">
+      <c r="A185" s="15" t="s">
         <v>359</v>
       </c>
       <c r="B185" s="11" t="s">
@@ -6588,102 +6673,104 @@
       <c r="C185" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D185" s="23">
+      <c r="D185" s="20">
         <v>1</v>
       </c>
-      <c r="E185" s="28" t="s">
-        <v>378</v>
-      </c>
-      <c r="F185" s="30"/>
-    </row>
-    <row r="186" spans="1:7" hidden="1" outlineLevel="1">
-      <c r="A186" s="18" t="s">
+      <c r="E185" s="25" t="s">
+        <v>376</v>
+      </c>
+      <c r="F185" s="27"/>
+    </row>
+    <row r="186" spans="1:7" outlineLevel="1">
+      <c r="A186" s="15" t="s">
         <v>361</v>
       </c>
       <c r="B186" s="11" t="s">
         <v>362</v>
       </c>
       <c r="C186" s="12"/>
-      <c r="D186" s="23">
+      <c r="D186" s="20">
         <v>4</v>
       </c>
-      <c r="E186" s="23"/>
-      <c r="F186" s="30"/>
-      <c r="G186" s="22" t="s">
+      <c r="E186" s="20"/>
+      <c r="F186" s="27"/>
+      <c r="G186" s="19" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="187" spans="1:7" hidden="1" outlineLevel="1">
-      <c r="A187" s="18" t="s">
+    <row r="187" spans="1:7" outlineLevel="1">
+      <c r="A187" s="15" t="s">
         <v>364</v>
       </c>
       <c r="B187" s="11" t="s">
         <v>365</v>
       </c>
       <c r="C187" s="12"/>
-      <c r="D187" s="23">
+      <c r="D187" s="20">
         <v>2</v>
       </c>
-      <c r="E187" s="23"/>
-      <c r="F187" s="30"/>
-      <c r="G187" s="22"/>
-    </row>
-    <row r="188" spans="1:7" hidden="1" outlineLevel="1">
-      <c r="A188" s="18" t="s">
+      <c r="E187" s="20"/>
+      <c r="F187" s="27"/>
+      <c r="G187" s="19"/>
+    </row>
+    <row r="188" spans="1:7" outlineLevel="1">
+      <c r="A188" s="15" t="s">
         <v>366</v>
       </c>
       <c r="B188" s="11" t="s">
         <v>367</v>
       </c>
       <c r="C188" s="12"/>
-      <c r="D188" s="23">
+      <c r="D188" s="20">
         <v>2</v>
       </c>
-      <c r="E188" s="23"/>
-      <c r="F188" s="30"/>
-      <c r="G188" s="22"/>
-    </row>
-    <row r="189" spans="1:7" hidden="1" outlineLevel="1">
-      <c r="A189" s="18" t="s">
+      <c r="E188" s="20"/>
+      <c r="F188" s="27"/>
+      <c r="G188" s="19"/>
+    </row>
+    <row r="189" spans="1:7" outlineLevel="1">
+      <c r="A189" s="15" t="s">
         <v>369</v>
       </c>
       <c r="B189" s="11" t="s">
         <v>368</v>
       </c>
       <c r="C189" s="12"/>
-      <c r="D189" s="23">
-        <v>3</v>
-      </c>
-      <c r="E189" s="23"/>
-      <c r="F189" s="30"/>
-      <c r="G189" s="22" t="s">
+      <c r="D189" s="20">
+        <v>3</v>
+      </c>
+      <c r="E189" s="20"/>
+      <c r="F189" s="27"/>
+      <c r="G189" s="19" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="190" spans="1:7" collapsed="1">
-      <c r="A190" s="14" t="s">
+    <row r="190" spans="1:7">
+      <c r="A190" s="29" t="s">
         <v>205</v>
       </c>
-      <c r="B190" s="11" t="s">
+      <c r="B190" s="30" t="s">
         <v>206</v>
       </c>
-      <c r="C190" s="12"/>
-      <c r="D190" s="32"/>
-      <c r="E190" s="32" t="s">
-        <v>393</v>
-      </c>
-      <c r="F190" s="30"/>
-      <c r="G190" s="20"/>
+      <c r="C190" s="31"/>
+      <c r="D190" s="33" t="s">
+        <v>391</v>
+      </c>
+      <c r="E190" s="33" t="s">
+        <v>391</v>
+      </c>
+      <c r="F190" s="32"/>
+      <c r="G190" s="30"/>
     </row>
     <row r="191" spans="1:7">
       <c r="A191" s="11"/>
       <c r="B191" s="11"/>
       <c r="C191" s="12"/>
       <c r="D191" s="12"/>
-      <c r="E191" s="28" t="s">
-        <v>392</v>
-      </c>
-      <c r="F191" s="30">
+      <c r="E191" s="25" t="s">
+        <v>390</v>
+      </c>
+      <c r="F191" s="27">
         <f>SUM(Table1[Cost])/8</f>
         <v>10.5</v>
       </c>
@@ -6701,12 +6788,12 @@
     </row>
     <row r="194" spans="1:2">
       <c r="A194" t="s">
-        <v>375</v>
+        <v>392</v>
       </c>
     </row>
     <row r="195" spans="1:2">
       <c r="A195" t="s">
-        <v>373</v>
+        <v>393</v>
       </c>
     </row>
     <row r="199" spans="1:2">
